--- a/Datasets/data_sa.xlsx
+++ b/Datasets/data_sa.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="394">
   <si>
     <t>period</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>Var_Z2_sa</t>
+  </si>
+  <si>
+    <t>Z3_sa</t>
+  </si>
+  <si>
+    <t>Var_Z3_sa</t>
   </si>
   <si>
     <t>1</t>
@@ -1304,10 +1310,16 @@
       <c r="U1" t="s">
         <v>19</v>
       </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2" t="n" s="2">
         <v>32143.0</v>
@@ -1369,10 +1381,16 @@
       <c r="U2" t="n">
         <v>0.11830339528869491</v>
       </c>
+      <c r="V2" t="n">
+        <v>0.023821504435220145</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.11830339528869491</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B3" t="n" s="2">
         <v>32174.0</v>
@@ -1434,10 +1452,16 @@
       <c r="U3" t="n">
         <v>0.11069227848548319</v>
       </c>
+      <c r="V3" t="n">
+        <v>0.01811715422490006</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.11069227848548319</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4" t="n" s="2">
         <v>32203.0</v>
@@ -1499,10 +1523,16 @@
       <c r="U4" t="n">
         <v>0.11787176312146196</v>
       </c>
+      <c r="V4" t="n">
+        <v>0.018019499668218183</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.11787176312146196</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5" t="n" s="2">
         <v>32234.0</v>
@@ -1564,10 +1594,16 @@
       <c r="U5" t="n">
         <v>0.1006569397880992</v>
       </c>
+      <c r="V5" t="n">
+        <v>7.193182202126606E-4</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.1006569397880992</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B6" t="n" s="2">
         <v>32264.0</v>
@@ -1629,10 +1665,16 @@
       <c r="U6" t="n">
         <v>0.11491095345900096</v>
       </c>
+      <c r="V6" t="n">
+        <v>0.006688273449611329</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.11491095345900096</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B7" t="n" s="2">
         <v>32295.0</v>
@@ -1694,10 +1736,16 @@
       <c r="U7" t="n">
         <v>0.11569345591235694</v>
       </c>
+      <c r="V7" t="n">
+        <v>-0.012491278254905</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.11569345591235694</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B8" t="n" s="2">
         <v>32325.0</v>
@@ -1759,10 +1807,16 @@
       <c r="U8" t="n">
         <v>0.11300628040994189</v>
       </c>
+      <c r="V8" t="n">
+        <v>0.017945338173359117</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.11300628040994189</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B9" t="n" s="2">
         <v>32356.0</v>
@@ -1824,10 +1878,16 @@
       <c r="U9" t="n">
         <v>0.12111927117819608</v>
       </c>
+      <c r="V9" t="n">
+        <v>0.010043803547461733</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.12111927117819608</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B10" t="n" s="2">
         <v>32387.0</v>
@@ -1889,10 +1949,16 @@
       <c r="U10" t="n">
         <v>0.1285781476455761</v>
       </c>
+      <c r="V10" t="n">
+        <v>0.041091382170535776</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.1285781476455761</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B11" t="n" s="2">
         <v>32417.0</v>
@@ -1954,10 +2020,16 @@
       <c r="U11" t="n">
         <v>0.11132178366506623</v>
       </c>
+      <c r="V11" t="n">
+        <v>0.02266848763442185</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.11132178366506623</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B12" t="n" s="2">
         <v>32448.0</v>
@@ -2019,10 +2091,16 @@
       <c r="U12" t="n">
         <v>0.10596361883294704</v>
       </c>
+      <c r="V12" t="n">
+        <v>0.00769892742230182</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.10596361883294704</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B13" t="n" s="2">
         <v>32478.0</v>
@@ -2084,10 +2162,16 @@
       <c r="U13" t="n">
         <v>0.1057452395300853</v>
       </c>
+      <c r="V13" t="n">
+        <v>-0.012256975972886025</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.1057452395300853</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B14" t="n" s="2">
         <v>32509.0</v>
@@ -2149,10 +2233,16 @@
       <c r="U14" t="n">
         <v>0.1053677205588536</v>
       </c>
+      <c r="V14" t="n">
+        <v>-0.011475378540886169</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.1053677205588536</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B15" t="n" s="2">
         <v>32540.0</v>
@@ -2214,10 +2304,16 @@
       <c r="U15" t="n">
         <v>0.12028380037335665</v>
       </c>
+      <c r="V15" t="n">
+        <v>0.01672630780838292</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.12028380037335665</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B16" t="n" s="2">
         <v>32568.0</v>
@@ -2279,10 +2375,16 @@
       <c r="U16" t="n">
         <v>0.11036255365771325</v>
       </c>
+      <c r="V16" t="n">
+        <v>0.015302219621579696</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.11036255365771325</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B17" t="n" s="2">
         <v>32599.0</v>
@@ -2344,10 +2446,16 @@
       <c r="U17" t="n">
         <v>0.10450688108727202</v>
       </c>
+      <c r="V17" t="n">
+        <v>0.04254389280773459</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.10450688108727202</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B18" t="n" s="2">
         <v>32629.0</v>
@@ -2409,10 +2517,16 @@
       <c r="U18" t="n">
         <v>0.0903116244253113</v>
       </c>
+      <c r="V18" t="n">
+        <v>0.011048361508538088</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.0903116244253113</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B19" t="n" s="2">
         <v>32660.0</v>
@@ -2474,10 +2588,16 @@
       <c r="U19" t="n">
         <v>0.10813346383012194</v>
       </c>
+      <c r="V19" t="n">
+        <v>0.011573295999706718</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.10813346383012194</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B20" t="n" s="2">
         <v>32690.0</v>
@@ -2539,10 +2659,16 @@
       <c r="U20" t="n">
         <v>0.10899690060802296</v>
       </c>
+      <c r="V20" t="n">
+        <v>0.003196044330351422</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.10899690060802296</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B21" t="n" s="2">
         <v>32721.0</v>
@@ -2604,10 +2730,16 @@
       <c r="U21" t="n">
         <v>0.11255447635072086</v>
       </c>
+      <c r="V21" t="n">
+        <v>-0.02391752847766285</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.11255447635072086</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B22" t="n" s="2">
         <v>32752.0</v>
@@ -2669,10 +2801,16 @@
       <c r="U22" t="n">
         <v>0.11035306515631933</v>
       </c>
+      <c r="V22" t="n">
+        <v>-0.024692110195789017</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.11035306515631933</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B23" t="n" s="2">
         <v>32782.0</v>
@@ -2734,10 +2872,16 @@
       <c r="U23" t="n">
         <v>0.12663677193629366</v>
       </c>
+      <c r="V23" t="n">
+        <v>-0.03780241675206622</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.12663677193629366</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B24" t="n" s="2">
         <v>32813.0</v>
@@ -2799,10 +2943,16 @@
       <c r="U24" t="n">
         <v>0.11230353891249112</v>
       </c>
+      <c r="V24" t="n">
+        <v>0.021284191236614215</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.11230353891249112</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B25" t="n" s="2">
         <v>32843.0</v>
@@ -2864,10 +3014,16 @@
       <c r="U25" t="n">
         <v>0.11580098100354694</v>
       </c>
+      <c r="V25" t="n">
+        <v>0.022409276565470992</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.11580098100354694</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B26" t="n" s="2">
         <v>32874.0</v>
@@ -2929,10 +3085,16 @@
       <c r="U26" t="n">
         <v>0.12407973258275903</v>
       </c>
+      <c r="V26" t="n">
+        <v>0.045304030022453395</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.12407973258275903</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B27" t="n" s="2">
         <v>32905.0</v>
@@ -2994,10 +3156,16 @@
       <c r="U27" t="n">
         <v>0.1152118589234872</v>
       </c>
+      <c r="V27" t="n">
+        <v>0.0041575512987972255</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.1152118589234872</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B28" t="n" s="2">
         <v>32933.0</v>
@@ -3059,10 +3227,16 @@
       <c r="U28" t="n">
         <v>0.11307678119469076</v>
       </c>
+      <c r="V28" t="n">
+        <v>-0.0011484828012525289</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.11307678119469076</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B29" t="n" s="2">
         <v>32964.0</v>
@@ -3124,10 +3298,16 @@
       <c r="U29" t="n">
         <v>0.11924986412747512</v>
       </c>
+      <c r="V29" t="n">
+        <v>-0.01812042876652311</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.11924986412747512</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B30" t="n" s="2">
         <v>32994.0</v>
@@ -3189,10 +3369,16 @@
       <c r="U30" t="n">
         <v>0.11356282422093653</v>
       </c>
+      <c r="V30" t="n">
+        <v>-0.015453205976314461</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.11356282422093653</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B31" t="n" s="2">
         <v>33025.0</v>
@@ -3254,10 +3440,16 @@
       <c r="U31" t="n">
         <v>0.1139383187175974</v>
       </c>
+      <c r="V31" t="n">
+        <v>-0.024564652327508332</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.1139383187175974</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B32" t="n" s="2">
         <v>33055.0</v>
@@ -3319,10 +3511,16 @@
       <c r="U32" t="n">
         <v>0.114638637317315</v>
       </c>
+      <c r="V32" t="n">
+        <v>-0.03459254387830598</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.114638637317315</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B33" t="n" s="2">
         <v>33086.0</v>
@@ -3384,10 +3582,16 @@
       <c r="U33" t="n">
         <v>0.1080561013601348</v>
       </c>
+      <c r="V33" t="n">
+        <v>-0.025476119772730812</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.1080561013601348</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B34" t="n" s="2">
         <v>33117.0</v>
@@ -3449,10 +3653,16 @@
       <c r="U34" t="n">
         <v>0.11268103885167985</v>
       </c>
+      <c r="V34" t="n">
+        <v>-0.049694994002050616</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0.11268103885167985</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B35" t="n" s="2">
         <v>33147.0</v>
@@ -3514,10 +3724,16 @@
       <c r="U35" t="n">
         <v>0.11195727786239905</v>
       </c>
+      <c r="V35" t="n">
+        <v>-0.024720847192238764</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.11195727786239905</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B36" t="n" s="2">
         <v>33178.0</v>
@@ -3579,10 +3795,16 @@
       <c r="U36" t="n">
         <v>0.12196999191875614</v>
       </c>
+      <c r="V36" t="n">
+        <v>-0.028537046551942072</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.12196999191875614</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B37" t="n" s="2">
         <v>33208.0</v>
@@ -3644,10 +3866,16 @@
       <c r="U37" t="n">
         <v>0.1230992674616596</v>
       </c>
+      <c r="V37" t="n">
+        <v>-0.016115827691138063</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.1230992674616596</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B38" t="n" s="2">
         <v>33239.0</v>
@@ -3709,10 +3937,16 @@
       <c r="U38" t="n">
         <v>0.11692787098855247</v>
       </c>
+      <c r="V38" t="n">
+        <v>-0.040014475476877</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.11692787098855247</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B39" t="n" s="2">
         <v>33270.0</v>
@@ -3774,10 +4008,16 @@
       <c r="U39" t="n">
         <v>0.13059598466748293</v>
       </c>
+      <c r="V39" t="n">
+        <v>-0.09221686829177536</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.13059598466748293</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B40" t="n" s="2">
         <v>33298.0</v>
@@ -3839,10 +4079,16 @@
       <c r="U40" t="n">
         <v>0.11039927871263253</v>
       </c>
+      <c r="V40" t="n">
+        <v>-0.07047303289908663</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.11039927871263253</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B41" t="n" s="2">
         <v>33329.0</v>
@@ -3904,10 +4150,16 @@
       <c r="U41" t="n">
         <v>0.13092473540110156</v>
       </c>
+      <c r="V41" t="n">
+        <v>-0.008850261780240065</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.13092473540110156</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B42" t="n" s="2">
         <v>33359.0</v>
@@ -3969,10 +4221,16 @@
       <c r="U42" t="n">
         <v>0.13871761350984513</v>
       </c>
+      <c r="V42" t="n">
+        <v>0.04232154063758404</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0.13871761350984513</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B43" t="n" s="2">
         <v>33390.0</v>
@@ -4034,10 +4292,16 @@
       <c r="U43" t="n">
         <v>0.14546199433865997</v>
       </c>
+      <c r="V43" t="n">
+        <v>0.021269930650211075</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.14546199433865997</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B44" t="n" s="2">
         <v>33420.0</v>
@@ -4099,10 +4363,16 @@
       <c r="U44" t="n">
         <v>0.13856015973499847</v>
       </c>
+      <c r="V44" t="n">
+        <v>-0.003839109303632843</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.13856015973499847</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B45" t="n" s="2">
         <v>33451.0</v>
@@ -4164,10 +4434,16 @@
       <c r="U45" t="n">
         <v>0.11616788117031233</v>
       </c>
+      <c r="V45" t="n">
+        <v>0.0065664111789744475</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.11616788117031233</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B46" t="n" s="2">
         <v>33482.0</v>
@@ -4229,10 +4505,16 @@
       <c r="U46" t="n">
         <v>0.12457665398270364</v>
       </c>
+      <c r="V46" t="n">
+        <v>0.009644600673963357</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0.12457665398270364</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B47" t="n" s="2">
         <v>33512.0</v>
@@ -4294,10 +4576,16 @@
       <c r="U47" t="n">
         <v>0.12678127773905784</v>
       </c>
+      <c r="V47" t="n">
+        <v>-0.008709550523709492</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0.12678127773905784</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B48" t="n" s="2">
         <v>33543.0</v>
@@ -4359,10 +4647,16 @@
       <c r="U48" t="n">
         <v>0.13446512983908912</v>
       </c>
+      <c r="V48" t="n">
+        <v>-0.02454249602839463</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0.13446512983908912</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B49" t="n" s="2">
         <v>33573.0</v>
@@ -4424,10 +4718,16 @@
       <c r="U49" t="n">
         <v>0.13421995794748107</v>
       </c>
+      <c r="V49" t="n">
+        <v>-0.02047274947361935</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0.13421995794748107</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B50" t="n" s="2">
         <v>33604.0</v>
@@ -4489,10 +4789,16 @@
       <c r="U50" t="n">
         <v>0.12757539114191616</v>
       </c>
+      <c r="V50" t="n">
+        <v>-0.016607742033993213</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0.12757539114191616</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B51" t="n" s="2">
         <v>33635.0</v>
@@ -4554,10 +4860,16 @@
       <c r="U51" t="n">
         <v>0.1261220806620499</v>
       </c>
+      <c r="V51" t="n">
+        <v>-0.0033250384927217234</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0.1261220806620499</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B52" t="n" s="2">
         <v>33664.0</v>
@@ -4619,10 +4931,16 @@
       <c r="U52" t="n">
         <v>0.12297140834932173</v>
       </c>
+      <c r="V52" t="n">
+        <v>-0.02351642600316281</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0.12297140834932173</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B53" t="n" s="2">
         <v>33695.0</v>
@@ -4684,10 +5002,16 @@
       <c r="U53" t="n">
         <v>0.11794510615893006</v>
       </c>
+      <c r="V53" t="n">
+        <v>-0.028671509029243987</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0.11794510615893006</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B54" t="n" s="2">
         <v>33725.0</v>
@@ -4749,10 +5073,16 @@
       <c r="U54" t="n">
         <v>0.1281913721648704</v>
       </c>
+      <c r="V54" t="n">
+        <v>-0.051141265771095124</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0.1281913721648704</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B55" t="n" s="2">
         <v>33756.0</v>
@@ -4814,10 +5144,16 @@
       <c r="U55" t="n">
         <v>0.12270895684351626</v>
       </c>
+      <c r="V55" t="n">
+        <v>-0.03871418639245259</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0.12270895684351626</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B56" t="n" s="2">
         <v>33786.0</v>
@@ -4879,10 +5215,16 @@
       <c r="U56" t="n">
         <v>0.11737940159456686</v>
       </c>
+      <c r="V56" t="n">
+        <v>0.0021933586440938055</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0.11737940159456686</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B57" t="n" s="2">
         <v>33817.0</v>
@@ -4944,10 +5286,16 @@
       <c r="U57" t="n">
         <v>0.11783842888256253</v>
       </c>
+      <c r="V57" t="n">
+        <v>-0.013814856100024697</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0.11783842888256253</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B58" t="n" s="2">
         <v>33848.0</v>
@@ -5009,10 +5357,16 @@
       <c r="U58" t="n">
         <v>0.12760267708220427</v>
       </c>
+      <c r="V58" t="n">
+        <v>-0.045014339840305756</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0.12760267708220427</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B59" t="n" s="2">
         <v>33878.0</v>
@@ -5074,10 +5428,16 @@
       <c r="U59" t="n">
         <v>0.1263330257159703</v>
       </c>
+      <c r="V59" t="n">
+        <v>-0.06507563623043218</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0.1263330257159703</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B60" t="n" s="2">
         <v>33909.0</v>
@@ -5139,10 +5499,16 @@
       <c r="U60" t="n">
         <v>0.12511757791599643</v>
       </c>
+      <c r="V60" t="n">
+        <v>-0.0644904563162465</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0.12511757791599643</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B61" t="n" s="2">
         <v>33939.0</v>
@@ -5204,10 +5570,16 @@
       <c r="U61" t="n">
         <v>0.11801254484991558</v>
       </c>
+      <c r="V61" t="n">
+        <v>-0.07094415030159418</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0.11801254484991558</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B62" t="n" s="2">
         <v>33970.0</v>
@@ -5269,10 +5641,16 @@
       <c r="U62" t="n">
         <v>0.11905610919689556</v>
       </c>
+      <c r="V62" t="n">
+        <v>-0.052540845930254904</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0.11905610919689556</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B63" t="n" s="2">
         <v>34001.0</v>
@@ -5334,10 +5712,16 @@
       <c r="U63" t="n">
         <v>0.1138311532622051</v>
       </c>
+      <c r="V63" t="n">
+        <v>-0.041318135872767364</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0.1138311532622051</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B64" t="n" s="2">
         <v>34029.0</v>
@@ -5399,10 +5783,16 @@
       <c r="U64" t="n">
         <v>0.11909154577598316</v>
       </c>
+      <c r="V64" t="n">
+        <v>2.640451141797534E-4</v>
+      </c>
+      <c r="W64" t="n">
+        <v>0.11909154577598316</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B65" t="n" s="2">
         <v>34060.0</v>
@@ -5464,10 +5854,16 @@
       <c r="U65" t="n">
         <v>0.12737836481329906</v>
       </c>
+      <c r="V65" t="n">
+        <v>0.027470642939967857</v>
+      </c>
+      <c r="W65" t="n">
+        <v>0.12737836481329906</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B66" t="n" s="2">
         <v>34090.0</v>
@@ -5529,10 +5925,16 @@
       <c r="U66" t="n">
         <v>0.11837871080784437</v>
       </c>
+      <c r="V66" t="n">
+        <v>0.015807339363992517</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0.11837871080784437</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B67" t="n" s="2">
         <v>34121.0</v>
@@ -5594,10 +5996,16 @@
       <c r="U67" t="n">
         <v>0.11985223787523727</v>
       </c>
+      <c r="V67" t="n">
+        <v>-0.008862604645907421</v>
+      </c>
+      <c r="W67" t="n">
+        <v>0.11985223787523727</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B68" t="n" s="2">
         <v>34151.0</v>
@@ -5659,10 +6067,16 @@
       <c r="U68" t="n">
         <v>0.12162475489454415</v>
       </c>
+      <c r="V68" t="n">
+        <v>-0.0015917203768552944</v>
+      </c>
+      <c r="W68" t="n">
+        <v>0.12162475489454415</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B69" t="n" s="2">
         <v>34182.0</v>
@@ -5724,10 +6138,16 @@
       <c r="U69" t="n">
         <v>0.13232140118155644</v>
       </c>
+      <c r="V69" t="n">
+        <v>0.003395293487833448</v>
+      </c>
+      <c r="W69" t="n">
+        <v>0.13232140118155644</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B70" t="n" s="2">
         <v>34213.0</v>
@@ -5789,10 +6209,16 @@
       <c r="U70" t="n">
         <v>0.12838249533379895</v>
       </c>
+      <c r="V70" t="n">
+        <v>0.02617838626390929</v>
+      </c>
+      <c r="W70" t="n">
+        <v>0.12838249533379895</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B71" t="n" s="2">
         <v>34243.0</v>
@@ -5854,10 +6280,16 @@
       <c r="U71" t="n">
         <v>0.12902048798541932</v>
       </c>
+      <c r="V71" t="n">
+        <v>0.026585652422783698</v>
+      </c>
+      <c r="W71" t="n">
+        <v>0.12902048798541932</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B72" t="n" s="2">
         <v>34274.0</v>
@@ -5919,10 +6351,16 @@
       <c r="U72" t="n">
         <v>0.12025086135322796</v>
       </c>
+      <c r="V72" t="n">
+        <v>0.04221278249138342</v>
+      </c>
+      <c r="W72" t="n">
+        <v>0.12025086135322796</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B73" t="n" s="2">
         <v>34304.0</v>
@@ -5984,10 +6422,16 @@
       <c r="U73" t="n">
         <v>0.11877150016478605</v>
       </c>
+      <c r="V73" t="n">
+        <v>0.05771049736681579</v>
+      </c>
+      <c r="W73" t="n">
+        <v>0.11877150016478605</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B74" t="n" s="2">
         <v>34335.0</v>
@@ -6049,10 +6493,16 @@
       <c r="U74" t="n">
         <v>0.12246098317874106</v>
       </c>
+      <c r="V74" t="n">
+        <v>0.04892918195030469</v>
+      </c>
+      <c r="W74" t="n">
+        <v>0.12246098317874106</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B75" t="n" s="2">
         <v>34366.0</v>
@@ -6114,10 +6564,16 @@
       <c r="U75" t="n">
         <v>0.15064695920396923</v>
       </c>
+      <c r="V75" t="n">
+        <v>0.04057032396676145</v>
+      </c>
+      <c r="W75" t="n">
+        <v>0.15064695920396923</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B76" t="n" s="2">
         <v>34394.0</v>
@@ -6179,10 +6635,16 @@
       <c r="U76" t="n">
         <v>0.13443781472060343</v>
       </c>
+      <c r="V76" t="n">
+        <v>0.034141386909998656</v>
+      </c>
+      <c r="W76" t="n">
+        <v>0.13443781472060343</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B77" t="n" s="2">
         <v>34425.0</v>
@@ -6244,10 +6706,16 @@
       <c r="U77" t="n">
         <v>0.12590655959110023</v>
       </c>
+      <c r="V77" t="n">
+        <v>0.028220750885128227</v>
+      </c>
+      <c r="W77" t="n">
+        <v>0.12590655959110023</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B78" t="n" s="2">
         <v>34455.0</v>
@@ -6309,10 +6777,16 @@
       <c r="U78" t="n">
         <v>0.11808382684859456</v>
       </c>
+      <c r="V78" t="n">
+        <v>-0.009422499053013692</v>
+      </c>
+      <c r="W78" t="n">
+        <v>0.11808382684859456</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B79" t="n" s="2">
         <v>34486.0</v>
@@ -6374,10 +6848,16 @@
       <c r="U79" t="n">
         <v>0.12213352317397665</v>
       </c>
+      <c r="V79" t="n">
+        <v>0.028439136129826743</v>
+      </c>
+      <c r="W79" t="n">
+        <v>0.12213352317397665</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B80" t="n" s="2">
         <v>34516.0</v>
@@ -6439,10 +6919,16 @@
       <c r="U80" t="n">
         <v>0.1326909141651165</v>
       </c>
+      <c r="V80" t="n">
+        <v>0.035106055731936654</v>
+      </c>
+      <c r="W80" t="n">
+        <v>0.1326909141651165</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B81" t="n" s="2">
         <v>34547.0</v>
@@ -6504,10 +6990,16 @@
       <c r="U81" t="n">
         <v>0.11800079935714024</v>
       </c>
+      <c r="V81" t="n">
+        <v>0.03312005581342515</v>
+      </c>
+      <c r="W81" t="n">
+        <v>0.11800079935714024</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B82" t="n" s="2">
         <v>34578.0</v>
@@ -6569,10 +7061,16 @@
       <c r="U82" t="n">
         <v>0.12478649394190407</v>
       </c>
+      <c r="V82" t="n">
+        <v>0.021985899579643607</v>
+      </c>
+      <c r="W82" t="n">
+        <v>0.12478649394190407</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B83" t="n" s="2">
         <v>34608.0</v>
@@ -6634,10 +7132,16 @@
       <c r="U83" t="n">
         <v>0.11900223702855942</v>
       </c>
+      <c r="V83" t="n">
+        <v>0.0298267642050193</v>
+      </c>
+      <c r="W83" t="n">
+        <v>0.11900223702855942</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B84" t="n" s="2">
         <v>34639.0</v>
@@ -6699,10 +7203,16 @@
       <c r="U84" t="n">
         <v>0.11730329260668361</v>
       </c>
+      <c r="V84" t="n">
+        <v>0.022850298335906193</v>
+      </c>
+      <c r="W84" t="n">
+        <v>0.11730329260668361</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B85" t="n" s="2">
         <v>34669.0</v>
@@ -6764,10 +7274,16 @@
       <c r="U85" t="n">
         <v>0.12626797720845087</v>
       </c>
+      <c r="V85" t="n">
+        <v>0.0065125583710360785</v>
+      </c>
+      <c r="W85" t="n">
+        <v>0.12626797720845087</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B86" t="n" s="2">
         <v>34700.0</v>
@@ -6829,10 +7345,16 @@
       <c r="U86" t="n">
         <v>0.12507622963507783</v>
       </c>
+      <c r="V86" t="n">
+        <v>-0.00743846556693735</v>
+      </c>
+      <c r="W86" t="n">
+        <v>0.12507622963507783</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B87" t="n" s="2">
         <v>34731.0</v>
@@ -6894,10 +7416,16 @@
       <c r="U87" t="n">
         <v>0.1240951809679554</v>
       </c>
+      <c r="V87" t="n">
+        <v>0.002394445978310941</v>
+      </c>
+      <c r="W87" t="n">
+        <v>0.1240951809679554</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B88" t="n" s="2">
         <v>34759.0</v>
@@ -6959,10 +7487,16 @@
       <c r="U88" t="n">
         <v>0.12008048248013639</v>
       </c>
+      <c r="V88" t="n">
+        <v>-0.039316432495072266</v>
+      </c>
+      <c r="W88" t="n">
+        <v>0.12008048248013639</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B89" t="n" s="2">
         <v>34790.0</v>
@@ -7024,10 +7558,16 @@
       <c r="U89" t="n">
         <v>0.12889481618079895</v>
       </c>
+      <c r="V89" t="n">
+        <v>-0.049295762046652994</v>
+      </c>
+      <c r="W89" t="n">
+        <v>0.12889481618079895</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B90" t="n" s="2">
         <v>34820.0</v>
@@ -7089,10 +7629,16 @@
       <c r="U90" t="n">
         <v>0.12581812220361802</v>
       </c>
+      <c r="V90" t="n">
+        <v>-0.07625239751694145</v>
+      </c>
+      <c r="W90" t="n">
+        <v>0.12581812220361802</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B91" t="n" s="2">
         <v>34851.0</v>
@@ -7154,10 +7700,16 @@
       <c r="U91" t="n">
         <v>0.13240759190691517</v>
       </c>
+      <c r="V91" t="n">
+        <v>-0.027080711177575507</v>
+      </c>
+      <c r="W91" t="n">
+        <v>0.13240759190691517</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B92" t="n" s="2">
         <v>34881.0</v>
@@ -7219,10 +7771,16 @@
       <c r="U92" t="n">
         <v>0.1165792874746577</v>
       </c>
+      <c r="V92" t="n">
+        <v>-0.0139119885477733</v>
+      </c>
+      <c r="W92" t="n">
+        <v>0.1165792874746577</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B93" t="n" s="2">
         <v>34912.0</v>
@@ -7284,10 +7842,16 @@
       <c r="U93" t="n">
         <v>0.12433379352435771</v>
       </c>
+      <c r="V93" t="n">
+        <v>0.001681360343564156</v>
+      </c>
+      <c r="W93" t="n">
+        <v>0.12433379352435771</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B94" t="n" s="2">
         <v>34943.0</v>
@@ -7349,10 +7913,16 @@
       <c r="U94" t="n">
         <v>0.11949329586491285</v>
       </c>
+      <c r="V94" t="n">
+        <v>-0.011007921339691997</v>
+      </c>
+      <c r="W94" t="n">
+        <v>0.11949329586491285</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B95" t="n" s="2">
         <v>34973.0</v>
@@ -7414,10 +7984,16 @@
       <c r="U95" t="n">
         <v>0.12535337188755125</v>
       </c>
+      <c r="V95" t="n">
+        <v>-0.023334719711565335</v>
+      </c>
+      <c r="W95" t="n">
+        <v>0.12535337188755125</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B96" t="n" s="2">
         <v>35004.0</v>
@@ -7479,10 +8055,16 @@
       <c r="U96" t="n">
         <v>0.13289307068830172</v>
       </c>
+      <c r="V96" t="n">
+        <v>-0.029810638289953034</v>
+      </c>
+      <c r="W96" t="n">
+        <v>0.13289307068830172</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B97" t="n" s="2">
         <v>35034.0</v>
@@ -7544,10 +8126,16 @@
       <c r="U97" t="n">
         <v>0.1172086911113773</v>
       </c>
+      <c r="V97" t="n">
+        <v>-0.03466483163968141</v>
+      </c>
+      <c r="W97" t="n">
+        <v>0.1172086911113773</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B98" t="n" s="2">
         <v>35065.0</v>
@@ -7609,10 +8197,16 @@
       <c r="U98" t="n">
         <v>0.12042236353489533</v>
       </c>
+      <c r="V98" t="n">
+        <v>-0.02005039049831357</v>
+      </c>
+      <c r="W98" t="n">
+        <v>0.12042236353489533</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B99" t="n" s="2">
         <v>35096.0</v>
@@ -7674,10 +8268,16 @@
       <c r="U99" t="n">
         <v>0.11498740505096794</v>
       </c>
+      <c r="V99" t="n">
+        <v>-0.017133126556797617</v>
+      </c>
+      <c r="W99" t="n">
+        <v>0.11498740505096794</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B100" t="n" s="2">
         <v>35125.0</v>
@@ -7739,10 +8339,16 @@
       <c r="U100" t="n">
         <v>0.12267271097778502</v>
       </c>
+      <c r="V100" t="n">
+        <v>-0.0035995014141589586</v>
+      </c>
+      <c r="W100" t="n">
+        <v>0.12267271097778502</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B101" t="n" s="2">
         <v>35156.0</v>
@@ -7804,10 +8410,16 @@
       <c r="U101" t="n">
         <v>0.11608982222100686</v>
       </c>
+      <c r="V101" t="n">
+        <v>0.004878993978986675</v>
+      </c>
+      <c r="W101" t="n">
+        <v>0.11608982222100686</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B102" t="n" s="2">
         <v>35186.0</v>
@@ -7869,10 +8481,16 @@
       <c r="U102" t="n">
         <v>0.12587803029061673</v>
       </c>
+      <c r="V102" t="n">
+        <v>0.022771730190048047</v>
+      </c>
+      <c r="W102" t="n">
+        <v>0.12587803029061673</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B103" t="n" s="2">
         <v>35217.0</v>
@@ -7934,10 +8552,16 @@
       <c r="U103" t="n">
         <v>0.12431426730042382</v>
       </c>
+      <c r="V103" t="n">
+        <v>0.020982947486475244</v>
+      </c>
+      <c r="W103" t="n">
+        <v>0.12431426730042382</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B104" t="n" s="2">
         <v>35247.0</v>
@@ -7999,10 +8623,16 @@
       <c r="U104" t="n">
         <v>0.12693190399088586</v>
       </c>
+      <c r="V104" t="n">
+        <v>0.023759903309128833</v>
+      </c>
+      <c r="W104" t="n">
+        <v>0.12693190399088586</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B105" t="n" s="2">
         <v>35278.0</v>
@@ -8064,10 +8694,16 @@
       <c r="U105" t="n">
         <v>0.1292770490494869</v>
       </c>
+      <c r="V105" t="n">
+        <v>0.012099486883274814</v>
+      </c>
+      <c r="W105" t="n">
+        <v>0.1292770490494869</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B106" t="n" s="2">
         <v>35309.0</v>
@@ -8129,10 +8765,16 @@
       <c r="U106" t="n">
         <v>0.12748802392654773</v>
       </c>
+      <c r="V106" t="n">
+        <v>0.020086029554620542</v>
+      </c>
+      <c r="W106" t="n">
+        <v>0.12748802392654773</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B107" t="n" s="2">
         <v>35339.0</v>
@@ -8194,10 +8836,16 @@
       <c r="U107" t="n">
         <v>0.11068666024498483</v>
       </c>
+      <c r="V107" t="n">
+        <v>0.013672279896484963</v>
+      </c>
+      <c r="W107" t="n">
+        <v>0.11068666024498483</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B108" t="n" s="2">
         <v>35370.0</v>
@@ -8259,10 +8907,16 @@
       <c r="U108" t="n">
         <v>0.12004039579295578</v>
       </c>
+      <c r="V108" t="n">
+        <v>0.023323705863953468</v>
+      </c>
+      <c r="W108" t="n">
+        <v>0.12004039579295578</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B109" t="n" s="2">
         <v>35400.0</v>
@@ -8324,10 +8978,16 @@
       <c r="U109" t="n">
         <v>0.12829399985669207</v>
       </c>
+      <c r="V109" t="n">
+        <v>0.019916723887152307</v>
+      </c>
+      <c r="W109" t="n">
+        <v>0.12829399985669207</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B110" t="n" s="2">
         <v>35431.0</v>
@@ -8389,10 +9049,16 @@
       <c r="U110" t="n">
         <v>0.12135067821174726</v>
       </c>
+      <c r="V110" t="n">
+        <v>0.022327697213398348</v>
+      </c>
+      <c r="W110" t="n">
+        <v>0.12135067821174726</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B111" t="n" s="2">
         <v>35462.0</v>
@@ -8454,10 +9120,16 @@
       <c r="U111" t="n">
         <v>0.1190992309995256</v>
       </c>
+      <c r="V111" t="n">
+        <v>0.015722032247353843</v>
+      </c>
+      <c r="W111" t="n">
+        <v>0.1190992309995256</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B112" t="n" s="2">
         <v>35490.0</v>
@@ -8519,10 +9191,16 @@
       <c r="U112" t="n">
         <v>0.11154059377949554</v>
       </c>
+      <c r="V112" t="n">
+        <v>0.03296714199517048</v>
+      </c>
+      <c r="W112" t="n">
+        <v>0.11154059377949554</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B113" t="n" s="2">
         <v>35521.0</v>
@@ -8584,10 +9262,16 @@
       <c r="U113" t="n">
         <v>0.11435990257591663</v>
       </c>
+      <c r="V113" t="n">
+        <v>0.016609235082611994</v>
+      </c>
+      <c r="W113" t="n">
+        <v>0.11435990257591663</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B114" t="n" s="2">
         <v>35551.0</v>
@@ -8649,10 +9333,16 @@
       <c r="U114" t="n">
         <v>0.11006402355289575</v>
       </c>
+      <c r="V114" t="n">
+        <v>0.013718542963249836</v>
+      </c>
+      <c r="W114" t="n">
+        <v>0.11006402355289575</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B115" t="n" s="2">
         <v>35582.0</v>
@@ -8714,10 +9404,16 @@
       <c r="U115" t="n">
         <v>0.11439697461791849</v>
       </c>
+      <c r="V115" t="n">
+        <v>0.005211696417678398</v>
+      </c>
+      <c r="W115" t="n">
+        <v>0.11439697461791849</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B116" t="n" s="2">
         <v>35612.0</v>
@@ -8779,10 +9475,16 @@
       <c r="U116" t="n">
         <v>0.12211726340377882</v>
       </c>
+      <c r="V116" t="n">
+        <v>0.0209526139698612</v>
+      </c>
+      <c r="W116" t="n">
+        <v>0.12211726340377882</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B117" t="n" s="2">
         <v>35643.0</v>
@@ -8844,10 +9546,16 @@
       <c r="U117" t="n">
         <v>0.12143040083427874</v>
       </c>
+      <c r="V117" t="n">
+        <v>0.017543671512968442</v>
+      </c>
+      <c r="W117" t="n">
+        <v>0.12143040083427874</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B118" t="n" s="2">
         <v>35674.0</v>
@@ -8909,10 +9617,16 @@
       <c r="U118" t="n">
         <v>0.11886688610837884</v>
       </c>
+      <c r="V118" t="n">
+        <v>0.013117096157070744</v>
+      </c>
+      <c r="W118" t="n">
+        <v>0.11886688610837884</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B119" t="n" s="2">
         <v>35704.0</v>
@@ -8974,10 +9688,16 @@
       <c r="U119" t="n">
         <v>0.11310046676060714</v>
       </c>
+      <c r="V119" t="n">
+        <v>0.028965455820830432</v>
+      </c>
+      <c r="W119" t="n">
+        <v>0.11310046676060714</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B120" t="n" s="2">
         <v>35735.0</v>
@@ -9039,10 +9759,16 @@
       <c r="U120" t="n">
         <v>0.11832293066580339</v>
       </c>
+      <c r="V120" t="n">
+        <v>0.014220693353726326</v>
+      </c>
+      <c r="W120" t="n">
+        <v>0.11832293066580339</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B121" t="n" s="2">
         <v>35765.0</v>
@@ -9104,10 +9830,16 @@
       <c r="U121" t="n">
         <v>0.11757647666766144</v>
       </c>
+      <c r="V121" t="n">
+        <v>0.050665433130500995</v>
+      </c>
+      <c r="W121" t="n">
+        <v>0.11757647666766144</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B122" t="n" s="2">
         <v>35796.0</v>
@@ -9169,10 +9901,16 @@
       <c r="U122" t="n">
         <v>0.12363208101144087</v>
       </c>
+      <c r="V122" t="n">
+        <v>0.010018312191641385</v>
+      </c>
+      <c r="W122" t="n">
+        <v>0.12363208101144087</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B123" t="n" s="2">
         <v>35827.0</v>
@@ -9234,10 +9972,16 @@
       <c r="U123" t="n">
         <v>0.1239584583905982</v>
       </c>
+      <c r="V123" t="n">
+        <v>0.003196892911926312</v>
+      </c>
+      <c r="W123" t="n">
+        <v>0.1239584583905982</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B124" t="n" s="2">
         <v>35855.0</v>
@@ -9299,10 +10043,16 @@
       <c r="U124" t="n">
         <v>0.10248003151465553</v>
       </c>
+      <c r="V124" t="n">
+        <v>-0.01975920756644033</v>
+      </c>
+      <c r="W124" t="n">
+        <v>0.10248003151465553</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B125" t="n" s="2">
         <v>35886.0</v>
@@ -9364,10 +10114,16 @@
       <c r="U125" t="n">
         <v>0.12212197281404617</v>
       </c>
+      <c r="V125" t="n">
+        <v>-0.016687552745791406</v>
+      </c>
+      <c r="W125" t="n">
+        <v>0.12212197281404617</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B126" t="n" s="2">
         <v>35916.0</v>
@@ -9429,10 +10185,16 @@
       <c r="U126" t="n">
         <v>0.1193724039835646</v>
       </c>
+      <c r="V126" t="n">
+        <v>-0.0278680850647256</v>
+      </c>
+      <c r="W126" t="n">
+        <v>0.1193724039835646</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B127" t="n" s="2">
         <v>35947.0</v>
@@ -9494,10 +10256,16 @@
       <c r="U127" t="n">
         <v>0.1096059642256724</v>
       </c>
+      <c r="V127" t="n">
+        <v>-0.013141486828296425</v>
+      </c>
+      <c r="W127" t="n">
+        <v>0.1096059642256724</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B128" t="n" s="2">
         <v>35977.0</v>
@@ -9559,10 +10327,16 @@
       <c r="U128" t="n">
         <v>0.10979097385527498</v>
       </c>
+      <c r="V128" t="n">
+        <v>-0.031004001704796464</v>
+      </c>
+      <c r="W128" t="n">
+        <v>0.10979097385527498</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B129" t="n" s="2">
         <v>36008.0</v>
@@ -9624,10 +10398,16 @@
       <c r="U129" t="n">
         <v>0.1097731740272265</v>
       </c>
+      <c r="V129" t="n">
+        <v>-0.007618509581901502</v>
+      </c>
+      <c r="W129" t="n">
+        <v>0.1097731740272265</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B130" t="n" s="2">
         <v>36039.0</v>
@@ -9689,10 +10469,16 @@
       <c r="U130" t="n">
         <v>0.11684482941183366</v>
       </c>
+      <c r="V130" t="n">
+        <v>-0.029761614020372387</v>
+      </c>
+      <c r="W130" t="n">
+        <v>0.11684482941183366</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B131" t="n" s="2">
         <v>36069.0</v>
@@ -9754,10 +10540,16 @@
       <c r="U131" t="n">
         <v>0.12367271665009213</v>
       </c>
+      <c r="V131" t="n">
+        <v>-0.04393235067210041</v>
+      </c>
+      <c r="W131" t="n">
+        <v>0.12367271665009213</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B132" t="n" s="2">
         <v>36100.0</v>
@@ -9819,10 +10611,16 @@
       <c r="U132" t="n">
         <v>0.1267935946956925</v>
       </c>
+      <c r="V132" t="n">
+        <v>-0.06294299052504126</v>
+      </c>
+      <c r="W132" t="n">
+        <v>0.1267935946956925</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B133" t="n" s="2">
         <v>36130.0</v>
@@ -9884,10 +10682,16 @@
       <c r="U133" t="n">
         <v>0.11438110241990895</v>
       </c>
+      <c r="V133" t="n">
+        <v>-0.052072818618390006</v>
+      </c>
+      <c r="W133" t="n">
+        <v>0.11438110241990895</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B134" t="n" s="2">
         <v>36161.0</v>
@@ -9949,10 +10753,16 @@
       <c r="U134" t="n">
         <v>0.1175911252556825</v>
       </c>
+      <c r="V134" t="n">
+        <v>-0.0015240436626687815</v>
+      </c>
+      <c r="W134" t="n">
+        <v>0.1175911252556825</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B135" t="n" s="2">
         <v>36192.0</v>
@@ -10014,10 +10824,16 @@
       <c r="U135" t="n">
         <v>0.1182820999791848</v>
       </c>
+      <c r="V135" t="n">
+        <v>0.0012795073287465604</v>
+      </c>
+      <c r="W135" t="n">
+        <v>0.1182820999791848</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B136" t="n" s="2">
         <v>36220.0</v>
@@ -10079,10 +10895,16 @@
       <c r="U136" t="n">
         <v>0.1250592731679567</v>
       </c>
+      <c r="V136" t="n">
+        <v>-0.005519566721930788</v>
+      </c>
+      <c r="W136" t="n">
+        <v>0.1250592731679567</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B137" t="n" s="2">
         <v>36251.0</v>
@@ -10144,10 +10966,16 @@
       <c r="U137" t="n">
         <v>0.10890834220914064</v>
       </c>
+      <c r="V137" t="n">
+        <v>0.010380513544090364</v>
+      </c>
+      <c r="W137" t="n">
+        <v>0.10890834220914064</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B138" t="n" s="2">
         <v>36281.0</v>
@@ -10209,10 +11037,16 @@
       <c r="U138" t="n">
         <v>0.1196929299011127</v>
       </c>
+      <c r="V138" t="n">
+        <v>0.021371659175578848</v>
+      </c>
+      <c r="W138" t="n">
+        <v>0.1196929299011127</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B139" t="n" s="2">
         <v>36312.0</v>
@@ -10274,10 +11108,16 @@
       <c r="U139" t="n">
         <v>0.11898453960060999</v>
       </c>
+      <c r="V139" t="n">
+        <v>0.05015039715698982</v>
+      </c>
+      <c r="W139" t="n">
+        <v>0.11898453960060999</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B140" t="n" s="2">
         <v>36342.0</v>
@@ -10339,10 +11179,16 @@
       <c r="U140" t="n">
         <v>0.12730787459354276</v>
       </c>
+      <c r="V140" t="n">
+        <v>0.009482980221536918</v>
+      </c>
+      <c r="W140" t="n">
+        <v>0.12730787459354276</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B141" t="n" s="2">
         <v>36373.0</v>
@@ -10404,10 +11250,16 @@
       <c r="U141" t="n">
         <v>0.11391475557797763</v>
       </c>
+      <c r="V141" t="n">
+        <v>0.018102750337320155</v>
+      </c>
+      <c r="W141" t="n">
+        <v>0.11391475557797763</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B142" t="n" s="2">
         <v>36404.0</v>
@@ -10469,10 +11321,16 @@
       <c r="U142" t="n">
         <v>0.1118988238748396</v>
       </c>
+      <c r="V142" t="n">
+        <v>0.02568073651441431</v>
+      </c>
+      <c r="W142" t="n">
+        <v>0.1118988238748396</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B143" t="n" s="2">
         <v>36434.0</v>
@@ -10534,10 +11392,16 @@
       <c r="U143" t="n">
         <v>0.11935740234285801</v>
       </c>
+      <c r="V143" t="n">
+        <v>0.0435017491577997</v>
+      </c>
+      <c r="W143" t="n">
+        <v>0.11935740234285801</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B144" t="n" s="2">
         <v>36465.0</v>
@@ -10599,10 +11463,16 @@
       <c r="U144" t="n">
         <v>0.11375979660388981</v>
       </c>
+      <c r="V144" t="n">
+        <v>0.039496615148429184</v>
+      </c>
+      <c r="W144" t="n">
+        <v>0.11375979660388981</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B145" t="n" s="2">
         <v>36495.0</v>
@@ -10664,10 +11534,16 @@
       <c r="U145" t="n">
         <v>0.11874901830764174</v>
       </c>
+      <c r="V145" t="n">
+        <v>0.04322683998583658</v>
+      </c>
+      <c r="W145" t="n">
+        <v>0.11874901830764174</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B146" t="n" s="2">
         <v>36526.0</v>
@@ -10729,10 +11605,16 @@
       <c r="U146" t="n">
         <v>0.11577474984830885</v>
       </c>
+      <c r="V146" t="n">
+        <v>0.008422187447313639</v>
+      </c>
+      <c r="W146" t="n">
+        <v>0.11577474984830885</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B147" t="n" s="2">
         <v>36557.0</v>
@@ -10794,10 +11676,16 @@
       <c r="U147" t="n">
         <v>0.12568387199905465</v>
       </c>
+      <c r="V147" t="n">
+        <v>0.00446618803881324</v>
+      </c>
+      <c r="W147" t="n">
+        <v>0.12568387199905465</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B148" t="n" s="2">
         <v>36586.0</v>
@@ -10859,10 +11747,16 @@
       <c r="U148" t="n">
         <v>0.11493889356463081</v>
       </c>
+      <c r="V148" t="n">
+        <v>0.023470152412671412</v>
+      </c>
+      <c r="W148" t="n">
+        <v>0.11493889356463081</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B149" t="n" s="2">
         <v>36617.0</v>
@@ -10924,10 +11818,16 @@
       <c r="U149" t="n">
         <v>0.12413235321453663</v>
       </c>
+      <c r="V149" t="n">
+        <v>0.03153476228275753</v>
+      </c>
+      <c r="W149" t="n">
+        <v>0.12413235321453663</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B150" t="n" s="2">
         <v>36647.0</v>
@@ -10989,10 +11889,16 @@
       <c r="U150" t="n">
         <v>0.11765599899602672</v>
       </c>
+      <c r="V150" t="n">
+        <v>0.017396375025019267</v>
+      </c>
+      <c r="W150" t="n">
+        <v>0.11765599899602672</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B151" t="n" s="2">
         <v>36678.0</v>
@@ -11054,10 +11960,16 @@
       <c r="U151" t="n">
         <v>0.1203684706949219</v>
       </c>
+      <c r="V151" t="n">
+        <v>0.004567851287037912</v>
+      </c>
+      <c r="W151" t="n">
+        <v>0.1203684706949219</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B152" t="n" s="2">
         <v>36708.0</v>
@@ -11119,10 +12031,16 @@
       <c r="U152" t="n">
         <v>0.10478093162792378</v>
       </c>
+      <c r="V152" t="n">
+        <v>0.006162603225855489</v>
+      </c>
+      <c r="W152" t="n">
+        <v>0.10478093162792378</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B153" t="n" s="2">
         <v>36739.0</v>
@@ -11184,10 +12102,16 @@
       <c r="U153" t="n">
         <v>0.1236237884489473</v>
       </c>
+      <c r="V153" t="n">
+        <v>-0.0022975766744085697</v>
+      </c>
+      <c r="W153" t="n">
+        <v>0.1236237884489473</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B154" t="n" s="2">
         <v>36770.0</v>
@@ -11249,10 +12173,16 @@
       <c r="U154" t="n">
         <v>0.12181314118890546</v>
       </c>
+      <c r="V154" t="n">
+        <v>-0.014423904609810802</v>
+      </c>
+      <c r="W154" t="n">
+        <v>0.12181314118890546</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B155" t="n" s="2">
         <v>36800.0</v>
@@ -11314,10 +12244,16 @@
       <c r="U155" t="n">
         <v>0.10977864836210029</v>
       </c>
+      <c r="V155" t="n">
+        <v>-0.010148058722563441</v>
+      </c>
+      <c r="W155" t="n">
+        <v>0.10977864836210029</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B156" t="n" s="2">
         <v>36831.0</v>
@@ -11379,10 +12315,16 @@
       <c r="U156" t="n">
         <v>0.1070809065713798</v>
       </c>
+      <c r="V156" t="n">
+        <v>-4.520172220159671E-4</v>
+      </c>
+      <c r="W156" t="n">
+        <v>0.1070809065713798</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B157" t="n" s="2">
         <v>36861.0</v>
@@ -11444,10 +12386,16 @@
       <c r="U157" t="n">
         <v>0.11925058780323725</v>
       </c>
+      <c r="V157" t="n">
+        <v>-0.01077448881673515</v>
+      </c>
+      <c r="W157" t="n">
+        <v>0.11925058780323725</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B158" t="n" s="2">
         <v>36892.0</v>
@@ -11509,10 +12457,16 @@
       <c r="U158" t="n">
         <v>0.11356864369120113</v>
       </c>
+      <c r="V158" t="n">
+        <v>-0.03943567585571859</v>
+      </c>
+      <c r="W158" t="n">
+        <v>0.11356864369120113</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B159" t="n" s="2">
         <v>36923.0</v>
@@ -11574,10 +12528,16 @@
       <c r="U159" t="n">
         <v>0.11065901096234755</v>
       </c>
+      <c r="V159" t="n">
+        <v>-0.045886355463940404</v>
+      </c>
+      <c r="W159" t="n">
+        <v>0.11065901096234755</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B160" t="n" s="2">
         <v>36951.0</v>
@@ -11639,10 +12599,16 @@
       <c r="U160" t="n">
         <v>0.11683960454229099</v>
       </c>
+      <c r="V160" t="n">
+        <v>-0.06212458271410719</v>
+      </c>
+      <c r="W160" t="n">
+        <v>0.11683960454229099</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B161" t="n" s="2">
         <v>36982.0</v>
@@ -11704,10 +12670,16 @@
       <c r="U161" t="n">
         <v>0.11716855447679816</v>
       </c>
+      <c r="V161" t="n">
+        <v>-0.07229989817365785</v>
+      </c>
+      <c r="W161" t="n">
+        <v>0.11716855447679816</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B162" t="n" s="2">
         <v>37012.0</v>
@@ -11769,10 +12741,16 @@
       <c r="U162" t="n">
         <v>0.10687253736544611</v>
       </c>
+      <c r="V162" t="n">
+        <v>-0.07688107326614484</v>
+      </c>
+      <c r="W162" t="n">
+        <v>0.10687253736544611</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B163" t="n" s="2">
         <v>37043.0</v>
@@ -11834,10 +12812,16 @@
       <c r="U163" t="n">
         <v>0.13488720030371146</v>
       </c>
+      <c r="V163" t="n">
+        <v>-0.05160469686967663</v>
+      </c>
+      <c r="W163" t="n">
+        <v>0.13488720030371146</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B164" t="n" s="2">
         <v>37073.0</v>
@@ -11899,10 +12883,16 @@
       <c r="U164" t="n">
         <v>0.12536725871506074</v>
       </c>
+      <c r="V164" t="n">
+        <v>-0.008114485140249778</v>
+      </c>
+      <c r="W164" t="n">
+        <v>0.12536725871506074</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B165" t="n" s="2">
         <v>37104.0</v>
@@ -11964,10 +12954,16 @@
       <c r="U165" t="n">
         <v>0.11754868161776967</v>
       </c>
+      <c r="V165" t="n">
+        <v>0.012347171040067408</v>
+      </c>
+      <c r="W165" t="n">
+        <v>0.11754868161776967</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B166" t="n" s="2">
         <v>37135.0</v>
@@ -12029,10 +13025,16 @@
       <c r="U166" t="n">
         <v>0.12276915399300142</v>
       </c>
+      <c r="V166" t="n">
+        <v>-0.024749291078294183</v>
+      </c>
+      <c r="W166" t="n">
+        <v>0.12276915399300142</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B167" t="n" s="2">
         <v>37165.0</v>
@@ -12094,10 +13096,16 @@
       <c r="U167" t="n">
         <v>0.12948399203531988</v>
       </c>
+      <c r="V167" t="n">
+        <v>-0.08674715770725985</v>
+      </c>
+      <c r="W167" t="n">
+        <v>0.12948399203531988</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B168" t="n" s="2">
         <v>37196.0</v>
@@ -12159,10 +13167,16 @@
       <c r="U168" t="n">
         <v>0.1267703488850262</v>
       </c>
+      <c r="V168" t="n">
+        <v>-0.07623682347998315</v>
+      </c>
+      <c r="W168" t="n">
+        <v>0.1267703488850262</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B169" t="n" s="2">
         <v>37226.0</v>
@@ -12224,10 +13238,16 @@
       <c r="U169" t="n">
         <v>0.11508806090243481</v>
       </c>
+      <c r="V169" t="n">
+        <v>-0.03445156052705115</v>
+      </c>
+      <c r="W169" t="n">
+        <v>0.11508806090243481</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B170" t="n" s="2">
         <v>37257.0</v>
@@ -12289,10 +13309,16 @@
       <c r="U170" t="n">
         <v>0.12052832680946803</v>
       </c>
+      <c r="V170" t="n">
+        <v>0.0331961764566327</v>
+      </c>
+      <c r="W170" t="n">
+        <v>0.12052832680946803</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B171" t="n" s="2">
         <v>37288.0</v>
@@ -12354,10 +13380,16 @@
       <c r="U171" t="n">
         <v>0.11832918284484244</v>
       </c>
+      <c r="V171" t="n">
+        <v>0.03714440689604672</v>
+      </c>
+      <c r="W171" t="n">
+        <v>0.11832918284484244</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B172" t="n" s="2">
         <v>37316.0</v>
@@ -12419,10 +13451,16 @@
       <c r="U172" t="n">
         <v>0.12203070942004317</v>
       </c>
+      <c r="V172" t="n">
+        <v>0.04375440814336409</v>
+      </c>
+      <c r="W172" t="n">
+        <v>0.12203070942004317</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B173" t="n" s="2">
         <v>37347.0</v>
@@ -12484,10 +13522,16 @@
       <c r="U173" t="n">
         <v>0.11312454483655583</v>
       </c>
+      <c r="V173" t="n">
+        <v>0.03665502127128523</v>
+      </c>
+      <c r="W173" t="n">
+        <v>0.11312454483655583</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B174" t="n" s="2">
         <v>37377.0</v>
@@ -12549,10 +13593,16 @@
       <c r="U174" t="n">
         <v>0.11253446475068328</v>
       </c>
+      <c r="V174" t="n">
+        <v>0.03199868622765535</v>
+      </c>
+      <c r="W174" t="n">
+        <v>0.11253446475068328</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B175" t="n" s="2">
         <v>37408.0</v>
@@ -12614,10 +13664,16 @@
       <c r="U175" t="n">
         <v>0.11234607297653403</v>
       </c>
+      <c r="V175" t="n">
+        <v>0.0177893654750322</v>
+      </c>
+      <c r="W175" t="n">
+        <v>0.11234607297653403</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B176" t="n" s="2">
         <v>37438.0</v>
@@ -12679,10 +13735,16 @@
       <c r="U176" t="n">
         <v>0.10937644375642872</v>
       </c>
+      <c r="V176" t="n">
+        <v>-0.017292381960754315</v>
+      </c>
+      <c r="W176" t="n">
+        <v>0.10937644375642872</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B177" t="n" s="2">
         <v>37469.0</v>
@@ -12744,10 +13806,16 @@
       <c r="U177" t="n">
         <v>0.12071770909118362</v>
       </c>
+      <c r="V177" t="n">
+        <v>-0.02461520223221529</v>
+      </c>
+      <c r="W177" t="n">
+        <v>0.12071770909118362</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B178" t="n" s="2">
         <v>37500.0</v>
@@ -12809,10 +13877,16 @@
       <c r="U178" t="n">
         <v>0.10573304285939242</v>
       </c>
+      <c r="V178" t="n">
+        <v>-0.020238787323995658</v>
+      </c>
+      <c r="W178" t="n">
+        <v>0.10573304285939242</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B179" t="n" s="2">
         <v>37530.0</v>
@@ -12874,10 +13948,16 @@
       <c r="U179" t="n">
         <v>0.11003687783886452</v>
       </c>
+      <c r="V179" t="n">
+        <v>-0.01964170265055453</v>
+      </c>
+      <c r="W179" t="n">
+        <v>0.11003687783886452</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B180" t="n" s="2">
         <v>37561.0</v>
@@ -12939,10 +14019,16 @@
       <c r="U180" t="n">
         <v>0.1131861410698187</v>
       </c>
+      <c r="V180" t="n">
+        <v>-0.01612079215738469</v>
+      </c>
+      <c r="W180" t="n">
+        <v>0.1131861410698187</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B181" t="n" s="2">
         <v>37591.0</v>
@@ -13004,10 +14090,16 @@
       <c r="U181" t="n">
         <v>0.1128113550260348</v>
       </c>
+      <c r="V181" t="n">
+        <v>-0.025117096159183977</v>
+      </c>
+      <c r="W181" t="n">
+        <v>0.1128113550260348</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B182" t="n" s="2">
         <v>37622.0</v>
@@ -13069,10 +14161,16 @@
       <c r="U182" t="n">
         <v>0.10859928297437166</v>
       </c>
+      <c r="V182" t="n">
+        <v>-0.01408485109714415</v>
+      </c>
+      <c r="W182" t="n">
+        <v>0.10859928297437166</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B183" t="n" s="2">
         <v>37653.0</v>
@@ -13134,10 +14232,16 @@
       <c r="U183" t="n">
         <v>0.10846278982297618</v>
       </c>
+      <c r="V183" t="n">
+        <v>-0.023449739593842063</v>
+      </c>
+      <c r="W183" t="n">
+        <v>0.10846278982297618</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B184" t="n" s="2">
         <v>37681.0</v>
@@ -13199,10 +14303,16 @@
       <c r="U184" t="n">
         <v>0.11201938782337759</v>
       </c>
+      <c r="V184" t="n">
+        <v>-0.024367549971322816</v>
+      </c>
+      <c r="W184" t="n">
+        <v>0.11201938782337759</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B185" t="n" s="2">
         <v>37712.0</v>
@@ -13264,10 +14374,16 @@
       <c r="U185" t="n">
         <v>0.1129938205186342</v>
       </c>
+      <c r="V185" t="n">
+        <v>-0.03272453545716017</v>
+      </c>
+      <c r="W185" t="n">
+        <v>0.1129938205186342</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B186" t="n" s="2">
         <v>37742.0</v>
@@ -13329,10 +14445,16 @@
       <c r="U186" t="n">
         <v>0.11053640481421469</v>
       </c>
+      <c r="V186" t="n">
+        <v>-0.015599155514158428</v>
+      </c>
+      <c r="W186" t="n">
+        <v>0.11053640481421469</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B187" t="n" s="2">
         <v>37773.0</v>
@@ -13394,10 +14516,16 @@
       <c r="U187" t="n">
         <v>0.10960367656412313</v>
       </c>
+      <c r="V187" t="n">
+        <v>-0.02420660519683486</v>
+      </c>
+      <c r="W187" t="n">
+        <v>0.10960367656412313</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B188" t="n" s="2">
         <v>37803.0</v>
@@ -13459,10 +14587,16 @@
       <c r="U188" t="n">
         <v>0.10755575043542556</v>
       </c>
+      <c r="V188" t="n">
+        <v>0.0011392604785449428</v>
+      </c>
+      <c r="W188" t="n">
+        <v>0.10755575043542556</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B189" t="n" s="2">
         <v>37834.0</v>
@@ -13524,10 +14658,16 @@
       <c r="U189" t="n">
         <v>0.10345622808848881</v>
       </c>
+      <c r="V189" t="n">
+        <v>0.017727831602063426</v>
+      </c>
+      <c r="W189" t="n">
+        <v>0.10345622808848881</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B190" t="n" s="2">
         <v>37865.0</v>
@@ -13589,10 +14729,16 @@
       <c r="U190" t="n">
         <v>0.10968859404093895</v>
       </c>
+      <c r="V190" t="n">
+        <v>0.027520765202862115</v>
+      </c>
+      <c r="W190" t="n">
+        <v>0.10968859404093895</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B191" t="n" s="2">
         <v>37895.0</v>
@@ -13654,10 +14800,16 @@
       <c r="U191" t="n">
         <v>0.10884721731204589</v>
       </c>
+      <c r="V191" t="n">
+        <v>0.027814020547749216</v>
+      </c>
+      <c r="W191" t="n">
+        <v>0.10884721731204589</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B192" t="n" s="2">
         <v>37926.0</v>
@@ -13719,10 +14871,16 @@
       <c r="U192" t="n">
         <v>0.10857458997353651</v>
       </c>
+      <c r="V192" t="n">
+        <v>0.02331377891051257</v>
+      </c>
+      <c r="W192" t="n">
+        <v>0.10857458997353651</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B193" t="n" s="2">
         <v>37956.0</v>
@@ -13784,10 +14942,16 @@
       <c r="U193" t="n">
         <v>0.10961176735100393</v>
       </c>
+      <c r="V193" t="n">
+        <v>0.03776919457132784</v>
+      </c>
+      <c r="W193" t="n">
+        <v>0.10961176735100393</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B194" t="n" s="2">
         <v>37987.0</v>
@@ -13849,10 +15013,16 @@
       <c r="U194" t="n">
         <v>0.10972940934806905</v>
       </c>
+      <c r="V194" t="n">
+        <v>0.0469198333417414</v>
+      </c>
+      <c r="W194" t="n">
+        <v>0.10972940934806905</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B195" t="n" s="2">
         <v>38018.0</v>
@@ -13914,10 +15084,16 @@
       <c r="U195" t="n">
         <v>0.10594145899376939</v>
       </c>
+      <c r="V195" t="n">
+        <v>0.024835332066423823</v>
+      </c>
+      <c r="W195" t="n">
+        <v>0.10594145899376939</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B196" t="n" s="2">
         <v>38047.0</v>
@@ -13979,10 +15155,16 @@
       <c r="U196" t="n">
         <v>0.10460890983163595</v>
       </c>
+      <c r="V196" t="n">
+        <v>0.012979285851858043</v>
+      </c>
+      <c r="W196" t="n">
+        <v>0.10460890983163595</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B197" t="n" s="2">
         <v>38078.0</v>
@@ -14044,10 +15226,16 @@
       <c r="U197" t="n">
         <v>0.10269475634670437</v>
       </c>
+      <c r="V197" t="n">
+        <v>0.01774827134106176</v>
+      </c>
+      <c r="W197" t="n">
+        <v>0.10269475634670437</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B198" t="n" s="2">
         <v>38108.0</v>
@@ -14109,10 +15297,16 @@
       <c r="U198" t="n">
         <v>0.10614150730956792</v>
       </c>
+      <c r="V198" t="n">
+        <v>0.01127374450151332</v>
+      </c>
+      <c r="W198" t="n">
+        <v>0.10614150730956792</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B199" t="n" s="2">
         <v>38139.0</v>
@@ -14174,10 +15368,16 @@
       <c r="U199" t="n">
         <v>0.1022475610846441</v>
       </c>
+      <c r="V199" t="n">
+        <v>0.024866532278116</v>
+      </c>
+      <c r="W199" t="n">
+        <v>0.1022475610846441</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B200" t="n" s="2">
         <v>38169.0</v>
@@ -14239,10 +15439,16 @@
       <c r="U200" t="n">
         <v>0.0995126301699606</v>
       </c>
+      <c r="V200" t="n">
+        <v>0.02861192649341441</v>
+      </c>
+      <c r="W200" t="n">
+        <v>0.0995126301699606</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B201" t="n" s="2">
         <v>38200.0</v>
@@ -14304,10 +15510,16 @@
       <c r="U201" t="n">
         <v>0.09986247295426905</v>
       </c>
+      <c r="V201" t="n">
+        <v>0.00936365948955415</v>
+      </c>
+      <c r="W201" t="n">
+        <v>0.09986247295426905</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B202" t="n" s="2">
         <v>38231.0</v>
@@ -14369,10 +15581,16 @@
       <c r="U202" t="n">
         <v>0.09694333547706932</v>
       </c>
+      <c r="V202" t="n">
+        <v>-0.005660092804352628</v>
+      </c>
+      <c r="W202" t="n">
+        <v>0.09694333547706932</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B203" t="n" s="2">
         <v>38261.0</v>
@@ -14434,10 +15652,16 @@
       <c r="U203" t="n">
         <v>0.09792853813312921</v>
       </c>
+      <c r="V203" t="n">
+        <v>-0.022774124330270047</v>
+      </c>
+      <c r="W203" t="n">
+        <v>0.09792853813312921</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B204" t="n" s="2">
         <v>38292.0</v>
@@ -14499,10 +15723,16 @@
       <c r="U204" t="n">
         <v>0.10167903824949222</v>
       </c>
+      <c r="V204" t="n">
+        <v>-0.02881541982184213</v>
+      </c>
+      <c r="W204" t="n">
+        <v>0.10167903824949222</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B205" t="n" s="2">
         <v>38322.0</v>
@@ -14564,10 +15794,16 @@
       <c r="U205" t="n">
         <v>0.0999970912790563</v>
       </c>
+      <c r="V205" t="n">
+        <v>-0.010875501261765882</v>
+      </c>
+      <c r="W205" t="n">
+        <v>0.0999970912790563</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B206" t="n" s="2">
         <v>38353.0</v>
@@ -14629,10 +15865,16 @@
       <c r="U206" t="n">
         <v>0.10016343206931852</v>
       </c>
+      <c r="V206" t="n">
+        <v>-0.01770339956373576</v>
+      </c>
+      <c r="W206" t="n">
+        <v>0.10016343206931852</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B207" t="n" s="2">
         <v>38384.0</v>
@@ -14694,10 +15936,16 @@
       <c r="U207" t="n">
         <v>0.10670673818819539</v>
       </c>
+      <c r="V207" t="n">
+        <v>-0.00937159080118704</v>
+      </c>
+      <c r="W207" t="n">
+        <v>0.10670673818819539</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B208" t="n" s="2">
         <v>38412.0</v>
@@ -14759,10 +16007,16 @@
       <c r="U208" t="n">
         <v>0.09833655756142133</v>
       </c>
+      <c r="V208" t="n">
+        <v>-0.014898436399116824</v>
+      </c>
+      <c r="W208" t="n">
+        <v>0.09833655756142133</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B209" t="n" s="2">
         <v>38443.0</v>
@@ -14824,10 +16078,16 @@
       <c r="U209" t="n">
         <v>0.09379498933769019</v>
       </c>
+      <c r="V209" t="n">
+        <v>-0.021878719432010297</v>
+      </c>
+      <c r="W209" t="n">
+        <v>0.09379498933769019</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B210" t="n" s="2">
         <v>38473.0</v>
@@ -14889,10 +16149,16 @@
       <c r="U210" t="n">
         <v>0.10303254485272374</v>
       </c>
+      <c r="V210" t="n">
+        <v>-0.03109656862101191</v>
+      </c>
+      <c r="W210" t="n">
+        <v>0.10303254485272374</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B211" t="n" s="2">
         <v>38504.0</v>
@@ -14954,10 +16220,16 @@
       <c r="U211" t="n">
         <v>0.10156547867927317</v>
       </c>
+      <c r="V211" t="n">
+        <v>-0.022557067463224716</v>
+      </c>
+      <c r="W211" t="n">
+        <v>0.10156547867927317</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B212" t="n" s="2">
         <v>38534.0</v>
@@ -15019,10 +16291,16 @@
       <c r="U212" t="n">
         <v>0.11229420073761748</v>
       </c>
+      <c r="V212" t="n">
+        <v>-0.009168354341016658</v>
+      </c>
+      <c r="W212" t="n">
+        <v>0.11229420073761748</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B213" t="n" s="2">
         <v>38565.0</v>
@@ -15084,10 +16362,16 @@
       <c r="U213" t="n">
         <v>0.1029351008008646</v>
       </c>
+      <c r="V213" t="n">
+        <v>0.015811739849517982</v>
+      </c>
+      <c r="W213" t="n">
+        <v>0.1029351008008646</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B214" t="n" s="2">
         <v>38596.0</v>
@@ -15149,10 +16433,16 @@
       <c r="U214" t="n">
         <v>0.10142543164939141</v>
       </c>
+      <c r="V214" t="n">
+        <v>0.019727777734837748</v>
+      </c>
+      <c r="W214" t="n">
+        <v>0.10142543164939141</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B215" t="n" s="2">
         <v>38626.0</v>
@@ -15214,10 +16504,16 @@
       <c r="U215" t="n">
         <v>0.09257044296738833</v>
       </c>
+      <c r="V215" t="n">
+        <v>0.03855095688006901</v>
+      </c>
+      <c r="W215" t="n">
+        <v>0.09257044296738833</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B216" t="n" s="2">
         <v>38657.0</v>
@@ -15279,10 +16575,16 @@
       <c r="U216" t="n">
         <v>0.08780203160136779</v>
       </c>
+      <c r="V216" t="n">
+        <v>0.04202933445518708</v>
+      </c>
+      <c r="W216" t="n">
+        <v>0.08780203160136779</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B217" t="n" s="2">
         <v>38687.0</v>
@@ -15344,10 +16646,16 @@
       <c r="U217" t="n">
         <v>0.09041362037069595</v>
       </c>
+      <c r="V217" t="n">
+        <v>0.05117532206103046</v>
+      </c>
+      <c r="W217" t="n">
+        <v>0.09041362037069595</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B218" t="n" s="2">
         <v>38718.0</v>
@@ -15409,10 +16717,16 @@
       <c r="U218" t="n">
         <v>0.08940434694392603</v>
       </c>
+      <c r="V218" t="n">
+        <v>0.020993730176866822</v>
+      </c>
+      <c r="W218" t="n">
+        <v>0.08940434694392603</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B219" t="n" s="2">
         <v>38749.0</v>
@@ -15474,10 +16788,16 @@
       <c r="U219" t="n">
         <v>0.0902709203558571</v>
       </c>
+      <c r="V219" t="n">
+        <v>0.012128004809482777</v>
+      </c>
+      <c r="W219" t="n">
+        <v>0.0902709203558571</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B220" t="n" s="2">
         <v>38777.0</v>
@@ -15539,10 +16859,16 @@
       <c r="U220" t="n">
         <v>0.08787733991324698</v>
       </c>
+      <c r="V220" t="n">
+        <v>-0.0014222263513321062</v>
+      </c>
+      <c r="W220" t="n">
+        <v>0.08787733991324698</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B221" t="n" s="2">
         <v>38808.0</v>
@@ -15604,10 +16930,16 @@
       <c r="U221" t="n">
         <v>0.09013354491402324</v>
       </c>
+      <c r="V221" t="n">
+        <v>0.020279387972824085</v>
+      </c>
+      <c r="W221" t="n">
+        <v>0.09013354491402324</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B222" t="n" s="2">
         <v>38838.0</v>
@@ -15669,10 +17001,16 @@
       <c r="U222" t="n">
         <v>0.08807575526801573</v>
       </c>
+      <c r="V222" t="n">
+        <v>0.02556994370217469</v>
+      </c>
+      <c r="W222" t="n">
+        <v>0.08807575526801573</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B223" t="n" s="2">
         <v>38869.0</v>
@@ -15734,10 +17072,16 @@
       <c r="U223" t="n">
         <v>0.09094764683624065</v>
       </c>
+      <c r="V223" t="n">
+        <v>0.02381097225712098</v>
+      </c>
+      <c r="W223" t="n">
+        <v>0.09094764683624065</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B224" t="n" s="2">
         <v>38899.0</v>
@@ -15799,10 +17143,16 @@
       <c r="U224" t="n">
         <v>0.09338362685517188</v>
       </c>
+      <c r="V224" t="n">
+        <v>0.014435588506852087</v>
+      </c>
+      <c r="W224" t="n">
+        <v>0.09338362685517188</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B225" t="n" s="2">
         <v>38930.0</v>
@@ -15864,10 +17214,16 @@
       <c r="U225" t="n">
         <v>0.09447490860142294</v>
       </c>
+      <c r="V225" t="n">
+        <v>-0.006848287717382525</v>
+      </c>
+      <c r="W225" t="n">
+        <v>0.09447490860142294</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B226" t="n" s="2">
         <v>38961.0</v>
@@ -15929,10 +17285,16 @@
       <c r="U226" t="n">
         <v>0.09453378557224103</v>
       </c>
+      <c r="V226" t="n">
+        <v>-0.0032288397209806544</v>
+      </c>
+      <c r="W226" t="n">
+        <v>0.09453378557224103</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B227" t="n" s="2">
         <v>38991.0</v>
@@ -15994,10 +17356,16 @@
       <c r="U227" t="n">
         <v>0.08785502820286442</v>
       </c>
+      <c r="V227" t="n">
+        <v>-1.953876446376089E-5</v>
+      </c>
+      <c r="W227" t="n">
+        <v>0.08785502820286442</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B228" t="n" s="2">
         <v>39022.0</v>
@@ -16059,10 +17427,16 @@
       <c r="U228" t="n">
         <v>0.09497627024340502</v>
       </c>
+      <c r="V228" t="n">
+        <v>0.0203194118415866</v>
+      </c>
+      <c r="W228" t="n">
+        <v>0.09497627024340502</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B229" t="n" s="2">
         <v>39052.0</v>
@@ -16124,10 +17498,16 @@
       <c r="U229" t="n">
         <v>0.08861153466999196</v>
       </c>
+      <c r="V229" t="n">
+        <v>0.016243517982106527</v>
+      </c>
+      <c r="W229" t="n">
+        <v>0.08861153466999196</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B230" t="n" s="2">
         <v>39083.0</v>
@@ -16189,10 +17569,16 @@
       <c r="U230" t="n">
         <v>0.09531411345085561</v>
       </c>
+      <c r="V230" t="n">
+        <v>0.01109885223148293</v>
+      </c>
+      <c r="W230" t="n">
+        <v>0.09531411345085561</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B231" t="n" s="2">
         <v>39114.0</v>
@@ -16254,10 +17640,16 @@
       <c r="U231" t="n">
         <v>0.09186231424693406</v>
       </c>
+      <c r="V231" t="n">
+        <v>-0.001577176548049312</v>
+      </c>
+      <c r="W231" t="n">
+        <v>0.09186231424693406</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B232" t="n" s="2">
         <v>39142.0</v>
@@ -16319,10 +17711,16 @@
       <c r="U232" t="n">
         <v>0.08718900365936501</v>
       </c>
+      <c r="V232" t="n">
+        <v>-7.634273750189505E-4</v>
+      </c>
+      <c r="W232" t="n">
+        <v>0.08718900365936501</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B233" t="n" s="2">
         <v>39173.0</v>
@@ -16384,10 +17782,16 @@
       <c r="U233" t="n">
         <v>0.090705963645292</v>
       </c>
+      <c r="V233" t="n">
+        <v>0.014533521703737305</v>
+      </c>
+      <c r="W233" t="n">
+        <v>0.090705963645292</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B234" t="n" s="2">
         <v>39203.0</v>
@@ -16449,10 +17853,16 @@
       <c r="U234" t="n">
         <v>0.08615725168788187</v>
       </c>
+      <c r="V234" t="n">
+        <v>0.01617483335219142</v>
+      </c>
+      <c r="W234" t="n">
+        <v>0.08615725168788187</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B235" t="n" s="2">
         <v>39234.0</v>
@@ -16514,10 +17924,16 @@
       <c r="U235" t="n">
         <v>0.08873249607431621</v>
       </c>
+      <c r="V235" t="n">
+        <v>-0.004018172434248088</v>
+      </c>
+      <c r="W235" t="n">
+        <v>0.08873249607431621</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B236" t="n" s="2">
         <v>39264.0</v>
@@ -16579,10 +17995,16 @@
       <c r="U236" t="n">
         <v>0.10084815127465124</v>
       </c>
+      <c r="V236" t="n">
+        <v>-0.029055122038443893</v>
+      </c>
+      <c r="W236" t="n">
+        <v>0.10084815127465124</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B237" t="n" s="2">
         <v>39295.0</v>
@@ -16644,10 +18066,16 @@
       <c r="U237" t="n">
         <v>0.08546752125602099</v>
       </c>
+      <c r="V237" t="n">
+        <v>-0.031206114379050326</v>
+      </c>
+      <c r="W237" t="n">
+        <v>0.08546752125602099</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B238" t="n" s="2">
         <v>39326.0</v>
@@ -16709,10 +18137,16 @@
       <c r="U238" t="n">
         <v>0.09067734648705512</v>
       </c>
+      <c r="V238" t="n">
+        <v>-0.024589529201842937</v>
+      </c>
+      <c r="W238" t="n">
+        <v>0.09067734648705512</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B239" t="n" s="2">
         <v>39356.0</v>
@@ -16774,10 +18208,16 @@
       <c r="U239" t="n">
         <v>0.09307956620194889</v>
       </c>
+      <c r="V239" t="n">
+        <v>-0.019913427998390534</v>
+      </c>
+      <c r="W239" t="n">
+        <v>0.09307956620194889</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B240" t="n" s="2">
         <v>39387.0</v>
@@ -16839,10 +18279,16 @@
       <c r="U240" t="n">
         <v>0.08529171277752381</v>
       </c>
+      <c r="V240" t="n">
+        <v>-0.0035474096841091804</v>
+      </c>
+      <c r="W240" t="n">
+        <v>0.08529171277752381</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B241" t="n" s="2">
         <v>39417.0</v>
@@ -16904,10 +18350,16 @@
       <c r="U241" t="n">
         <v>0.09448846869298005</v>
       </c>
+      <c r="V241" t="n">
+        <v>-0.014928891953843004</v>
+      </c>
+      <c r="W241" t="n">
+        <v>0.09448846869298005</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B242" t="n" s="2">
         <v>39448.0</v>
@@ -16969,10 +18421,16 @@
       <c r="U242" t="n">
         <v>0.09034254286800072</v>
       </c>
+      <c r="V242" t="n">
+        <v>-0.00112129703778799</v>
+      </c>
+      <c r="W242" t="n">
+        <v>0.09034254286800072</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B243" t="n" s="2">
         <v>39479.0</v>
@@ -17034,10 +18492,16 @@
       <c r="U243" t="n">
         <v>0.09277540147229744</v>
       </c>
+      <c r="V243" t="n">
+        <v>-0.00947634418940867</v>
+      </c>
+      <c r="W243" t="n">
+        <v>0.09277540147229744</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B244" t="n" s="2">
         <v>39508.0</v>
@@ -17099,10 +18563,16 @@
       <c r="U244" t="n">
         <v>0.09853685531943769</v>
       </c>
+      <c r="V244" t="n">
+        <v>-0.004133841285577283</v>
+      </c>
+      <c r="W244" t="n">
+        <v>0.09853685531943769</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B245" t="n" s="2">
         <v>39539.0</v>
@@ -17164,10 +18634,16 @@
       <c r="U245" t="n">
         <v>0.09424992566874692</v>
       </c>
+      <c r="V245" t="n">
+        <v>-0.03408757230069006</v>
+      </c>
+      <c r="W245" t="n">
+        <v>0.09424992566874692</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B246" t="n" s="2">
         <v>39569.0</v>
@@ -17229,10 +18705,16 @@
       <c r="U246" t="n">
         <v>0.10214074504338287</v>
       </c>
+      <c r="V246" t="n">
+        <v>-0.03807311853857965</v>
+      </c>
+      <c r="W246" t="n">
+        <v>0.10214074504338287</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B247" t="n" s="2">
         <v>39600.0</v>
@@ -17294,10 +18776,16 @@
       <c r="U247" t="n">
         <v>0.09850994634073366</v>
       </c>
+      <c r="V247" t="n">
+        <v>-0.05864786867386841</v>
+      </c>
+      <c r="W247" t="n">
+        <v>0.09850994634073366</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B248" t="n" s="2">
         <v>39630.0</v>
@@ -17359,10 +18847,16 @@
       <c r="U248" t="n">
         <v>0.0942798225473437</v>
       </c>
+      <c r="V248" t="n">
+        <v>-0.042586445514813005</v>
+      </c>
+      <c r="W248" t="n">
+        <v>0.0942798225473437</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B249" t="n" s="2">
         <v>39661.0</v>
@@ -17424,10 +18918,16 @@
       <c r="U249" t="n">
         <v>0.0999092563865008</v>
       </c>
+      <c r="V249" t="n">
+        <v>-0.04306668355012854</v>
+      </c>
+      <c r="W249" t="n">
+        <v>0.0999092563865008</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B250" t="n" s="2">
         <v>39692.0</v>
@@ -17489,10 +18989,16 @@
       <c r="U250" t="n">
         <v>0.1003752527027377</v>
       </c>
+      <c r="V250" t="n">
+        <v>-0.06531815532695362</v>
+      </c>
+      <c r="W250" t="n">
+        <v>0.1003752527027377</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B251" t="n" s="2">
         <v>39722.0</v>
@@ -17554,10 +19060,16 @@
       <c r="U251" t="n">
         <v>0.12462444761765298</v>
       </c>
+      <c r="V251" t="n">
+        <v>-0.08055815656397203</v>
+      </c>
+      <c r="W251" t="n">
+        <v>0.12462444761765298</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B252" t="n" s="2">
         <v>39753.0</v>
@@ -17619,10 +19131,16 @@
       <c r="U252" t="n">
         <v>0.11235220844811267</v>
       </c>
+      <c r="V252" t="n">
+        <v>-0.1404285551749293</v>
+      </c>
+      <c r="W252" t="n">
+        <v>0.11235220844811267</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B253" t="n" s="2">
         <v>39783.0</v>
@@ -17684,10 +19202,16 @@
       <c r="U253" t="n">
         <v>0.12896123452912506</v>
       </c>
+      <c r="V253" t="n">
+        <v>-0.1632083854373069</v>
+      </c>
+      <c r="W253" t="n">
+        <v>0.12896123452912506</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B254" t="n" s="2">
         <v>39814.0</v>
@@ -17749,10 +19273,16 @@
       <c r="U254" t="n">
         <v>0.10880657151218698</v>
       </c>
+      <c r="V254" t="n">
+        <v>-0.10762874544468215</v>
+      </c>
+      <c r="W254" t="n">
+        <v>0.10880657151218698</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B255" t="n" s="2">
         <v>39845.0</v>
@@ -17814,10 +19344,16 @@
       <c r="U255" t="n">
         <v>0.10613516448211087</v>
       </c>
+      <c r="V255" t="n">
+        <v>-0.06978581224738768</v>
+      </c>
+      <c r="W255" t="n">
+        <v>0.10613516448211087</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B256" t="n" s="2">
         <v>39873.0</v>
@@ -17879,10 +19415,16 @@
       <c r="U256" t="n">
         <v>0.10915823603759554</v>
       </c>
+      <c r="V256" t="n">
+        <v>-0.03721747210979301</v>
+      </c>
+      <c r="W256" t="n">
+        <v>0.10915823603759554</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B257" t="n" s="2">
         <v>39904.0</v>
@@ -17944,10 +19486,16 @@
       <c r="U257" t="n">
         <v>0.10736628886689513</v>
       </c>
+      <c r="V257" t="n">
+        <v>-0.02284403063640633</v>
+      </c>
+      <c r="W257" t="n">
+        <v>0.10736628886689513</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B258" t="n" s="2">
         <v>39934.0</v>
@@ -18009,10 +19557,16 @@
       <c r="U258" t="n">
         <v>0.1047737602588121</v>
       </c>
+      <c r="V258" t="n">
+        <v>-0.0084273741863084</v>
+      </c>
+      <c r="W258" t="n">
+        <v>0.1047737602588121</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B259" t="n" s="2">
         <v>39965.0</v>
@@ -18074,10 +19628,16 @@
       <c r="U259" t="n">
         <v>0.10781504186916693</v>
       </c>
+      <c r="V259" t="n">
+        <v>0.0460453865910433</v>
+      </c>
+      <c r="W259" t="n">
+        <v>0.10781504186916693</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B260" t="n" s="2">
         <v>39995.0</v>
@@ -18139,10 +19699,16 @@
       <c r="U260" t="n">
         <v>0.11814418179302505</v>
       </c>
+      <c r="V260" t="n">
+        <v>0.053009931708423594</v>
+      </c>
+      <c r="W260" t="n">
+        <v>0.11814418179302505</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B261" t="n" s="2">
         <v>40026.0</v>
@@ -18204,10 +19770,16 @@
       <c r="U261" t="n">
         <v>0.11205521140418041</v>
       </c>
+      <c r="V261" t="n">
+        <v>0.10307002539974273</v>
+      </c>
+      <c r="W261" t="n">
+        <v>0.11205521140418041</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B262" t="n" s="2">
         <v>40057.0</v>
@@ -18269,10 +19841,16 @@
       <c r="U262" t="n">
         <v>0.10412088633436835</v>
       </c>
+      <c r="V262" t="n">
+        <v>0.059176275906473765</v>
+      </c>
+      <c r="W262" t="n">
+        <v>0.10412088633436835</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B263" t="n" s="2">
         <v>40087.0</v>
@@ -18334,10 +19912,16 @@
       <c r="U263" t="n">
         <v>0.09081290688596784</v>
       </c>
+      <c r="V263" t="n">
+        <v>0.06795548446818125</v>
+      </c>
+      <c r="W263" t="n">
+        <v>0.09081290688596784</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B264" t="n" s="2">
         <v>40118.0</v>
@@ -18399,10 +19983,16 @@
       <c r="U264" t="n">
         <v>0.09991912420563415</v>
       </c>
+      <c r="V264" t="n">
+        <v>0.04303114597989113</v>
+      </c>
+      <c r="W264" t="n">
+        <v>0.09991912420563415</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B265" t="n" s="2">
         <v>40148.0</v>
@@ -18464,10 +20054,16 @@
       <c r="U265" t="n">
         <v>0.0979108451206636</v>
       </c>
+      <c r="V265" t="n">
+        <v>0.04925813136762431</v>
+      </c>
+      <c r="W265" t="n">
+        <v>0.0979108451206636</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B266" t="n" s="2">
         <v>40179.0</v>
@@ -18529,10 +20125,16 @@
       <c r="U266" t="n">
         <v>0.10228734713909161</v>
       </c>
+      <c r="V266" t="n">
+        <v>0.04000675435869211</v>
+      </c>
+      <c r="W266" t="n">
+        <v>0.10228734713909161</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B267" t="n" s="2">
         <v>40210.0</v>
@@ -18594,10 +20196,16 @@
       <c r="U267" t="n">
         <v>0.09845173610632825</v>
       </c>
+      <c r="V267" t="n">
+        <v>0.008712994895766192</v>
+      </c>
+      <c r="W267" t="n">
+        <v>0.09845173610632825</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B268" t="n" s="2">
         <v>40238.0</v>
@@ -18659,10 +20267,16 @@
       <c r="U268" t="n">
         <v>0.1029474426739835</v>
       </c>
+      <c r="V268" t="n">
+        <v>0.01594238401973766</v>
+      </c>
+      <c r="W268" t="n">
+        <v>0.1029474426739835</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B269" t="n" s="2">
         <v>40269.0</v>
@@ -18724,10 +20338,16 @@
       <c r="U269" t="n">
         <v>0.10691840161113672</v>
       </c>
+      <c r="V269" t="n">
+        <v>0.06097280875352062</v>
+      </c>
+      <c r="W269" t="n">
+        <v>0.10691840161113672</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B270" t="n" s="2">
         <v>40299.0</v>
@@ -18789,10 +20409,16 @@
       <c r="U270" t="n">
         <v>0.10291360594932404</v>
       </c>
+      <c r="V270" t="n">
+        <v>0.03906611166323243</v>
+      </c>
+      <c r="W270" t="n">
+        <v>0.10291360594932404</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B271" t="n" s="2">
         <v>40330.0</v>
@@ -18854,10 +20480,16 @@
       <c r="U271" t="n">
         <v>0.10489529324940115</v>
       </c>
+      <c r="V271" t="n">
+        <v>0.011399365769246498</v>
+      </c>
+      <c r="W271" t="n">
+        <v>0.10489529324940115</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B272" t="n" s="2">
         <v>40360.0</v>
@@ -18919,10 +20551,16 @@
       <c r="U272" t="n">
         <v>0.10617011250516431</v>
       </c>
+      <c r="V272" t="n">
+        <v>-0.0035441848785500154</v>
+      </c>
+      <c r="W272" t="n">
+        <v>0.10617011250516431</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B273" t="n" s="2">
         <v>40391.0</v>
@@ -18984,10 +20622,16 @@
       <c r="U273" t="n">
         <v>0.09538534864586042</v>
       </c>
+      <c r="V273" t="n">
+        <v>0.017960270185478716</v>
+      </c>
+      <c r="W273" t="n">
+        <v>0.09538534864586042</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B274" t="n" s="2">
         <v>40422.0</v>
@@ -19049,10 +20693,16 @@
       <c r="U274" t="n">
         <v>0.08994166544625466</v>
       </c>
+      <c r="V274" t="n">
+        <v>0.04211312160338802</v>
+      </c>
+      <c r="W274" t="n">
+        <v>0.08994166544625466</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B275" t="n" s="2">
         <v>40452.0</v>
@@ -19114,10 +20764,16 @@
       <c r="U275" t="n">
         <v>0.10433683110610141</v>
       </c>
+      <c r="V275" t="n">
+        <v>0.02809762291941993</v>
+      </c>
+      <c r="W275" t="n">
+        <v>0.10433683110610141</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B276" t="n" s="2">
         <v>40483.0</v>
@@ -19179,10 +20835,16 @@
       <c r="U276" t="n">
         <v>0.10289323119687635</v>
       </c>
+      <c r="V276" t="n">
+        <v>0.03496529832687617</v>
+      </c>
+      <c r="W276" t="n">
+        <v>0.10289323119687635</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B277" t="n" s="2">
         <v>40513.0</v>
@@ -19244,10 +20906,16 @@
       <c r="U277" t="n">
         <v>0.10676349201978416</v>
       </c>
+      <c r="V277" t="n">
+        <v>0.00959583975209042</v>
+      </c>
+      <c r="W277" t="n">
+        <v>0.10676349201978416</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B278" t="n" s="2">
         <v>40544.0</v>
@@ -19309,10 +20977,16 @@
       <c r="U278" t="n">
         <v>0.1042338936483819</v>
       </c>
+      <c r="V278" t="n">
+        <v>0.010672088823128756</v>
+      </c>
+      <c r="W278" t="n">
+        <v>0.1042338936483819</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B279" t="n" s="2">
         <v>40575.0</v>
@@ -19374,10 +21048,16 @@
       <c r="U279" t="n">
         <v>0.10649321049184109</v>
       </c>
+      <c r="V279" t="n">
+        <v>0.0234573775681971</v>
+      </c>
+      <c r="W279" t="n">
+        <v>0.10649321049184109</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B280" t="n" s="2">
         <v>40603.0</v>
@@ -19439,10 +21119,16 @@
       <c r="U280" t="n">
         <v>0.10301519903800828</v>
       </c>
+      <c r="V280" t="n">
+        <v>0.021604402433580666</v>
+      </c>
+      <c r="W280" t="n">
+        <v>0.10301519903800828</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B281" t="n" s="2">
         <v>40634.0</v>
@@ -19504,10 +21190,16 @@
       <c r="U281" t="n">
         <v>0.09522788250504742</v>
       </c>
+      <c r="V281" t="n">
+        <v>0.008828230341179397</v>
+      </c>
+      <c r="W281" t="n">
+        <v>0.09522788250504742</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B282" t="n" s="2">
         <v>40664.0</v>
@@ -19569,10 +21261,16 @@
       <c r="U282" t="n">
         <v>0.10142523313121617</v>
       </c>
+      <c r="V282" t="n">
+        <v>-0.020340643798959158</v>
+      </c>
+      <c r="W282" t="n">
+        <v>0.10142523313121617</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B283" t="n" s="2">
         <v>40695.0</v>
@@ -19634,10 +21332,16 @@
       <c r="U283" t="n">
         <v>0.0987551834188254</v>
       </c>
+      <c r="V283" t="n">
+        <v>-0.02582355985754744</v>
+      </c>
+      <c r="W283" t="n">
+        <v>0.0987551834188254</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B284" t="n" s="2">
         <v>40725.0</v>
@@ -19699,10 +21403,16 @@
       <c r="U284" t="n">
         <v>0.10290948761013459</v>
       </c>
+      <c r="V284" t="n">
+        <v>-0.02782770413817673</v>
+      </c>
+      <c r="W284" t="n">
+        <v>0.10290948761013459</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B285" t="n" s="2">
         <v>40756.0</v>
@@ -19764,10 +21474,16 @@
       <c r="U285" t="n">
         <v>0.11047850864164548</v>
       </c>
+      <c r="V285" t="n">
+        <v>-0.0507349516865428</v>
+      </c>
+      <c r="W285" t="n">
+        <v>0.11047850864164548</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B286" t="n" s="2">
         <v>40787.0</v>
@@ -19829,10 +21545,16 @@
       <c r="U286" t="n">
         <v>0.11151067728323731</v>
       </c>
+      <c r="V286" t="n">
+        <v>-0.058122902263185644</v>
+      </c>
+      <c r="W286" t="n">
+        <v>0.11151067728323731</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B287" t="n" s="2">
         <v>40817.0</v>
@@ -19894,10 +21616,16 @@
       <c r="U287" t="n">
         <v>0.10110695157013382</v>
       </c>
+      <c r="V287" t="n">
+        <v>-0.04566877418644184</v>
+      </c>
+      <c r="W287" t="n">
+        <v>0.10110695157013382</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B288" t="n" s="2">
         <v>40848.0</v>
@@ -19959,10 +21687,16 @@
       <c r="U288" t="n">
         <v>0.11489572718805964</v>
       </c>
+      <c r="V288" t="n">
+        <v>-0.02922380240133382</v>
+      </c>
+      <c r="W288" t="n">
+        <v>0.11489572718805964</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B289" t="n" s="2">
         <v>40878.0</v>
@@ -20024,10 +21758,16 @@
       <c r="U289" t="n">
         <v>0.10446456596144571</v>
       </c>
+      <c r="V289" t="n">
+        <v>-0.020679661328838687</v>
+      </c>
+      <c r="W289" t="n">
+        <v>0.10446456596144571</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B290" t="n" s="2">
         <v>40909.0</v>
@@ -20089,10 +21829,16 @@
       <c r="U290" t="n">
         <v>0.10873551874929964</v>
       </c>
+      <c r="V290" t="n">
+        <v>-0.012441478357175004</v>
+      </c>
+      <c r="W290" t="n">
+        <v>0.10873551874929964</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B291" t="n" s="2">
         <v>40940.0</v>
@@ -20154,10 +21900,16 @@
       <c r="U291" t="n">
         <v>0.10663987157223692</v>
       </c>
+      <c r="V291" t="n">
+        <v>-0.014559992911313949</v>
+      </c>
+      <c r="W291" t="n">
+        <v>0.10663987157223692</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B292" t="n" s="2">
         <v>40969.0</v>
@@ -20219,10 +21971,16 @@
       <c r="U292" t="n">
         <v>0.10663791392621924</v>
       </c>
+      <c r="V292" t="n">
+        <v>-0.013805047043893386</v>
+      </c>
+      <c r="W292" t="n">
+        <v>0.10663791392621924</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B293" t="n" s="2">
         <v>41000.0</v>
@@ -20284,10 +22042,16 @@
       <c r="U293" t="n">
         <v>0.11277110452569732</v>
       </c>
+      <c r="V293" t="n">
+        <v>-0.005966132354163977</v>
+      </c>
+      <c r="W293" t="n">
+        <v>0.11277110452569732</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B294" t="n" s="2">
         <v>41030.0</v>
@@ -20349,10 +22113,16 @@
       <c r="U294" t="n">
         <v>0.09418588516397788</v>
       </c>
+      <c r="V294" t="n">
+        <v>0.0015708845409795015</v>
+      </c>
+      <c r="W294" t="n">
+        <v>0.09418588516397788</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B295" t="n" s="2">
         <v>41061.0</v>
@@ -20414,10 +22184,16 @@
       <c r="U295" t="n">
         <v>0.12201000431166585</v>
       </c>
+      <c r="V295" t="n">
+        <v>-0.011761422733877865</v>
+      </c>
+      <c r="W295" t="n">
+        <v>0.12201000431166585</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B296" t="n" s="2">
         <v>41091.0</v>
@@ -20479,10 +22255,16 @@
       <c r="U296" t="n">
         <v>0.1079444459626055</v>
       </c>
+      <c r="V296" t="n">
+        <v>-0.022543235387718803</v>
+      </c>
+      <c r="W296" t="n">
+        <v>0.1079444459626055</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B297" t="n" s="2">
         <v>41122.0</v>
@@ -20544,10 +22326,16 @@
       <c r="U297" t="n">
         <v>0.10456062747923843</v>
       </c>
+      <c r="V297" t="n">
+        <v>-0.017566819129064284</v>
+      </c>
+      <c r="W297" t="n">
+        <v>0.10456062747923843</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B298" t="n" s="2">
         <v>41153.0</v>
@@ -20609,10 +22397,16 @@
       <c r="U298" t="n">
         <v>0.11229551315947484</v>
       </c>
+      <c r="V298" t="n">
+        <v>-0.01782804062628395</v>
+      </c>
+      <c r="W298" t="n">
+        <v>0.11229551315947484</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B299" t="n" s="2">
         <v>41183.0</v>
@@ -20674,10 +22468,16 @@
       <c r="U299" t="n">
         <v>0.10405917522533248</v>
       </c>
+      <c r="V299" t="n">
+        <v>-0.026417500598282035</v>
+      </c>
+      <c r="W299" t="n">
+        <v>0.10405917522533248</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B300" t="n" s="2">
         <v>41214.0</v>
@@ -20739,10 +22539,16 @@
       <c r="U300" t="n">
         <v>0.1045610901289231</v>
       </c>
+      <c r="V300" t="n">
+        <v>-0.03176374848148772</v>
+      </c>
+      <c r="W300" t="n">
+        <v>0.1045610901289231</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B301" t="n" s="2">
         <v>41244.0</v>
@@ -20804,10 +22610,16 @@
       <c r="U301" t="n">
         <v>0.10609351287054346</v>
       </c>
+      <c r="V301" t="n">
+        <v>-0.006905063940267603</v>
+      </c>
+      <c r="W301" t="n">
+        <v>0.10609351287054346</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B302" t="n" s="2">
         <v>41275.0</v>
@@ -20869,10 +22681,16 @@
       <c r="U302" t="n">
         <v>0.0924726116735463</v>
       </c>
+      <c r="V302" t="n">
+        <v>7.242648870132967E-4</v>
+      </c>
+      <c r="W302" t="n">
+        <v>0.0924726116735463</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B303" t="n" s="2">
         <v>41306.0</v>
@@ -20934,10 +22752,16 @@
       <c r="U303" t="n">
         <v>0.10970657471358582</v>
       </c>
+      <c r="V303" t="n">
+        <v>0.013682215793619439</v>
+      </c>
+      <c r="W303" t="n">
+        <v>0.10970657471358582</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B304" t="n" s="2">
         <v>41334.0</v>
@@ -20999,10 +22823,16 @@
       <c r="U304" t="n">
         <v>0.10926347296042152</v>
       </c>
+      <c r="V304" t="n">
+        <v>-0.008702699158122822</v>
+      </c>
+      <c r="W304" t="n">
+        <v>0.10926347296042152</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B305" t="n" s="2">
         <v>41365.0</v>
@@ -21064,10 +22894,16 @@
       <c r="U305" t="n">
         <v>0.10593551033227909</v>
       </c>
+      <c r="V305" t="n">
+        <v>-0.009082815309121093</v>
+      </c>
+      <c r="W305" t="n">
+        <v>0.10593551033227909</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B306" t="n" s="2">
         <v>41395.0</v>
@@ -21129,10 +22965,16 @@
       <c r="U306" t="n">
         <v>0.10475755640849561</v>
       </c>
+      <c r="V306" t="n">
+        <v>-0.002014914359272107</v>
+      </c>
+      <c r="W306" t="n">
+        <v>0.10475755640849561</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B307" t="n" s="2">
         <v>41426.0</v>
@@ -21194,10 +23036,16 @@
       <c r="U307" t="n">
         <v>0.10415317584789337</v>
       </c>
+      <c r="V307" t="n">
+        <v>0.02375150584276226</v>
+      </c>
+      <c r="W307" t="n">
+        <v>0.10415317584789337</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B308" t="n" s="2">
         <v>41456.0</v>
@@ -21259,10 +23107,16 @@
       <c r="U308" t="n">
         <v>0.09615239752711266</v>
       </c>
+      <c r="V308" t="n">
+        <v>0.027878334015946592</v>
+      </c>
+      <c r="W308" t="n">
+        <v>0.09615239752711266</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B309" t="n" s="2">
         <v>41487.0</v>
@@ -21324,10 +23178,16 @@
       <c r="U309" t="n">
         <v>0.09581686110481719</v>
       </c>
+      <c r="V309" t="n">
+        <v>0.03659102674971487</v>
+      </c>
+      <c r="W309" t="n">
+        <v>0.09581686110481719</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B310" t="n" s="2">
         <v>41518.0</v>
@@ -21389,10 +23249,16 @@
       <c r="U310" t="n">
         <v>0.08811508527920106</v>
       </c>
+      <c r="V310" t="n">
+        <v>0.035328171403366554</v>
+      </c>
+      <c r="W310" t="n">
+        <v>0.08811508527920106</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B311" t="n" s="2">
         <v>41548.0</v>
@@ -21454,10 +23320,16 @@
       <c r="U311" t="n">
         <v>0.09881031327673713</v>
       </c>
+      <c r="V311" t="n">
+        <v>0.03647395904468487</v>
+      </c>
+      <c r="W311" t="n">
+        <v>0.09881031327673713</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B312" t="n" s="2">
         <v>41579.0</v>
@@ -21519,10 +23391,16 @@
       <c r="U312" t="n">
         <v>0.08929984322621867</v>
       </c>
+      <c r="V312" t="n">
+        <v>0.02064871797969103</v>
+      </c>
+      <c r="W312" t="n">
+        <v>0.08929984322621867</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B313" t="n" s="2">
         <v>41609.0</v>
@@ -21584,10 +23462,16 @@
       <c r="U313" t="n">
         <v>0.09157266237930713</v>
       </c>
+      <c r="V313" t="n">
+        <v>0.0034154081344999476</v>
+      </c>
+      <c r="W313" t="n">
+        <v>0.09157266237930713</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B314" t="n" s="2">
         <v>41640.0</v>
@@ -21649,10 +23533,16 @@
       <c r="U314" t="n">
         <v>0.09363552655265772</v>
       </c>
+      <c r="V314" t="n">
+        <v>0.01242578254182235</v>
+      </c>
+      <c r="W314" t="n">
+        <v>0.09363552655265772</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B315" t="n" s="2">
         <v>41671.0</v>
@@ -21714,10 +23604,16 @@
       <c r="U315" t="n">
         <v>0.09225087088176416</v>
       </c>
+      <c r="V315" t="n">
+        <v>0.013593826996280554</v>
+      </c>
+      <c r="W315" t="n">
+        <v>0.09225087088176416</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B316" t="n" s="2">
         <v>41699.0</v>
@@ -21779,10 +23675,16 @@
       <c r="U316" t="n">
         <v>0.09417210486680844</v>
       </c>
+      <c r="V316" t="n">
+        <v>0.02338638176801031</v>
+      </c>
+      <c r="W316" t="n">
+        <v>0.09417210486680844</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B317" t="n" s="2">
         <v>41730.0</v>
@@ -21844,10 +23746,16 @@
       <c r="U317" t="n">
         <v>0.09020620840617022</v>
       </c>
+      <c r="V317" t="n">
+        <v>-0.010629437676036814</v>
+      </c>
+      <c r="W317" t="n">
+        <v>0.09020620840617022</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B318" t="n" s="2">
         <v>41760.0</v>
@@ -21909,10 +23817,16 @@
       <c r="U318" t="n">
         <v>0.09729360742356209</v>
       </c>
+      <c r="V318" t="n">
+        <v>-0.018450507806503227</v>
+      </c>
+      <c r="W318" t="n">
+        <v>0.09729360742356209</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B319" t="n" s="2">
         <v>41791.0</v>
@@ -21974,10 +23888,16 @@
       <c r="U319" t="n">
         <v>0.0928265068949247</v>
       </c>
+      <c r="V319" t="n">
+        <v>-0.02292033519526768</v>
+      </c>
+      <c r="W319" t="n">
+        <v>0.0928265068949247</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B320" t="n" s="2">
         <v>41821.0</v>
@@ -22039,10 +23959,16 @@
       <c r="U320" t="n">
         <v>0.08657115055413711</v>
       </c>
+      <c r="V320" t="n">
+        <v>-0.011488863985133234</v>
+      </c>
+      <c r="W320" t="n">
+        <v>0.08657115055413711</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B321" t="n" s="2">
         <v>41852.0</v>
@@ -22104,10 +24030,16 @@
       <c r="U321" t="n">
         <v>0.09464204745285204</v>
       </c>
+      <c r="V321" t="n">
+        <v>-0.008553621112876244</v>
+      </c>
+      <c r="W321" t="n">
+        <v>0.09464204745285204</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B322" t="n" s="2">
         <v>41883.0</v>
@@ -22169,10 +24101,16 @@
       <c r="U322" t="n">
         <v>0.08856141023334793</v>
       </c>
+      <c r="V322" t="n">
+        <v>-0.009191198070880473</v>
+      </c>
+      <c r="W322" t="n">
+        <v>0.08856141023334793</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B323" t="n" s="2">
         <v>41913.0</v>
@@ -22234,10 +24172,16 @@
       <c r="U323" t="n">
         <v>0.09081021308436459</v>
       </c>
+      <c r="V323" t="n">
+        <v>-0.001588309710494288</v>
+      </c>
+      <c r="W323" t="n">
+        <v>0.09081021308436459</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B324" t="n" s="2">
         <v>41944.0</v>
@@ -22299,10 +24243,16 @@
       <c r="U324" t="n">
         <v>0.0928919038890727</v>
       </c>
+      <c r="V324" t="n">
+        <v>0.012262209914194931</v>
+      </c>
+      <c r="W324" t="n">
+        <v>0.0928919038890727</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B325" t="n" s="2">
         <v>41974.0</v>
@@ -22364,10 +24314,16 @@
       <c r="U325" t="n">
         <v>0.09311480826494345</v>
       </c>
+      <c r="V325" t="n">
+        <v>0.013953490518750725</v>
+      </c>
+      <c r="W325" t="n">
+        <v>0.09311480826494345</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B326" t="n" s="2">
         <v>42005.0</v>
@@ -22429,10 +24385,16 @@
       <c r="U326" t="n">
         <v>0.08819898484946365</v>
       </c>
+      <c r="V326" t="n">
+        <v>0.011886352725863008</v>
+      </c>
+      <c r="W326" t="n">
+        <v>0.08819898484946365</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B327" t="n" s="2">
         <v>42036.0</v>
@@ -22494,10 +24456,16 @@
       <c r="U327" t="n">
         <v>0.09461033980940227</v>
       </c>
+      <c r="V327" t="n">
+        <v>-0.006410922734543946</v>
+      </c>
+      <c r="W327" t="n">
+        <v>0.09461033980940227</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B328" t="n" s="2">
         <v>42064.0</v>
@@ -22559,10 +24527,16 @@
       <c r="U328" t="n">
         <v>0.08455527154273118</v>
       </c>
+      <c r="V328" t="n">
+        <v>0.014944692908416029</v>
+      </c>
+      <c r="W328" t="n">
+        <v>0.08455527154273118</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B329" t="n" s="2">
         <v>42095.0</v>
@@ -22624,10 +24598,16 @@
       <c r="U329" t="n">
         <v>0.08824613694289139</v>
       </c>
+      <c r="V329" t="n">
+        <v>0.02315139100968768</v>
+      </c>
+      <c r="W329" t="n">
+        <v>0.08824613694289139</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B330" t="n" s="2">
         <v>42125.0</v>
@@ -22689,10 +24669,16 @@
       <c r="U330" t="n">
         <v>0.08737721182082166</v>
       </c>
+      <c r="V330" t="n">
+        <v>0.0177675381936099</v>
+      </c>
+      <c r="W330" t="n">
+        <v>0.08737721182082166</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B331" t="n" s="2">
         <v>42156.0</v>
@@ -22754,10 +24740,16 @@
       <c r="U331" t="n">
         <v>0.08719211948954547</v>
       </c>
+      <c r="V331" t="n">
+        <v>0.010722494790136858</v>
+      </c>
+      <c r="W331" t="n">
+        <v>0.08719211948954547</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B332" t="n" s="2">
         <v>42186.0</v>
@@ -22819,10 +24811,16 @@
       <c r="U332" t="n">
         <v>0.08996217633413006</v>
       </c>
+      <c r="V332" t="n">
+        <v>0.013058647590054685</v>
+      </c>
+      <c r="W332" t="n">
+        <v>0.08996217633413006</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B333" t="n" s="2">
         <v>42217.0</v>
@@ -22884,10 +24882,16 @@
       <c r="U333" t="n">
         <v>0.08777210905767621</v>
       </c>
+      <c r="V333" t="n">
+        <v>0.005082340755598902</v>
+      </c>
+      <c r="W333" t="n">
+        <v>0.08777210905767621</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B334" t="n" s="2">
         <v>42248.0</v>
@@ -22949,10 +24953,16 @@
       <c r="U334" t="n">
         <v>0.08326406659607385</v>
       </c>
+      <c r="V334" t="n">
+        <v>-0.0020094886305174328</v>
+      </c>
+      <c r="W334" t="n">
+        <v>0.08326406659607385</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B335" t="n" s="2">
         <v>42278.0</v>
@@ -23014,10 +25024,16 @@
       <c r="U335" t="n">
         <v>0.08456515758538762</v>
       </c>
+      <c r="V335" t="n">
+        <v>-0.006086844235170322</v>
+      </c>
+      <c r="W335" t="n">
+        <v>0.08456515758538762</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B336" t="n" s="2">
         <v>42309.0</v>
@@ -23079,10 +25095,16 @@
       <c r="U336" t="n">
         <v>0.07809705568232156</v>
       </c>
+      <c r="V336" t="n">
+        <v>0.015913184120462744</v>
+      </c>
+      <c r="W336" t="n">
+        <v>0.07809705568232156</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B337" t="n" s="2">
         <v>42339.0</v>
@@ -23144,10 +25166,16 @@
       <c r="U337" t="n">
         <v>0.08495380933940291</v>
       </c>
+      <c r="V337" t="n">
+        <v>0.014714616890657806</v>
+      </c>
+      <c r="W337" t="n">
+        <v>0.08495380933940291</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B338" t="n" s="2">
         <v>42370.0</v>
@@ -23209,10 +25237,16 @@
       <c r="U338" t="n">
         <v>0.0830896831785543</v>
       </c>
+      <c r="V338" t="n">
+        <v>-0.00933796965667681</v>
+      </c>
+      <c r="W338" t="n">
+        <v>0.0830896831785543</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B339" t="n" s="2">
         <v>42401.0</v>
@@ -23274,10 +25308,16 @@
       <c r="U339" t="n">
         <v>0.07501280972414993</v>
       </c>
+      <c r="V339" t="n">
+        <v>-0.040220466694386205</v>
+      </c>
+      <c r="W339" t="n">
+        <v>0.07501280972414993</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B340" t="n" s="2">
         <v>42430.0</v>
@@ -23339,10 +25379,16 @@
       <c r="U340" t="n">
         <v>0.07875624555012074</v>
       </c>
+      <c r="V340" t="n">
+        <v>-0.012132015580452984</v>
+      </c>
+      <c r="W340" t="n">
+        <v>0.07875624555012074</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B341" t="n" s="2">
         <v>42461.0</v>
@@ -23404,10 +25450,16 @@
       <c r="U341" t="n">
         <v>0.0753821137960316</v>
       </c>
+      <c r="V341" t="n">
+        <v>-0.00807245375515311</v>
+      </c>
+      <c r="W341" t="n">
+        <v>0.0753821137960316</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B342" t="n" s="2">
         <v>42491.0</v>
@@ -23469,10 +25521,16 @@
       <c r="U342" t="n">
         <v>0.07522791027529954</v>
       </c>
+      <c r="V342" t="n">
+        <v>0.016868542899367032</v>
+      </c>
+      <c r="W342" t="n">
+        <v>0.07522791027529954</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B343" t="n" s="2">
         <v>42522.0</v>
@@ -23534,10 +25592,16 @@
       <c r="U343" t="n">
         <v>0.07802494233460897</v>
       </c>
+      <c r="V343" t="n">
+        <v>0.011212981529965044</v>
+      </c>
+      <c r="W343" t="n">
+        <v>0.07802494233460897</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B344" t="n" s="2">
         <v>42552.0</v>
@@ -23599,10 +25663,16 @@
       <c r="U344" t="n">
         <v>0.09452153741631573</v>
       </c>
+      <c r="V344" t="n">
+        <v>0.0165681948216718</v>
+      </c>
+      <c r="W344" t="n">
+        <v>0.09452153741631573</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B345" t="n" s="2">
         <v>42583.0</v>
@@ -23664,10 +25734,16 @@
       <c r="U345" t="n">
         <v>0.08316598732020287</v>
       </c>
+      <c r="V345" t="n">
+        <v>0.007477700898200255</v>
+      </c>
+      <c r="W345" t="n">
+        <v>0.08316598732020287</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B346" t="n" s="2">
         <v>42614.0</v>
@@ -23729,10 +25805,16 @@
       <c r="U346" t="n">
         <v>0.08846007113874031</v>
       </c>
+      <c r="V346" t="n">
+        <v>0.016519977705657392</v>
+      </c>
+      <c r="W346" t="n">
+        <v>0.08846007113874031</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B347" t="n" s="2">
         <v>42644.0</v>
@@ -23794,10 +25876,16 @@
       <c r="U347" t="n">
         <v>0.08460789557116982</v>
       </c>
+      <c r="V347" t="n">
+        <v>0.009133879017324821</v>
+      </c>
+      <c r="W347" t="n">
+        <v>0.08460789557116982</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B348" t="n" s="2">
         <v>42675.0</v>
@@ -23859,10 +25947,16 @@
       <c r="U348" t="n">
         <v>0.0918878177962419</v>
       </c>
+      <c r="V348" t="n">
+        <v>0.010722645325985988</v>
+      </c>
+      <c r="W348" t="n">
+        <v>0.0918878177962419</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B349" t="n" s="2">
         <v>42705.0</v>
@@ -23924,10 +26018,16 @@
       <c r="U349" t="n">
         <v>0.08203441700741039</v>
       </c>
+      <c r="V349" t="n">
+        <v>0.01675579214597667</v>
+      </c>
+      <c r="W349" t="n">
+        <v>0.08203441700741039</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B350" t="n" s="2">
         <v>42736.0</v>
@@ -23989,10 +26089,16 @@
       <c r="U350" t="n">
         <v>0.07968891316232202</v>
       </c>
+      <c r="V350" t="n">
+        <v>0.011776482151347883</v>
+      </c>
+      <c r="W350" t="n">
+        <v>0.07968891316232202</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B351" t="n" s="2">
         <v>42767.0</v>
@@ -24054,10 +26160,16 @@
       <c r="U351" t="n">
         <v>0.07809102857479018</v>
       </c>
+      <c r="V351" t="n">
+        <v>0.004760966154020788</v>
+      </c>
+      <c r="W351" t="n">
+        <v>0.07809102857479018</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B352" t="n" s="2">
         <v>42795.0</v>
@@ -24119,10 +26231,16 @@
       <c r="U352" t="n">
         <v>0.07517811759644827</v>
       </c>
+      <c r="V352" t="n">
+        <v>0.00705794147017114</v>
+      </c>
+      <c r="W352" t="n">
+        <v>0.07517811759644827</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B353" t="n" s="2">
         <v>42826.0</v>
@@ -24184,10 +26302,16 @@
       <c r="U353" t="n">
         <v>0.08324839446070824</v>
       </c>
+      <c r="V353" t="n">
+        <v>0.004451233901389396</v>
+      </c>
+      <c r="W353" t="n">
+        <v>0.08324839446070824</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B354" t="n" s="2">
         <v>42856.0</v>
@@ -24249,10 +26373,16 @@
       <c r="U354" t="n">
         <v>0.08121204907648757</v>
       </c>
+      <c r="V354" t="n">
+        <v>0.003858780161267476</v>
+      </c>
+      <c r="W354" t="n">
+        <v>0.08121204907648757</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B355" t="n" s="2">
         <v>42887.0</v>
@@ -24314,10 +26444,16 @@
       <c r="U355" t="n">
         <v>0.07886462761407897</v>
       </c>
+      <c r="V355" t="n">
+        <v>-0.0024187823479751925</v>
+      </c>
+      <c r="W355" t="n">
+        <v>0.07886462761407897</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B356" t="n" s="2">
         <v>42917.0</v>
@@ -24379,10 +26515,16 @@
       <c r="U356" t="n">
         <v>0.07726334199091789</v>
       </c>
+      <c r="V356" t="n">
+        <v>-0.0037401319723451695</v>
+      </c>
+      <c r="W356" t="n">
+        <v>0.07726334199091789</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B357" t="n" s="2">
         <v>42948.0</v>
@@ -24444,10 +26586,16 @@
       <c r="U357" t="n">
         <v>0.07527195540358529</v>
       </c>
+      <c r="V357" t="n">
+        <v>7.44238861789856E-4</v>
+      </c>
+      <c r="W357" t="n">
+        <v>0.07527195540358529</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B358" t="n" s="2">
         <v>42979.0</v>
@@ -24509,10 +26657,16 @@
       <c r="U358" t="n">
         <v>0.07109322911236261</v>
       </c>
+      <c r="V358" t="n">
+        <v>-9.706308328942368E-4</v>
+      </c>
+      <c r="W358" t="n">
+        <v>0.07109322911236261</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B359" t="n" s="2">
         <v>43009.0</v>
@@ -24574,10 +26728,16 @@
       <c r="U359" t="n">
         <v>0.06849431970324985</v>
       </c>
+      <c r="V359" t="n">
+        <v>0.008763300474499093</v>
+      </c>
+      <c r="W359" t="n">
+        <v>0.06849431970324985</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B360" t="n" s="2">
         <v>43040.0</v>
@@ -24639,10 +26799,16 @@
       <c r="U360" t="n">
         <v>0.06948237140565884</v>
       </c>
+      <c r="V360" t="n">
+        <v>0.011257288734631127</v>
+      </c>
+      <c r="W360" t="n">
+        <v>0.06948237140565884</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B361" t="n" s="2">
         <v>43070.0</v>
@@ -24704,10 +26870,16 @@
       <c r="U361" t="n">
         <v>0.06891877054427772</v>
       </c>
+      <c r="V361" t="n">
+        <v>-0.001501566075634314</v>
+      </c>
+      <c r="W361" t="n">
+        <v>0.06891877054427772</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B362" t="n" s="2">
         <v>43101.0</v>
@@ -24769,10 +26941,16 @@
       <c r="U362" t="n">
         <v>0.0712867576243611</v>
       </c>
+      <c r="V362" t="n">
+        <v>-5.44133945535992E-4</v>
+      </c>
+      <c r="W362" t="n">
+        <v>0.0712867576243611</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B363" t="n" s="2">
         <v>43132.0</v>
@@ -24834,10 +27012,16 @@
       <c r="U363" t="n">
         <v>0.08362168329670594</v>
       </c>
+      <c r="V363" t="n">
+        <v>0.002078735553961833</v>
+      </c>
+      <c r="W363" t="n">
+        <v>0.08362168329670594</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B364" t="n" s="2">
         <v>43160.0</v>
@@ -24899,10 +27083,16 @@
       <c r="U364" t="n">
         <v>0.07878947005507139</v>
       </c>
+      <c r="V364" t="n">
+        <v>-0.0021251403282957562</v>
+      </c>
+      <c r="W364" t="n">
+        <v>0.07878947005507139</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B365" t="n" s="2">
         <v>43191.0</v>
@@ -24964,10 +27154,16 @@
       <c r="U365" t="n">
         <v>0.08819838929029317</v>
       </c>
+      <c r="V365" t="n">
+        <v>-0.009412069208373022</v>
+      </c>
+      <c r="W365" t="n">
+        <v>0.08819838929029317</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B366" t="n" s="2">
         <v>43221.0</v>
@@ -25029,10 +27225,16 @@
       <c r="U366" t="n">
         <v>0.07219351391739187</v>
       </c>
+      <c r="V366" t="n">
+        <v>-0.01789768964292147</v>
+      </c>
+      <c r="W366" t="n">
+        <v>0.07219351391739187</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B367" t="n" s="2">
         <v>43252.0</v>
@@ -25094,10 +27296,16 @@
       <c r="U367" t="n">
         <v>0.0758606722472063</v>
       </c>
+      <c r="V367" t="n">
+        <v>-0.004085206018113797</v>
+      </c>
+      <c r="W367" t="n">
+        <v>0.0758606722472063</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B368" t="n" s="2">
         <v>43282.0</v>
@@ -25159,10 +27367,16 @@
       <c r="U368" t="n">
         <v>0.06657323310912916</v>
       </c>
+      <c r="V368" t="n">
+        <v>-0.012240151378764327</v>
+      </c>
+      <c r="W368" t="n">
+        <v>0.06657323310912916</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B369" t="n" s="2">
         <v>43313.0</v>
@@ -25224,10 +27438,16 @@
       <c r="U369" t="n">
         <v>0.06938146427376496</v>
       </c>
+      <c r="V369" t="n">
+        <v>-0.0037316371440324486</v>
+      </c>
+      <c r="W369" t="n">
+        <v>0.06938146427376496</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B370" t="n" s="2">
         <v>43344.0</v>
@@ -25289,10 +27509,16 @@
       <c r="U370" t="n">
         <v>0.0771074498261097</v>
       </c>
+      <c r="V370" t="n">
+        <v>-0.009572642758578541</v>
+      </c>
+      <c r="W370" t="n">
+        <v>0.0771074498261097</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B371" t="n" s="2">
         <v>43374.0</v>
@@ -25354,10 +27580,16 @@
       <c r="U371" t="n">
         <v>0.08050124588479653</v>
       </c>
+      <c r="V371" t="n">
+        <v>-0.0029993312421195684</v>
+      </c>
+      <c r="W371" t="n">
+        <v>0.08050124588479653</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B372" t="n" s="2">
         <v>43405.0</v>
@@ -25419,10 +27651,16 @@
       <c r="U372" t="n">
         <v>0.07924826460564245</v>
       </c>
+      <c r="V372" t="n">
+        <v>-0.007817684212697296</v>
+      </c>
+      <c r="W372" t="n">
+        <v>0.07924826460564245</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B373" t="n" s="2">
         <v>43435.0</v>
@@ -25482,6 +27720,12 @@
         <v>0.013228667308528884</v>
       </c>
       <c r="U373" t="n">
+        <v>0.08061671527855456</v>
+      </c>
+      <c r="V373" t="n">
+        <v>0.0032761341643971417</v>
+      </c>
+      <c r="W373" t="n">
         <v>0.08061671527855456</v>
       </c>
     </row>

--- a/Datasets/data_sa.xlsx
+++ b/Datasets/data_sa.xlsx
@@ -1385,7 +1385,7 @@
         <v>0.023821504435220145</v>
       </c>
       <c r="W2" t="n">
-        <v>0.11830339528869491</v>
+        <v>0.14206860801723015</v>
       </c>
     </row>
     <row r="3">
@@ -1456,7 +1456,7 @@
         <v>0.01811715422490006</v>
       </c>
       <c r="W3" t="n">
-        <v>0.11069227848548319</v>
+        <v>0.13101768491397686</v>
       </c>
     </row>
     <row r="4">
@@ -1527,7 +1527,7 @@
         <v>0.018019499668218183</v>
       </c>
       <c r="W4" t="n">
-        <v>0.11787176312146196</v>
+        <v>0.13347484958210223</v>
       </c>
     </row>
     <row r="5">
@@ -1598,7 +1598,7 @@
         <v>7.193182202126606E-4</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1006569397880992</v>
+        <v>0.1321226271983527</v>
       </c>
     </row>
     <row r="6">
@@ -1669,7 +1669,7 @@
         <v>0.006688273449611329</v>
       </c>
       <c r="W6" t="n">
-        <v>0.11491095345900096</v>
+        <v>0.12563781125965</v>
       </c>
     </row>
     <row r="7">
@@ -1740,7 +1740,7 @@
         <v>-0.012491278254905</v>
       </c>
       <c r="W7" t="n">
-        <v>0.11569345591235694</v>
+        <v>0.12779641338030465</v>
       </c>
     </row>
     <row r="8">
@@ -1811,7 +1811,7 @@
         <v>0.017945338173359117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.11300628040994189</v>
+        <v>0.1376940042162143</v>
       </c>
     </row>
     <row r="9">
@@ -1882,7 +1882,7 @@
         <v>0.010043803547461733</v>
       </c>
       <c r="W9" t="n">
-        <v>0.12111927117819608</v>
+        <v>0.13788456207945554</v>
       </c>
     </row>
     <row r="10">
@@ -1953,7 +1953,7 @@
         <v>0.041091382170535776</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1285781476455761</v>
+        <v>0.13494107391701565</v>
       </c>
     </row>
     <row r="11">
@@ -2024,7 +2024,7 @@
         <v>0.02266848763442185</v>
       </c>
       <c r="W11" t="n">
-        <v>0.11132178366506623</v>
+        <v>0.13640323344734626</v>
       </c>
     </row>
     <row r="12">
@@ -2095,7 +2095,7 @@
         <v>0.00769892742230182</v>
       </c>
       <c r="W12" t="n">
-        <v>0.10596361883294704</v>
+        <v>0.12904566105810875</v>
       </c>
     </row>
     <row r="13">
@@ -2166,7 +2166,7 @@
         <v>-0.012256975972886025</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1057452395300853</v>
+        <v>0.12883683054344974</v>
       </c>
     </row>
     <row r="14">
@@ -2237,7 +2237,7 @@
         <v>-0.011475378540886169</v>
       </c>
       <c r="W14" t="n">
-        <v>0.1053677205588536</v>
+        <v>0.13171550674614543</v>
       </c>
     </row>
     <row r="15">
@@ -2308,7 +2308,7 @@
         <v>0.01672630780838292</v>
       </c>
       <c r="W15" t="n">
-        <v>0.12028380037335665</v>
+        <v>0.1214342202087319</v>
       </c>
     </row>
     <row r="16">
@@ -2379,7 +2379,7 @@
         <v>0.015302219621579696</v>
       </c>
       <c r="W16" t="n">
-        <v>0.11036255365771325</v>
+        <v>0.11285537408161483</v>
       </c>
     </row>
     <row r="17">
@@ -2450,7 +2450,7 @@
         <v>0.04254389280773459</v>
       </c>
       <c r="W17" t="n">
-        <v>0.10450688108727202</v>
+        <v>0.1302920035202758</v>
       </c>
     </row>
     <row r="18">
@@ -2521,7 +2521,7 @@
         <v>0.011048361508538088</v>
       </c>
       <c r="W18" t="n">
-        <v>0.0903116244253113</v>
+        <v>0.11433224796351897</v>
       </c>
     </row>
     <row r="19">
@@ -2592,7 +2592,7 @@
         <v>0.011573295999706718</v>
       </c>
       <c r="W19" t="n">
-        <v>0.10813346383012194</v>
+        <v>0.11721111508632436</v>
       </c>
     </row>
     <row r="20">
@@ -2663,7 +2663,7 @@
         <v>0.003196044330351422</v>
       </c>
       <c r="W20" t="n">
-        <v>0.10899690060802296</v>
+        <v>0.1195397778440324</v>
       </c>
     </row>
     <row r="21">
@@ -2734,7 +2734,7 @@
         <v>-0.02391752847766285</v>
       </c>
       <c r="W21" t="n">
-        <v>0.11255447635072086</v>
+        <v>0.12769196246427922</v>
       </c>
     </row>
     <row r="22">
@@ -2805,7 +2805,7 @@
         <v>-0.024692110195789017</v>
       </c>
       <c r="W22" t="n">
-        <v>0.11035306515631933</v>
+        <v>0.13065873853426496</v>
       </c>
     </row>
     <row r="23">
@@ -2876,7 +2876,7 @@
         <v>-0.03780241675206622</v>
       </c>
       <c r="W23" t="n">
-        <v>0.12663677193629366</v>
+        <v>0.1320139596426475</v>
       </c>
     </row>
     <row r="24">
@@ -2947,7 +2947,7 @@
         <v>0.021284191236614215</v>
       </c>
       <c r="W24" t="n">
-        <v>0.11230353891249112</v>
+        <v>0.1542233629561062</v>
       </c>
     </row>
     <row r="25">
@@ -3018,7 +3018,7 @@
         <v>0.022409276565470992</v>
       </c>
       <c r="W25" t="n">
-        <v>0.11580098100354694</v>
+        <v>0.1418539369990525</v>
       </c>
     </row>
     <row r="26">
@@ -3089,7 +3089,7 @@
         <v>0.045304030022453395</v>
       </c>
       <c r="W26" t="n">
-        <v>0.12407973258275903</v>
+        <v>0.1330125642378681</v>
       </c>
     </row>
     <row r="27">
@@ -3160,7 +3160,7 @@
         <v>0.0041575512987972255</v>
       </c>
       <c r="W27" t="n">
-        <v>0.1152118589234872</v>
+        <v>0.14067908427758183</v>
       </c>
     </row>
     <row r="28">
@@ -3231,7 +3231,7 @@
         <v>-0.0011484828012525289</v>
       </c>
       <c r="W28" t="n">
-        <v>0.11307678119469076</v>
+        <v>0.14526975427380473</v>
       </c>
     </row>
     <row r="29">
@@ -3302,7 +3302,7 @@
         <v>-0.01812042876652311</v>
       </c>
       <c r="W29" t="n">
-        <v>0.11924986412747512</v>
+        <v>0.13440861668959264</v>
       </c>
     </row>
     <row r="30">
@@ -3373,7 +3373,7 @@
         <v>-0.015453205976314461</v>
       </c>
       <c r="W30" t="n">
-        <v>0.11356282422093653</v>
+        <v>0.14599729986993154</v>
       </c>
     </row>
     <row r="31">
@@ -3444,7 +3444,7 @@
         <v>-0.024564652327508332</v>
       </c>
       <c r="W31" t="n">
-        <v>0.1139383187175974</v>
+        <v>0.13754187205412458</v>
       </c>
     </row>
     <row r="32">
@@ -3515,7 +3515,7 @@
         <v>-0.03459254387830598</v>
       </c>
       <c r="W32" t="n">
-        <v>0.114638637317315</v>
+        <v>0.12812945592221162</v>
       </c>
     </row>
     <row r="33">
@@ -3586,7 +3586,7 @@
         <v>-0.025476119772730812</v>
       </c>
       <c r="W33" t="n">
-        <v>0.1080561013601348</v>
+        <v>0.1250434908144594</v>
       </c>
     </row>
     <row r="34">
@@ -3657,7 +3657,7 @@
         <v>-0.049694994002050616</v>
       </c>
       <c r="W34" t="n">
-        <v>0.11268103885167985</v>
+        <v>0.12867929224504712</v>
       </c>
     </row>
     <row r="35">
@@ -3728,7 +3728,7 @@
         <v>-0.024720847192238764</v>
       </c>
       <c r="W35" t="n">
-        <v>0.11195727786239905</v>
+        <v>0.1314142349470435</v>
       </c>
     </row>
     <row r="36">
@@ -3799,7 +3799,7 @@
         <v>-0.028537046551942072</v>
       </c>
       <c r="W36" t="n">
-        <v>0.12196999191875614</v>
+        <v>0.1291150659788535</v>
       </c>
     </row>
     <row r="37">
@@ -3870,7 +3870,7 @@
         <v>-0.016115827691138063</v>
       </c>
       <c r="W37" t="n">
-        <v>0.1230992674616596</v>
+        <v>0.13141597853385326</v>
       </c>
     </row>
     <row r="38">
@@ -3941,7 +3941,7 @@
         <v>-0.040014475476877</v>
       </c>
       <c r="W38" t="n">
-        <v>0.11692787098855247</v>
+        <v>0.15508892646863096</v>
       </c>
     </row>
     <row r="39">
@@ -4012,7 +4012,7 @@
         <v>-0.09221686829177536</v>
       </c>
       <c r="W39" t="n">
-        <v>0.13059598466748293</v>
+        <v>0.13946070722459375</v>
       </c>
     </row>
     <row r="40">
@@ -4083,7 +4083,7 @@
         <v>-0.07047303289908663</v>
       </c>
       <c r="W40" t="n">
-        <v>0.11039927871263253</v>
+        <v>0.11997466371553404</v>
       </c>
     </row>
     <row r="41">
@@ -4154,7 +4154,7 @@
         <v>-0.008850261780240065</v>
       </c>
       <c r="W41" t="n">
-        <v>0.13092473540110156</v>
+        <v>0.14073507541483998</v>
       </c>
     </row>
     <row r="42">
@@ -4225,7 +4225,7 @@
         <v>0.04232154063758404</v>
       </c>
       <c r="W42" t="n">
-        <v>0.13871761350984513</v>
+        <v>0.1531473912125486</v>
       </c>
     </row>
     <row r="43">
@@ -4296,7 +4296,7 @@
         <v>0.021269930650211075</v>
       </c>
       <c r="W43" t="n">
-        <v>0.14546199433865997</v>
+        <v>0.15658868901903059</v>
       </c>
     </row>
     <row r="44">
@@ -4367,7 +4367,7 @@
         <v>-0.003839109303632843</v>
       </c>
       <c r="W44" t="n">
-        <v>0.13856015973499847</v>
+        <v>0.15139356312354757</v>
       </c>
     </row>
     <row r="45">
@@ -4438,7 +4438,7 @@
         <v>0.0065664111789744475</v>
       </c>
       <c r="W45" t="n">
-        <v>0.11616788117031233</v>
+        <v>0.1533148454969128</v>
       </c>
     </row>
     <row r="46">
@@ -4509,7 +4509,7 @@
         <v>0.009644600673963357</v>
       </c>
       <c r="W46" t="n">
-        <v>0.12457665398270364</v>
+        <v>0.14186891077525413</v>
       </c>
     </row>
     <row r="47">
@@ -4580,7 +4580,7 @@
         <v>-0.008709550523709492</v>
       </c>
       <c r="W47" t="n">
-        <v>0.12678127773905784</v>
+        <v>0.13604694497981515</v>
       </c>
     </row>
     <row r="48">
@@ -4651,7 +4651,7 @@
         <v>-0.02454249602839463</v>
       </c>
       <c r="W48" t="n">
-        <v>0.13446512983908912</v>
+        <v>0.14949916630106555</v>
       </c>
     </row>
     <row r="49">
@@ -4722,7 +4722,7 @@
         <v>-0.02047274947361935</v>
       </c>
       <c r="W49" t="n">
-        <v>0.13421995794748107</v>
+        <v>0.16614437742486599</v>
       </c>
     </row>
     <row r="50">
@@ -4793,7 +4793,7 @@
         <v>-0.016607742033993213</v>
       </c>
       <c r="W50" t="n">
-        <v>0.12757539114191616</v>
+        <v>0.14255536282892692</v>
       </c>
     </row>
     <row r="51">
@@ -4864,7 +4864,7 @@
         <v>-0.0033250384927217234</v>
       </c>
       <c r="W51" t="n">
-        <v>0.1261220806620499</v>
+        <v>0.15196474766779297</v>
       </c>
     </row>
     <row r="52">
@@ -4935,7 +4935,7 @@
         <v>-0.02351642600316281</v>
       </c>
       <c r="W52" t="n">
-        <v>0.12297140834932173</v>
+        <v>0.15149775879807206</v>
       </c>
     </row>
     <row r="53">
@@ -5006,7 +5006,7 @@
         <v>-0.028671509029243987</v>
       </c>
       <c r="W53" t="n">
-        <v>0.11794510615893006</v>
+        <v>0.14802695748159334</v>
       </c>
     </row>
     <row r="54">
@@ -5077,7 +5077,7 @@
         <v>-0.051141265771095124</v>
       </c>
       <c r="W54" t="n">
-        <v>0.1281913721648704</v>
+        <v>0.14056049894888362</v>
       </c>
     </row>
     <row r="55">
@@ -5148,7 +5148,7 @@
         <v>-0.03871418639245259</v>
       </c>
       <c r="W55" t="n">
-        <v>0.12270895684351626</v>
+        <v>0.1421317079936742</v>
       </c>
     </row>
     <row r="56">
@@ -5219,7 +5219,7 @@
         <v>0.0021933586440938055</v>
       </c>
       <c r="W56" t="n">
-        <v>0.11737940159456686</v>
+        <v>0.14369578546680434</v>
       </c>
     </row>
     <row r="57">
@@ -5290,7 +5290,7 @@
         <v>-0.013814856100024697</v>
       </c>
       <c r="W57" t="n">
-        <v>0.11783842888256253</v>
+        <v>0.1354162468630917</v>
       </c>
     </row>
     <row r="58">
@@ -5361,7 +5361,7 @@
         <v>-0.045014339840305756</v>
       </c>
       <c r="W58" t="n">
-        <v>0.12760267708220427</v>
+        <v>0.14418110170788673</v>
       </c>
     </row>
     <row r="59">
@@ -5432,7 +5432,7 @@
         <v>-0.06507563623043218</v>
       </c>
       <c r="W59" t="n">
-        <v>0.1263330257159703</v>
+        <v>0.1492690300844023</v>
       </c>
     </row>
     <row r="60">
@@ -5503,7 +5503,7 @@
         <v>-0.0644904563162465</v>
       </c>
       <c r="W60" t="n">
-        <v>0.12511757791599643</v>
+        <v>0.16482431102143824</v>
       </c>
     </row>
     <row r="61">
@@ -5574,7 +5574,7 @@
         <v>-0.07094415030159418</v>
       </c>
       <c r="W61" t="n">
-        <v>0.11801254484991558</v>
+        <v>0.14005698142962414</v>
       </c>
     </row>
     <row r="62">
@@ -5645,7 +5645,7 @@
         <v>-0.052540845930254904</v>
       </c>
       <c r="W62" t="n">
-        <v>0.11905610919689556</v>
+        <v>0.14601628843034847</v>
       </c>
     </row>
     <row r="63">
@@ -5716,7 +5716,7 @@
         <v>-0.041318135872767364</v>
       </c>
       <c r="W63" t="n">
-        <v>0.1138311532622051</v>
+        <v>0.13667212288701117</v>
       </c>
     </row>
     <row r="64">
@@ -5787,7 +5787,7 @@
         <v>2.640451141797534E-4</v>
       </c>
       <c r="W64" t="n">
-        <v>0.11909154577598316</v>
+        <v>0.13760732756443717</v>
       </c>
     </row>
     <row r="65">
@@ -5858,7 +5858,7 @@
         <v>0.027470642939967857</v>
       </c>
       <c r="W65" t="n">
-        <v>0.12737836481329906</v>
+        <v>0.13970417042086208</v>
       </c>
     </row>
     <row r="66">
@@ -5929,7 +5929,7 @@
         <v>0.015807339363992517</v>
       </c>
       <c r="W66" t="n">
-        <v>0.11837871080784437</v>
+        <v>0.13904278026247902</v>
       </c>
     </row>
     <row r="67">
@@ -6000,7 +6000,7 @@
         <v>-0.008862604645907421</v>
       </c>
       <c r="W67" t="n">
-        <v>0.11985223787523727</v>
+        <v>0.12387890895948185</v>
       </c>
     </row>
     <row r="68">
@@ -6071,7 +6071,7 @@
         <v>-0.0015917203768552944</v>
       </c>
       <c r="W68" t="n">
-        <v>0.12162475489454415</v>
+        <v>0.14849445197950067</v>
       </c>
     </row>
     <row r="69">
@@ -6142,7 +6142,7 @@
         <v>0.003395293487833448</v>
       </c>
       <c r="W69" t="n">
-        <v>0.13232140118155644</v>
+        <v>0.15315965570778345</v>
       </c>
     </row>
     <row r="70">
@@ -6213,7 +6213,7 @@
         <v>0.02617838626390929</v>
       </c>
       <c r="W70" t="n">
-        <v>0.12838249533379895</v>
+        <v>0.15669954325770916</v>
       </c>
     </row>
     <row r="71">
@@ -6284,7 +6284,7 @@
         <v>0.026585652422783698</v>
       </c>
       <c r="W71" t="n">
-        <v>0.12902048798541932</v>
+        <v>0.15529623798514175</v>
       </c>
     </row>
     <row r="72">
@@ -6355,7 +6355,7 @@
         <v>0.04221278249138342</v>
       </c>
       <c r="W72" t="n">
-        <v>0.12025086135322796</v>
+        <v>0.1485326942385938</v>
       </c>
     </row>
     <row r="73">
@@ -6426,7 +6426,7 @@
         <v>0.05771049736681579</v>
       </c>
       <c r="W73" t="n">
-        <v>0.11877150016478605</v>
+        <v>0.14063505087288888</v>
       </c>
     </row>
     <row r="74">
@@ -6497,7 +6497,7 @@
         <v>0.04892918195030469</v>
       </c>
       <c r="W74" t="n">
-        <v>0.12246098317874106</v>
+        <v>0.14542098921822244</v>
       </c>
     </row>
     <row r="75">
@@ -6568,7 +6568,7 @@
         <v>0.04057032396676145</v>
       </c>
       <c r="W75" t="n">
-        <v>0.15064695920396923</v>
+        <v>0.1515852970757147</v>
       </c>
     </row>
     <row r="76">
@@ -6639,7 +6639,7 @@
         <v>0.034141386909998656</v>
       </c>
       <c r="W76" t="n">
-        <v>0.13443781472060343</v>
+        <v>0.1553811695260385</v>
       </c>
     </row>
     <row r="77">
@@ -6710,7 +6710,7 @@
         <v>0.028220750885128227</v>
       </c>
       <c r="W77" t="n">
-        <v>0.12590655959110023</v>
+        <v>0.15024068007215496</v>
       </c>
     </row>
     <row r="78">
@@ -6781,7 +6781,7 @@
         <v>-0.009422499053013692</v>
       </c>
       <c r="W78" t="n">
-        <v>0.11808382684859456</v>
+        <v>0.12819143973330388</v>
       </c>
     </row>
     <row r="79">
@@ -6852,7 +6852,7 @@
         <v>0.028439136129826743</v>
       </c>
       <c r="W79" t="n">
-        <v>0.12213352317397665</v>
+        <v>0.14067189644024164</v>
       </c>
     </row>
     <row r="80">
@@ -6923,7 +6923,7 @@
         <v>0.035106055731936654</v>
       </c>
       <c r="W80" t="n">
-        <v>0.1326909141651165</v>
+        <v>0.14321449145192242</v>
       </c>
     </row>
     <row r="81">
@@ -6994,7 +6994,7 @@
         <v>0.03312005581342515</v>
       </c>
       <c r="W81" t="n">
-        <v>0.11800079935714024</v>
+        <v>0.1427501671955847</v>
       </c>
     </row>
     <row r="82">
@@ -7065,7 +7065,7 @@
         <v>0.021985899579643607</v>
       </c>
       <c r="W82" t="n">
-        <v>0.12478649394190407</v>
+        <v>0.13573872891366753</v>
       </c>
     </row>
     <row r="83">
@@ -7136,7 +7136,7 @@
         <v>0.0298267642050193</v>
       </c>
       <c r="W83" t="n">
-        <v>0.11900223702855942</v>
+        <v>0.13399836195717438</v>
       </c>
     </row>
     <row r="84">
@@ -7207,7 +7207,7 @@
         <v>0.022850298335906193</v>
       </c>
       <c r="W84" t="n">
-        <v>0.11730329260668361</v>
+        <v>0.12487763365642758</v>
       </c>
     </row>
     <row r="85">
@@ -7278,7 +7278,7 @@
         <v>0.0065125583710360785</v>
       </c>
       <c r="W85" t="n">
-        <v>0.12626797720845087</v>
+        <v>0.15315726862863174</v>
       </c>
     </row>
     <row r="86">
@@ -7349,7 +7349,7 @@
         <v>-0.00743846556693735</v>
       </c>
       <c r="W86" t="n">
-        <v>0.12507622963507783</v>
+        <v>0.14431757842714138</v>
       </c>
     </row>
     <row r="87">
@@ -7420,7 +7420,7 @@
         <v>0.002394445978310941</v>
       </c>
       <c r="W87" t="n">
-        <v>0.1240951809679554</v>
+        <v>0.14527793355102048</v>
       </c>
     </row>
     <row r="88">
@@ -7491,7 +7491,7 @@
         <v>-0.039316432495072266</v>
       </c>
       <c r="W88" t="n">
-        <v>0.12008048248013639</v>
+        <v>0.1390760573822859</v>
       </c>
     </row>
     <row r="89">
@@ -7562,7 +7562,7 @@
         <v>-0.049295762046652994</v>
       </c>
       <c r="W89" t="n">
-        <v>0.12889481618079895</v>
+        <v>0.14962731245885222</v>
       </c>
     </row>
     <row r="90">
@@ -7633,7 +7633,7 @@
         <v>-0.07625239751694145</v>
       </c>
       <c r="W90" t="n">
-        <v>0.12581812220361802</v>
+        <v>0.14996411187994863</v>
       </c>
     </row>
     <row r="91">
@@ -7704,7 +7704,7 @@
         <v>-0.027080711177575507</v>
       </c>
       <c r="W91" t="n">
-        <v>0.13240759190691517</v>
+        <v>0.1564724646383059</v>
       </c>
     </row>
     <row r="92">
@@ -7775,7 +7775,7 @@
         <v>-0.0139119885477733</v>
       </c>
       <c r="W92" t="n">
-        <v>0.1165792874746577</v>
+        <v>0.13481036678873307</v>
       </c>
     </row>
     <row r="93">
@@ -7846,7 +7846,7 @@
         <v>0.001681360343564156</v>
       </c>
       <c r="W93" t="n">
-        <v>0.12433379352435771</v>
+        <v>0.1421149394407978</v>
       </c>
     </row>
     <row r="94">
@@ -7917,7 +7917,7 @@
         <v>-0.011007921339691997</v>
       </c>
       <c r="W94" t="n">
-        <v>0.11949329586491285</v>
+        <v>0.14835827893984663</v>
       </c>
     </row>
     <row r="95">
@@ -7988,7 +7988,7 @@
         <v>-0.023334719711565335</v>
       </c>
       <c r="W95" t="n">
-        <v>0.12535337188755125</v>
+        <v>0.14094141327267876</v>
       </c>
     </row>
     <row r="96">
@@ -8059,7 +8059,7 @@
         <v>-0.029810638289953034</v>
       </c>
       <c r="W96" t="n">
-        <v>0.13289307068830172</v>
+        <v>0.14319048263598813</v>
       </c>
     </row>
     <row r="97">
@@ -8130,7 +8130,7 @@
         <v>-0.03466483163968141</v>
       </c>
       <c r="W97" t="n">
-        <v>0.1172086911113773</v>
+        <v>0.1440270819246781</v>
       </c>
     </row>
     <row r="98">
@@ -8201,7 +8201,7 @@
         <v>-0.02005039049831357</v>
       </c>
       <c r="W98" t="n">
-        <v>0.12042236353489533</v>
+        <v>0.13616215031412757</v>
       </c>
     </row>
     <row r="99">
@@ -8272,7 +8272,7 @@
         <v>-0.017133126556797617</v>
       </c>
       <c r="W99" t="n">
-        <v>0.11498740505096794</v>
+        <v>0.12864086722349333</v>
       </c>
     </row>
     <row r="100">
@@ -8343,7 +8343,7 @@
         <v>-0.0035995014141589586</v>
       </c>
       <c r="W100" t="n">
-        <v>0.12267271097778502</v>
+        <v>0.13730920517146475</v>
       </c>
     </row>
     <row r="101">
@@ -8414,7 +8414,7 @@
         <v>0.004878993978986675</v>
       </c>
       <c r="W101" t="n">
-        <v>0.11608982222100686</v>
+        <v>0.13795910286215407</v>
       </c>
     </row>
     <row r="102">
@@ -8485,7 +8485,7 @@
         <v>0.022771730190048047</v>
       </c>
       <c r="W102" t="n">
-        <v>0.12587803029061673</v>
+        <v>0.14033885798540655</v>
       </c>
     </row>
     <row r="103">
@@ -8556,7 +8556,7 @@
         <v>0.020982947486475244</v>
       </c>
       <c r="W103" t="n">
-        <v>0.12431426730042382</v>
+        <v>0.1389683901997968</v>
       </c>
     </row>
     <row r="104">
@@ -8627,7 +8627,7 @@
         <v>0.023759903309128833</v>
       </c>
       <c r="W104" t="n">
-        <v>0.12693190399088586</v>
+        <v>0.1462645347054275</v>
       </c>
     </row>
     <row r="105">
@@ -8698,7 +8698,7 @@
         <v>0.012099486883274814</v>
       </c>
       <c r="W105" t="n">
-        <v>0.1292770490494869</v>
+        <v>0.1485704598066147</v>
       </c>
     </row>
     <row r="106">
@@ -8769,7 +8769,7 @@
         <v>0.020086029554620542</v>
       </c>
       <c r="W106" t="n">
-        <v>0.12748802392654773</v>
+        <v>0.1439709287677078</v>
       </c>
     </row>
     <row r="107">
@@ -8840,7 +8840,7 @@
         <v>0.013672279896484963</v>
       </c>
       <c r="W107" t="n">
-        <v>0.11068666024498483</v>
+        <v>0.14167776702378707</v>
       </c>
     </row>
     <row r="108">
@@ -8911,7 +8911,7 @@
         <v>0.023323705863953468</v>
       </c>
       <c r="W108" t="n">
-        <v>0.12004039579295578</v>
+        <v>0.1293678523698256</v>
       </c>
     </row>
     <row r="109">
@@ -8982,7 +8982,7 @@
         <v>0.019916723887152307</v>
       </c>
       <c r="W109" t="n">
-        <v>0.12829399985669207</v>
+        <v>0.1428988683851612</v>
       </c>
     </row>
     <row r="110">
@@ -9053,7 +9053,7 @@
         <v>0.022327697213398348</v>
       </c>
       <c r="W110" t="n">
-        <v>0.12135067821174726</v>
+        <v>0.15437335035318148</v>
       </c>
     </row>
     <row r="111">
@@ -9124,7 +9124,7 @@
         <v>0.015722032247353843</v>
       </c>
       <c r="W111" t="n">
-        <v>0.1190992309995256</v>
+        <v>0.1342749192187225</v>
       </c>
     </row>
     <row r="112">
@@ -9195,7 +9195,7 @@
         <v>0.03296714199517048</v>
       </c>
       <c r="W112" t="n">
-        <v>0.11154059377949554</v>
+        <v>0.12579296627573217</v>
       </c>
     </row>
     <row r="113">
@@ -9266,7 +9266,7 @@
         <v>0.016609235082611994</v>
       </c>
       <c r="W113" t="n">
-        <v>0.11435990257591663</v>
+        <v>0.13236834838731032</v>
       </c>
     </row>
     <row r="114">
@@ -9337,7 +9337,7 @@
         <v>0.013718542963249836</v>
       </c>
       <c r="W114" t="n">
-        <v>0.11006402355289575</v>
+        <v>0.13102307328961807</v>
       </c>
     </row>
     <row r="115">
@@ -9408,7 +9408,7 @@
         <v>0.005211696417678398</v>
       </c>
       <c r="W115" t="n">
-        <v>0.11439697461791849</v>
+        <v>0.12945145125405105</v>
       </c>
     </row>
     <row r="116">
@@ -9479,7 +9479,7 @@
         <v>0.0209526139698612</v>
       </c>
       <c r="W116" t="n">
-        <v>0.12211726340377882</v>
+        <v>0.1325201606355294</v>
       </c>
     </row>
     <row r="117">
@@ -9550,7 +9550,7 @@
         <v>0.017543671512968442</v>
       </c>
       <c r="W117" t="n">
-        <v>0.12143040083427874</v>
+        <v>0.14597387670313244</v>
       </c>
     </row>
     <row r="118">
@@ -9621,7 +9621,7 @@
         <v>0.013117096157070744</v>
       </c>
       <c r="W118" t="n">
-        <v>0.11886688610837884</v>
+        <v>0.13365330682044071</v>
       </c>
     </row>
     <row r="119">
@@ -9692,7 +9692,7 @@
         <v>0.028965455820830432</v>
       </c>
       <c r="W119" t="n">
-        <v>0.11310046676060714</v>
+        <v>0.13484349799595563</v>
       </c>
     </row>
     <row r="120">
@@ -9763,7 +9763,7 @@
         <v>0.014220693353726326</v>
       </c>
       <c r="W120" t="n">
-        <v>0.11832293066580339</v>
+        <v>0.13418984547471077</v>
       </c>
     </row>
     <row r="121">
@@ -9834,7 +9834,7 @@
         <v>0.050665433130500995</v>
       </c>
       <c r="W121" t="n">
-        <v>0.11757647666766144</v>
+        <v>0.13397845448388368</v>
       </c>
     </row>
     <row r="122">
@@ -9905,7 +9905,7 @@
         <v>0.010018312191641385</v>
       </c>
       <c r="W122" t="n">
-        <v>0.12363208101144087</v>
+        <v>0.13784135169501235</v>
       </c>
     </row>
     <row r="123">
@@ -9976,7 +9976,7 @@
         <v>0.003196892911926312</v>
       </c>
       <c r="W123" t="n">
-        <v>0.1239584583905982</v>
+        <v>0.1346208637087716</v>
       </c>
     </row>
     <row r="124">
@@ -10047,7 +10047,7 @@
         <v>-0.01975920756644033</v>
       </c>
       <c r="W124" t="n">
-        <v>0.10248003151465553</v>
+        <v>0.13514514877673814</v>
       </c>
     </row>
     <row r="125">
@@ -10118,7 +10118,7 @@
         <v>-0.016687552745791406</v>
       </c>
       <c r="W125" t="n">
-        <v>0.12212197281404617</v>
+        <v>0.12318187625725507</v>
       </c>
     </row>
     <row r="126">
@@ -10189,7 +10189,7 @@
         <v>-0.0278680850647256</v>
       </c>
       <c r="W126" t="n">
-        <v>0.1193724039835646</v>
+        <v>0.1323753625318605</v>
       </c>
     </row>
     <row r="127">
@@ -10260,7 +10260,7 @@
         <v>-0.013141486828296425</v>
       </c>
       <c r="W127" t="n">
-        <v>0.1096059642256724</v>
+        <v>0.13074693254274752</v>
       </c>
     </row>
     <row r="128">
@@ -10331,7 +10331,7 @@
         <v>-0.031004001704796464</v>
       </c>
       <c r="W128" t="n">
-        <v>0.10979097385527498</v>
+        <v>0.12777353783048506</v>
       </c>
     </row>
     <row r="129">
@@ -10402,7 +10402,7 @@
         <v>-0.007618509581901502</v>
       </c>
       <c r="W129" t="n">
-        <v>0.1097731740272265</v>
+        <v>0.12471818849812377</v>
       </c>
     </row>
     <row r="130">
@@ -10473,7 +10473,7 @@
         <v>-0.029761614020372387</v>
       </c>
       <c r="W130" t="n">
-        <v>0.11684482941183366</v>
+        <v>0.12986787733880623</v>
       </c>
     </row>
     <row r="131">
@@ -10544,7 +10544,7 @@
         <v>-0.04393235067210041</v>
       </c>
       <c r="W131" t="n">
-        <v>0.12367271665009213</v>
+        <v>0.13627604228897364</v>
       </c>
     </row>
     <row r="132">
@@ -10615,7 +10615,7 @@
         <v>-0.06294299052504126</v>
       </c>
       <c r="W132" t="n">
-        <v>0.1267935946956925</v>
+        <v>0.15432226749751124</v>
       </c>
     </row>
     <row r="133">
@@ -10686,7 +10686,7 @@
         <v>-0.052072818618390006</v>
       </c>
       <c r="W133" t="n">
-        <v>0.11438110241990895</v>
+        <v>0.14245016323920884</v>
       </c>
     </row>
     <row r="134">
@@ -10757,7 +10757,7 @@
         <v>-0.0015240436626687815</v>
       </c>
       <c r="W134" t="n">
-        <v>0.1175911252556825</v>
+        <v>0.13786669469864765</v>
       </c>
     </row>
     <row r="135">
@@ -10828,7 +10828,7 @@
         <v>0.0012795073287465604</v>
       </c>
       <c r="W135" t="n">
-        <v>0.1182820999791848</v>
+        <v>0.1501041880053588</v>
       </c>
     </row>
     <row r="136">
@@ -10899,7 +10899,7 @@
         <v>-0.005519566721930788</v>
       </c>
       <c r="W136" t="n">
-        <v>0.1250592731679567</v>
+        <v>0.1363932787597888</v>
       </c>
     </row>
     <row r="137">
@@ -10970,7 +10970,7 @@
         <v>0.010380513544090364</v>
       </c>
       <c r="W137" t="n">
-        <v>0.10890834220914064</v>
+        <v>0.13735342789678187</v>
       </c>
     </row>
     <row r="138">
@@ -11041,7 +11041,7 @@
         <v>0.021371659175578848</v>
       </c>
       <c r="W138" t="n">
-        <v>0.1196929299011127</v>
+        <v>0.13548074798616633</v>
       </c>
     </row>
     <row r="139">
@@ -11112,7 +11112,7 @@
         <v>0.05015039715698982</v>
       </c>
       <c r="W139" t="n">
-        <v>0.11898453960060999</v>
+        <v>0.13753020721478085</v>
       </c>
     </row>
     <row r="140">
@@ -11183,7 +11183,7 @@
         <v>0.009482980221536918</v>
       </c>
       <c r="W140" t="n">
-        <v>0.12730787459354276</v>
+        <v>0.1445732842278895</v>
       </c>
     </row>
     <row r="141">
@@ -11254,7 +11254,7 @@
         <v>0.018102750337320155</v>
       </c>
       <c r="W141" t="n">
-        <v>0.11391475557797763</v>
+        <v>0.13643344199888535</v>
       </c>
     </row>
     <row r="142">
@@ -11325,7 +11325,7 @@
         <v>0.02568073651441431</v>
       </c>
       <c r="W142" t="n">
-        <v>0.1118988238748396</v>
+        <v>0.13477475969565822</v>
       </c>
     </row>
     <row r="143">
@@ -11396,7 +11396,7 @@
         <v>0.0435017491577997</v>
       </c>
       <c r="W143" t="n">
-        <v>0.11935740234285801</v>
+        <v>0.13263212090051588</v>
       </c>
     </row>
     <row r="144">
@@ -11467,7 +11467,7 @@
         <v>0.039496615148429184</v>
       </c>
       <c r="W144" t="n">
-        <v>0.11375979660388981</v>
+        <v>0.1341158467377879</v>
       </c>
     </row>
     <row r="145">
@@ -11538,7 +11538,7 @@
         <v>0.04322683998583658</v>
       </c>
       <c r="W145" t="n">
-        <v>0.11874901830764174</v>
+        <v>0.1286344091007589</v>
       </c>
     </row>
     <row r="146">
@@ -11609,7 +11609,7 @@
         <v>0.008422187447313639</v>
       </c>
       <c r="W146" t="n">
-        <v>0.11577474984830885</v>
+        <v>0.13134272728617927</v>
       </c>
     </row>
     <row r="147">
@@ -11680,7 +11680,7 @@
         <v>0.00446618803881324</v>
       </c>
       <c r="W147" t="n">
-        <v>0.12568387199905465</v>
+        <v>0.1349120776481403</v>
       </c>
     </row>
     <row r="148">
@@ -11751,7 +11751,7 @@
         <v>0.023470152412671412</v>
       </c>
       <c r="W148" t="n">
-        <v>0.11493889356463081</v>
+        <v>0.14048876531340426</v>
       </c>
     </row>
     <row r="149">
@@ -11822,7 +11822,7 @@
         <v>0.03153476228275753</v>
       </c>
       <c r="W149" t="n">
-        <v>0.12413235321453663</v>
+        <v>0.13556557269824868</v>
       </c>
     </row>
     <row r="150">
@@ -11893,7 +11893,7 @@
         <v>0.017396375025019267</v>
       </c>
       <c r="W150" t="n">
-        <v>0.11765599899602672</v>
+        <v>0.13536869616018055</v>
       </c>
     </row>
     <row r="151">
@@ -11964,7 +11964,7 @@
         <v>0.004567851287037912</v>
       </c>
       <c r="W151" t="n">
-        <v>0.1203684706949219</v>
+        <v>0.13497188536291121</v>
       </c>
     </row>
     <row r="152">
@@ -12035,7 +12035,7 @@
         <v>0.006162603225855489</v>
       </c>
       <c r="W152" t="n">
-        <v>0.10478093162792378</v>
+        <v>0.12761719201221547</v>
       </c>
     </row>
     <row r="153">
@@ -12106,7 +12106,7 @@
         <v>-0.0022975766744085697</v>
       </c>
       <c r="W153" t="n">
-        <v>0.1236237884489473</v>
+        <v>0.13535337390294186</v>
       </c>
     </row>
     <row r="154">
@@ -12177,7 +12177,7 @@
         <v>-0.014423904609810802</v>
       </c>
       <c r="W154" t="n">
-        <v>0.12181314118890546</v>
+        <v>0.14533070619134703</v>
       </c>
     </row>
     <row r="155">
@@ -12248,7 +12248,7 @@
         <v>-0.010148058722563441</v>
       </c>
       <c r="W155" t="n">
-        <v>0.10977864836210029</v>
+        <v>0.13805058613308466</v>
       </c>
     </row>
     <row r="156">
@@ -12319,7 +12319,7 @@
         <v>-4.520172220159671E-4</v>
       </c>
       <c r="W156" t="n">
-        <v>0.1070809065713798</v>
+        <v>0.12747466540806562</v>
       </c>
     </row>
     <row r="157">
@@ -12390,7 +12390,7 @@
         <v>-0.01077448881673515</v>
       </c>
       <c r="W157" t="n">
-        <v>0.11925058780323725</v>
+        <v>0.1315582882173978</v>
       </c>
     </row>
     <row r="158">
@@ -12461,7 +12461,7 @@
         <v>-0.03943567585571859</v>
       </c>
       <c r="W158" t="n">
-        <v>0.11356864369120113</v>
+        <v>0.1339912184785724</v>
       </c>
     </row>
     <row r="159">
@@ -12532,7 +12532,7 @@
         <v>-0.045886355463940404</v>
       </c>
       <c r="W159" t="n">
-        <v>0.11065901096234755</v>
+        <v>0.13251633645681749</v>
       </c>
     </row>
     <row r="160">
@@ -12603,7 +12603,7 @@
         <v>-0.06212458271410719</v>
       </c>
       <c r="W160" t="n">
-        <v>0.11683960454229099</v>
+        <v>0.13317970841122176</v>
       </c>
     </row>
     <row r="161">
@@ -12674,7 +12674,7 @@
         <v>-0.07229989817365785</v>
       </c>
       <c r="W161" t="n">
-        <v>0.11716855447679816</v>
+        <v>0.13749002793831513</v>
       </c>
     </row>
     <row r="162">
@@ -12745,7 +12745,7 @@
         <v>-0.07688107326614484</v>
       </c>
       <c r="W162" t="n">
-        <v>0.10687253736544611</v>
+        <v>0.1380231674945314</v>
       </c>
     </row>
     <row r="163">
@@ -12816,7 +12816,7 @@
         <v>-0.05160469686967663</v>
       </c>
       <c r="W163" t="n">
-        <v>0.13488720030371146</v>
+        <v>0.1357756839303449</v>
       </c>
     </row>
     <row r="164">
@@ -12887,7 +12887,7 @@
         <v>-0.008114485140249778</v>
       </c>
       <c r="W164" t="n">
-        <v>0.12536725871506074</v>
+        <v>0.14570782116776498</v>
       </c>
     </row>
     <row r="165">
@@ -12958,7 +12958,7 @@
         <v>0.012347171040067408</v>
       </c>
       <c r="W165" t="n">
-        <v>0.11754868161776967</v>
+        <v>0.12735142638597666</v>
       </c>
     </row>
     <row r="166">
@@ -13029,7 +13029,7 @@
         <v>-0.024749291078294183</v>
       </c>
       <c r="W166" t="n">
-        <v>0.12276915399300142</v>
+        <v>0.13949839760490154</v>
       </c>
     </row>
     <row r="167">
@@ -13100,7 +13100,7 @@
         <v>-0.08674715770725985</v>
       </c>
       <c r="W167" t="n">
-        <v>0.12948399203531988</v>
+        <v>0.1377804908162414</v>
       </c>
     </row>
     <row r="168">
@@ -13171,7 +13171,7 @@
         <v>-0.07623682347998315</v>
       </c>
       <c r="W168" t="n">
-        <v>0.1267703488850262</v>
+        <v>0.14154595315159862</v>
       </c>
     </row>
     <row r="169">
@@ -13242,7 +13242,7 @@
         <v>-0.03445156052705115</v>
       </c>
       <c r="W169" t="n">
-        <v>0.11508806090243481</v>
+        <v>0.13648341247803206</v>
       </c>
     </row>
     <row r="170">
@@ -13313,7 +13313,7 @@
         <v>0.0331961764566327</v>
       </c>
       <c r="W170" t="n">
-        <v>0.12052832680946803</v>
+        <v>0.13811058708260912</v>
       </c>
     </row>
     <row r="171">
@@ -13384,7 +13384,7 @@
         <v>0.03714440689604672</v>
       </c>
       <c r="W171" t="n">
-        <v>0.11832918284484244</v>
+        <v>0.13927421519673422</v>
       </c>
     </row>
     <row r="172">
@@ -13455,7 +13455,7 @@
         <v>0.04375440814336409</v>
       </c>
       <c r="W172" t="n">
-        <v>0.12203070942004317</v>
+        <v>0.13849423027170868</v>
       </c>
     </row>
     <row r="173">
@@ -13526,7 +13526,7 @@
         <v>0.03665502127128523</v>
       </c>
       <c r="W173" t="n">
-        <v>0.11312454483655583</v>
+        <v>0.1353137500178011</v>
       </c>
     </row>
     <row r="174">
@@ -13597,7 +13597,7 @@
         <v>0.03199868622765535</v>
       </c>
       <c r="W174" t="n">
-        <v>0.11253446475068328</v>
+        <v>0.12754118591338928</v>
       </c>
     </row>
     <row r="175">
@@ -13668,7 +13668,7 @@
         <v>0.0177893654750322</v>
       </c>
       <c r="W175" t="n">
-        <v>0.11234607297653403</v>
+        <v>0.13620221541929317</v>
       </c>
     </row>
     <row r="176">
@@ -13739,7 +13739,7 @@
         <v>-0.017292381960754315</v>
       </c>
       <c r="W176" t="n">
-        <v>0.10937644375642872</v>
+        <v>0.13050330189785303</v>
       </c>
     </row>
     <row r="177">
@@ -13810,7 +13810,7 @@
         <v>-0.02461520223221529</v>
       </c>
       <c r="W177" t="n">
-        <v>0.12071770909118362</v>
+        <v>0.13108524065512675</v>
       </c>
     </row>
     <row r="178">
@@ -13881,7 +13881,7 @@
         <v>-0.020238787323995658</v>
       </c>
       <c r="W178" t="n">
-        <v>0.10573304285939242</v>
+        <v>0.13047537530434902</v>
       </c>
     </row>
     <row r="179">
@@ -13952,7 +13952,7 @@
         <v>-0.01964170265055453</v>
       </c>
       <c r="W179" t="n">
-        <v>0.11003687783886452</v>
+        <v>0.12862717923322023</v>
       </c>
     </row>
     <row r="180">
@@ -14023,7 +14023,7 @@
         <v>-0.01612079215738469</v>
       </c>
       <c r="W180" t="n">
-        <v>0.1131861410698187</v>
+        <v>0.13114688299769128</v>
       </c>
     </row>
     <row r="181">
@@ -14094,7 +14094,7 @@
         <v>-0.025117096159183977</v>
       </c>
       <c r="W181" t="n">
-        <v>0.1128113550260348</v>
+        <v>0.1320528657521137</v>
       </c>
     </row>
     <row r="182">
@@ -14165,7 +14165,7 @@
         <v>-0.01408485109714415</v>
       </c>
       <c r="W182" t="n">
-        <v>0.10859928297437166</v>
+        <v>0.12681977617309587</v>
       </c>
     </row>
     <row r="183">
@@ -14236,7 +14236,7 @@
         <v>-0.023449739593842063</v>
       </c>
       <c r="W183" t="n">
-        <v>0.10846278982297618</v>
+        <v>0.11098544032455834</v>
       </c>
     </row>
     <row r="184">
@@ -14307,7 +14307,7 @@
         <v>-0.024367549971322816</v>
       </c>
       <c r="W184" t="n">
-        <v>0.11201938782337759</v>
+        <v>0.1250429753116746</v>
       </c>
     </row>
     <row r="185">
@@ -14378,7 +14378,7 @@
         <v>-0.03272453545716017</v>
       </c>
       <c r="W185" t="n">
-        <v>0.1129938205186342</v>
+        <v>0.1260549669351095</v>
       </c>
     </row>
     <row r="186">
@@ -14449,7 +14449,7 @@
         <v>-0.015599155514158428</v>
       </c>
       <c r="W186" t="n">
-        <v>0.11053640481421469</v>
+        <v>0.12966022551670553</v>
       </c>
     </row>
     <row r="187">
@@ -14520,7 +14520,7 @@
         <v>-0.02420660519683486</v>
       </c>
       <c r="W187" t="n">
-        <v>0.10960367656412313</v>
+        <v>0.12095085325725123</v>
       </c>
     </row>
     <row r="188">
@@ -14591,7 +14591,7 @@
         <v>0.0011392604785449428</v>
       </c>
       <c r="W188" t="n">
-        <v>0.10755575043542556</v>
+        <v>0.12314902164234626</v>
       </c>
     </row>
     <row r="189">
@@ -14662,7 +14662,7 @@
         <v>0.017727831602063426</v>
       </c>
       <c r="W189" t="n">
-        <v>0.10345622808848881</v>
+        <v>0.1202542007873329</v>
       </c>
     </row>
     <row r="190">
@@ -14733,7 +14733,7 @@
         <v>0.027520765202862115</v>
       </c>
       <c r="W190" t="n">
-        <v>0.10968859404093895</v>
+        <v>0.1255805376994357</v>
       </c>
     </row>
     <row r="191">
@@ -14804,7 +14804,7 @@
         <v>0.027814020547749216</v>
       </c>
       <c r="W191" t="n">
-        <v>0.10884721731204589</v>
+        <v>0.12478107088716849</v>
       </c>
     </row>
     <row r="192">
@@ -14875,7 +14875,7 @@
         <v>0.02331377891051257</v>
       </c>
       <c r="W192" t="n">
-        <v>0.10857458997353651</v>
+        <v>0.1269637822185383</v>
       </c>
     </row>
     <row r="193">
@@ -14946,7 +14946,7 @@
         <v>0.03776919457132784</v>
       </c>
       <c r="W193" t="n">
-        <v>0.10961176735100393</v>
+        <v>0.1219914878202642</v>
       </c>
     </row>
     <row r="194">
@@ -15017,7 +15017,7 @@
         <v>0.0469198333417414</v>
       </c>
       <c r="W194" t="n">
-        <v>0.10972940934806905</v>
+        <v>0.12097705966459074</v>
       </c>
     </row>
     <row r="195">
@@ -15088,7 +15088,7 @@
         <v>0.024835332066423823</v>
       </c>
       <c r="W195" t="n">
-        <v>0.10594145899376939</v>
+        <v>0.12211185162286115</v>
       </c>
     </row>
     <row r="196">
@@ -15159,7 +15159,7 @@
         <v>0.012979285851858043</v>
       </c>
       <c r="W196" t="n">
-        <v>0.10460890983163595</v>
+        <v>0.11976492861033866</v>
       </c>
     </row>
     <row r="197">
@@ -15230,7 +15230,7 @@
         <v>0.01774827134106176</v>
       </c>
       <c r="W197" t="n">
-        <v>0.10269475634670437</v>
+        <v>0.12249466506173982</v>
       </c>
     </row>
     <row r="198">
@@ -15301,7 +15301,7 @@
         <v>0.01127374450151332</v>
       </c>
       <c r="W198" t="n">
-        <v>0.10614150730956792</v>
+        <v>0.11762315924509605</v>
       </c>
     </row>
     <row r="199">
@@ -15372,7 +15372,7 @@
         <v>0.024866532278116</v>
       </c>
       <c r="W199" t="n">
-        <v>0.1022475610846441</v>
+        <v>0.11715170362001047</v>
       </c>
     </row>
     <row r="200">
@@ -15443,7 +15443,7 @@
         <v>0.02861192649341441</v>
       </c>
       <c r="W200" t="n">
-        <v>0.0995126301699606</v>
+        <v>0.1150588148652993</v>
       </c>
     </row>
     <row r="201">
@@ -15514,7 +15514,7 @@
         <v>0.00936365948955415</v>
       </c>
       <c r="W201" t="n">
-        <v>0.09986247295426905</v>
+        <v>0.11577048412649328</v>
       </c>
     </row>
     <row r="202">
@@ -15585,7 +15585,7 @@
         <v>-0.005660092804352628</v>
       </c>
       <c r="W202" t="n">
-        <v>0.09694333547706932</v>
+        <v>0.11196901518602433</v>
       </c>
     </row>
     <row r="203">
@@ -15656,7 +15656,7 @@
         <v>-0.022774124330270047</v>
       </c>
       <c r="W203" t="n">
-        <v>0.09792853813312921</v>
+        <v>0.11708423510319217</v>
       </c>
     </row>
     <row r="204">
@@ -15727,7 +15727,7 @@
         <v>-0.02881541982184213</v>
       </c>
       <c r="W204" t="n">
-        <v>0.10167903824949222</v>
+        <v>0.11255162408357468</v>
       </c>
     </row>
     <row r="205">
@@ -15798,7 +15798,7 @@
         <v>-0.010875501261765882</v>
       </c>
       <c r="W205" t="n">
-        <v>0.0999970912790563</v>
+        <v>0.11722714094197077</v>
       </c>
     </row>
     <row r="206">
@@ -15869,7 +15869,7 @@
         <v>-0.01770339956373576</v>
       </c>
       <c r="W206" t="n">
-        <v>0.10016343206931852</v>
+        <v>0.11924047796007903</v>
       </c>
     </row>
     <row r="207">
@@ -15940,7 +15940,7 @@
         <v>-0.00937159080118704</v>
       </c>
       <c r="W207" t="n">
-        <v>0.10670673818819539</v>
+        <v>0.11746479555523767</v>
       </c>
     </row>
     <row r="208">
@@ -16011,7 +16011,7 @@
         <v>-0.014898436399116824</v>
       </c>
       <c r="W208" t="n">
-        <v>0.09833655756142133</v>
+        <v>0.11885483844791862</v>
       </c>
     </row>
     <row r="209">
@@ -16082,7 +16082,7 @@
         <v>-0.021878719432010297</v>
       </c>
       <c r="W209" t="n">
-        <v>0.09379498933769019</v>
+        <v>0.10876119384080912</v>
       </c>
     </row>
     <row r="210">
@@ -16153,7 +16153,7 @@
         <v>-0.03109656862101191</v>
       </c>
       <c r="W210" t="n">
-        <v>0.10303254485272374</v>
+        <v>0.11580616167269564</v>
       </c>
     </row>
     <row r="211">
@@ -16224,7 +16224,7 @@
         <v>-0.022557067463224716</v>
       </c>
       <c r="W211" t="n">
-        <v>0.10156547867927317</v>
+        <v>0.12174283642789561</v>
       </c>
     </row>
     <row r="212">
@@ -16295,7 +16295,7 @@
         <v>-0.009168354341016658</v>
       </c>
       <c r="W212" t="n">
-        <v>0.11229420073761748</v>
+        <v>0.11432667104915199</v>
       </c>
     </row>
     <row r="213">
@@ -16366,7 +16366,7 @@
         <v>0.015811739849517982</v>
       </c>
       <c r="W213" t="n">
-        <v>0.1029351008008646</v>
+        <v>0.11976221764803813</v>
       </c>
     </row>
     <row r="214">
@@ -16437,7 +16437,7 @@
         <v>0.019727777734837748</v>
       </c>
       <c r="W214" t="n">
-        <v>0.10142543164939141</v>
+        <v>0.12344096507360637</v>
       </c>
     </row>
     <row r="215">
@@ -16508,7 +16508,7 @@
         <v>0.03855095688006901</v>
       </c>
       <c r="W215" t="n">
-        <v>0.09257044296738833</v>
+        <v>0.10915862448638958</v>
       </c>
     </row>
     <row r="216">
@@ -16579,7 +16579,7 @@
         <v>0.04202933445518708</v>
       </c>
       <c r="W216" t="n">
-        <v>0.08780203160136779</v>
+        <v>0.1066977802226181</v>
       </c>
     </row>
     <row r="217">
@@ -16650,7 +16650,7 @@
         <v>0.05117532206103046</v>
       </c>
       <c r="W217" t="n">
-        <v>0.09041362037069595</v>
+        <v>0.10692043036026144</v>
       </c>
     </row>
     <row r="218">
@@ -16721,7 +16721,7 @@
         <v>0.020993730176866822</v>
       </c>
       <c r="W218" t="n">
-        <v>0.08940434694392603</v>
+        <v>0.10194878390185633</v>
       </c>
     </row>
     <row r="219">
@@ -16792,7 +16792,7 @@
         <v>0.012128004809482777</v>
       </c>
       <c r="W219" t="n">
-        <v>0.0902709203558571</v>
+        <v>0.10572079215702587</v>
       </c>
     </row>
     <row r="220">
@@ -16863,7 +16863,7 @@
         <v>-0.0014222263513321062</v>
       </c>
       <c r="W220" t="n">
-        <v>0.08787733991324698</v>
+        <v>0.09064057132084324</v>
       </c>
     </row>
     <row r="221">
@@ -16934,7 +16934,7 @@
         <v>0.020279387972824085</v>
       </c>
       <c r="W221" t="n">
-        <v>0.09013354491402324</v>
+        <v>0.10130106850286347</v>
       </c>
     </row>
     <row r="222">
@@ -17005,7 +17005,7 @@
         <v>0.02556994370217469</v>
       </c>
       <c r="W222" t="n">
-        <v>0.08807575526801573</v>
+        <v>0.10549055589872665</v>
       </c>
     </row>
     <row r="223">
@@ -17076,7 +17076,7 @@
         <v>0.02381097225712098</v>
       </c>
       <c r="W223" t="n">
-        <v>0.09094764683624065</v>
+        <v>0.10299718838992858</v>
       </c>
     </row>
     <row r="224">
@@ -17147,7 +17147,7 @@
         <v>0.014435588506852087</v>
       </c>
       <c r="W224" t="n">
-        <v>0.09338362685517188</v>
+        <v>0.1039046637928643</v>
       </c>
     </row>
     <row r="225">
@@ -17218,7 +17218,7 @@
         <v>-0.006848287717382525</v>
       </c>
       <c r="W225" t="n">
-        <v>0.09447490860142294</v>
+        <v>0.10607194905961423</v>
       </c>
     </row>
     <row r="226">
@@ -17289,7 +17289,7 @@
         <v>-0.0032288397209806544</v>
       </c>
       <c r="W226" t="n">
-        <v>0.09453378557224103</v>
+        <v>0.10301287459058972</v>
       </c>
     </row>
     <row r="227">
@@ -17360,7 +17360,7 @@
         <v>-1.953876446376089E-5</v>
       </c>
       <c r="W227" t="n">
-        <v>0.08785502820286442</v>
+        <v>0.10105800227705228</v>
       </c>
     </row>
     <row r="228">
@@ -17431,7 +17431,7 @@
         <v>0.0203194118415866</v>
       </c>
       <c r="W228" t="n">
-        <v>0.09497627024340502</v>
+        <v>0.09990233746508358</v>
       </c>
     </row>
     <row r="229">
@@ -17502,7 +17502,7 @@
         <v>0.016243517982106527</v>
       </c>
       <c r="W229" t="n">
-        <v>0.08861153466999196</v>
+        <v>0.09822948047926991</v>
       </c>
     </row>
     <row r="230">
@@ -17573,7 +17573,7 @@
         <v>0.01109885223148293</v>
       </c>
       <c r="W230" t="n">
-        <v>0.09531411345085561</v>
+        <v>0.10745883276473371</v>
       </c>
     </row>
     <row r="231">
@@ -17644,7 +17644,7 @@
         <v>-0.001577176548049312</v>
       </c>
       <c r="W231" t="n">
-        <v>0.09186231424693406</v>
+        <v>0.10588842119993339</v>
       </c>
     </row>
     <row r="232">
@@ -17715,7 +17715,7 @@
         <v>-7.634273750189505E-4</v>
       </c>
       <c r="W232" t="n">
-        <v>0.08718900365936501</v>
+        <v>0.08904804613939458</v>
       </c>
     </row>
     <row r="233">
@@ -17786,7 +17786,7 @@
         <v>0.014533521703737305</v>
       </c>
       <c r="W233" t="n">
-        <v>0.090705963645292</v>
+        <v>0.09727449601860388</v>
       </c>
     </row>
     <row r="234">
@@ -17857,7 +17857,7 @@
         <v>0.01617483335219142</v>
       </c>
       <c r="W234" t="n">
-        <v>0.08615725168788187</v>
+        <v>0.09984256916234446</v>
       </c>
     </row>
     <row r="235">
@@ -17928,7 +17928,7 @@
         <v>-0.004018172434248088</v>
       </c>
       <c r="W235" t="n">
-        <v>0.08873249607431621</v>
+        <v>0.1012141232021357</v>
       </c>
     </row>
     <row r="236">
@@ -17999,7 +17999,7 @@
         <v>-0.029055122038443893</v>
       </c>
       <c r="W236" t="n">
-        <v>0.10084815127465124</v>
+        <v>0.10891092149316321</v>
       </c>
     </row>
     <row r="237">
@@ -18070,7 +18070,7 @@
         <v>-0.031206114379050326</v>
       </c>
       <c r="W237" t="n">
-        <v>0.08546752125602099</v>
+        <v>0.10463627025026614</v>
       </c>
     </row>
     <row r="238">
@@ -18141,7 +18141,7 @@
         <v>-0.024589529201842937</v>
       </c>
       <c r="W238" t="n">
-        <v>0.09067734648705512</v>
+        <v>0.10406159083671432</v>
       </c>
     </row>
     <row r="239">
@@ -18212,7 +18212,7 @@
         <v>-0.019913427998390534</v>
       </c>
       <c r="W239" t="n">
-        <v>0.09307956620194889</v>
+        <v>0.10451723911009413</v>
       </c>
     </row>
     <row r="240">
@@ -18283,7 +18283,7 @@
         <v>-0.0035474096841091804</v>
       </c>
       <c r="W240" t="n">
-        <v>0.08529171277752381</v>
+        <v>0.10561597336406879</v>
       </c>
     </row>
     <row r="241">
@@ -18354,7 +18354,7 @@
         <v>-0.014928891953843004</v>
       </c>
       <c r="W241" t="n">
-        <v>0.09448846869298005</v>
+        <v>0.10695991277187722</v>
       </c>
     </row>
     <row r="242">
@@ -18425,7 +18425,7 @@
         <v>-0.00112129703778799</v>
       </c>
       <c r="W242" t="n">
-        <v>0.09034254286800072</v>
+        <v>0.10728539410639874</v>
       </c>
     </row>
     <row r="243">
@@ -18496,7 +18496,7 @@
         <v>-0.00947634418940867</v>
       </c>
       <c r="W243" t="n">
-        <v>0.09277540147229744</v>
+        <v>0.10713645727554058</v>
       </c>
     </row>
     <row r="244">
@@ -18567,7 +18567,7 @@
         <v>-0.004133841285577283</v>
       </c>
       <c r="W244" t="n">
-        <v>0.09853685531943769</v>
+        <v>0.1147762638554791</v>
       </c>
     </row>
     <row r="245">
@@ -18638,7 +18638,7 @@
         <v>-0.03408757230069006</v>
       </c>
       <c r="W245" t="n">
-        <v>0.09424992566874692</v>
+        <v>0.11611580238114455</v>
       </c>
     </row>
     <row r="246">
@@ -18709,7 +18709,7 @@
         <v>-0.03807311853857965</v>
       </c>
       <c r="W246" t="n">
-        <v>0.10214074504338287</v>
+        <v>0.11441139376614762</v>
       </c>
     </row>
     <row r="247">
@@ -18780,7 +18780,7 @@
         <v>-0.05864786867386841</v>
       </c>
       <c r="W247" t="n">
-        <v>0.09850994634073366</v>
+        <v>0.11196956833169085</v>
       </c>
     </row>
     <row r="248">
@@ -18851,7 +18851,7 @@
         <v>-0.042586445514813005</v>
       </c>
       <c r="W248" t="n">
-        <v>0.0942798225473437</v>
+        <v>0.1157996383664111</v>
       </c>
     </row>
     <row r="249">
@@ -18922,7 +18922,7 @@
         <v>-0.04306668355012854</v>
       </c>
       <c r="W249" t="n">
-        <v>0.0999092563865008</v>
+        <v>0.11517456416505706</v>
       </c>
     </row>
     <row r="250">
@@ -18993,7 +18993,7 @@
         <v>-0.06531815532695362</v>
       </c>
       <c r="W250" t="n">
-        <v>0.1003752527027377</v>
+        <v>0.1230022764486654</v>
       </c>
     </row>
     <row r="251">
@@ -19064,7 +19064,7 @@
         <v>-0.08055815656397203</v>
       </c>
       <c r="W251" t="n">
-        <v>0.12462444761765298</v>
+        <v>0.14260535494973778</v>
       </c>
     </row>
     <row r="252">
@@ -19135,7 +19135,7 @@
         <v>-0.1404285551749293</v>
       </c>
       <c r="W252" t="n">
-        <v>0.11235220844811267</v>
+        <v>0.14110933020111904</v>
       </c>
     </row>
     <row r="253">
@@ -19206,7 +19206,7 @@
         <v>-0.1632083854373069</v>
       </c>
       <c r="W253" t="n">
-        <v>0.12896123452912506</v>
+        <v>0.1374335857203979</v>
       </c>
     </row>
     <row r="254">
@@ -19277,7 +19277,7 @@
         <v>-0.10762874544468215</v>
       </c>
       <c r="W254" t="n">
-        <v>0.10880657151218698</v>
+        <v>0.13041468286087843</v>
       </c>
     </row>
     <row r="255">
@@ -19348,7 +19348,7 @@
         <v>-0.06978581224738768</v>
       </c>
       <c r="W255" t="n">
-        <v>0.10613516448211087</v>
+        <v>0.12750662163072507</v>
       </c>
     </row>
     <row r="256">
@@ -19419,7 +19419,7 @@
         <v>-0.03721747210979301</v>
       </c>
       <c r="W256" t="n">
-        <v>0.10915823603759554</v>
+        <v>0.12531670347547583</v>
       </c>
     </row>
     <row r="257">
@@ -19490,7 +19490,7 @@
         <v>-0.02284403063640633</v>
       </c>
       <c r="W257" t="n">
-        <v>0.10736628886689513</v>
+        <v>0.11907978916941456</v>
       </c>
     </row>
     <row r="258">
@@ -19561,7 +19561,7 @@
         <v>-0.0084273741863084</v>
       </c>
       <c r="W258" t="n">
-        <v>0.1047737602588121</v>
+        <v>0.12415161989017792</v>
       </c>
     </row>
     <row r="259">
@@ -19632,7 +19632,7 @@
         <v>0.0460453865910433</v>
       </c>
       <c r="W259" t="n">
-        <v>0.10781504186916693</v>
+        <v>0.1315568728053458</v>
       </c>
     </row>
     <row r="260">
@@ -19703,7 +19703,7 @@
         <v>0.053009931708423594</v>
       </c>
       <c r="W260" t="n">
-        <v>0.11814418179302505</v>
+        <v>0.1283738059502516</v>
       </c>
     </row>
     <row r="261">
@@ -19774,7 +19774,7 @@
         <v>0.10307002539974273</v>
       </c>
       <c r="W261" t="n">
-        <v>0.11205521140418041</v>
+        <v>0.12387588256164639</v>
       </c>
     </row>
     <row r="262">
@@ -19845,7 +19845,7 @@
         <v>0.059176275906473765</v>
       </c>
       <c r="W262" t="n">
-        <v>0.10412088633436835</v>
+        <v>0.11943746316816169</v>
       </c>
     </row>
     <row r="263">
@@ -19916,7 +19916,7 @@
         <v>0.06795548446818125</v>
       </c>
       <c r="W263" t="n">
-        <v>0.09081290688596784</v>
+        <v>0.11999958939989698</v>
       </c>
     </row>
     <row r="264">
@@ -19987,7 +19987,7 @@
         <v>0.04303114597989113</v>
       </c>
       <c r="W264" t="n">
-        <v>0.09991912420563415</v>
+        <v>0.10178349230856111</v>
       </c>
     </row>
     <row r="265">
@@ -20058,7 +20058,7 @@
         <v>0.04925813136762431</v>
       </c>
       <c r="W265" t="n">
-        <v>0.0979108451206636</v>
+        <v>0.11091821280066827</v>
       </c>
     </row>
     <row r="266">
@@ -20129,7 +20129,7 @@
         <v>0.04000675435869211</v>
       </c>
       <c r="W266" t="n">
-        <v>0.10228734713909161</v>
+        <v>0.10921448771177082</v>
       </c>
     </row>
     <row r="267">
@@ -20200,7 +20200,7 @@
         <v>0.008712994895766192</v>
       </c>
       <c r="W267" t="n">
-        <v>0.09845173610632825</v>
+        <v>0.11333890396148527</v>
       </c>
     </row>
     <row r="268">
@@ -20271,7 +20271,7 @@
         <v>0.01594238401973766</v>
       </c>
       <c r="W268" t="n">
-        <v>0.1029474426739835</v>
+        <v>0.1014441632139423</v>
       </c>
     </row>
     <row r="269">
@@ -20342,7 +20342,7 @@
         <v>0.06097280875352062</v>
       </c>
       <c r="W269" t="n">
-        <v>0.10691840161113672</v>
+        <v>0.12449838392910115</v>
       </c>
     </row>
     <row r="270">
@@ -20413,7 +20413,7 @@
         <v>0.03906611166323243</v>
       </c>
       <c r="W270" t="n">
-        <v>0.10291360594932404</v>
+        <v>0.12337627248649038</v>
       </c>
     </row>
     <row r="271">
@@ -20484,7 +20484,7 @@
         <v>0.011399365769246498</v>
       </c>
       <c r="W271" t="n">
-        <v>0.10489529324940115</v>
+        <v>0.11146528956521741</v>
       </c>
     </row>
     <row r="272">
@@ -20555,7 +20555,7 @@
         <v>-0.0035441848785500154</v>
       </c>
       <c r="W272" t="n">
-        <v>0.10617011250516431</v>
+        <v>0.11177670047155312</v>
       </c>
     </row>
     <row r="273">
@@ -20626,7 +20626,7 @@
         <v>0.017960270185478716</v>
       </c>
       <c r="W273" t="n">
-        <v>0.09538534864586042</v>
+        <v>0.11451275293869155</v>
       </c>
     </row>
     <row r="274">
@@ -20697,7 +20697,7 @@
         <v>0.04211312160338802</v>
       </c>
       <c r="W274" t="n">
-        <v>0.08994166544625466</v>
+        <v>0.11530513955013594</v>
       </c>
     </row>
     <row r="275">
@@ -20768,7 +20768,7 @@
         <v>0.02809762291941993</v>
       </c>
       <c r="W275" t="n">
-        <v>0.10433683110610141</v>
+        <v>0.10799936454773601</v>
       </c>
     </row>
     <row r="276">
@@ -20839,7 +20839,7 @@
         <v>0.03496529832687617</v>
       </c>
       <c r="W276" t="n">
-        <v>0.10289323119687635</v>
+        <v>0.11468207703256705</v>
       </c>
     </row>
     <row r="277">
@@ -20910,7 +20910,7 @@
         <v>0.00959583975209042</v>
       </c>
       <c r="W277" t="n">
-        <v>0.10676349201978416</v>
+        <v>0.11233762630133064</v>
       </c>
     </row>
     <row r="278">
@@ -20981,7 +20981,7 @@
         <v>0.010672088823128756</v>
       </c>
       <c r="W278" t="n">
-        <v>0.1042338936483819</v>
+        <v>0.12851285588923606</v>
       </c>
     </row>
     <row r="279">
@@ -21052,7 +21052,7 @@
         <v>0.0234573775681971</v>
       </c>
       <c r="W279" t="n">
-        <v>0.10649321049184109</v>
+        <v>0.11939105992304608</v>
       </c>
     </row>
     <row r="280">
@@ -21123,7 +21123,7 @@
         <v>0.021604402433580666</v>
       </c>
       <c r="W280" t="n">
-        <v>0.10301519903800828</v>
+        <v>0.11966193122980114</v>
       </c>
     </row>
     <row r="281">
@@ -21194,7 +21194,7 @@
         <v>0.008828230341179397</v>
       </c>
       <c r="W281" t="n">
-        <v>0.09522788250504742</v>
+        <v>0.11773650382584641</v>
       </c>
     </row>
     <row r="282">
@@ -21265,7 +21265,7 @@
         <v>-0.020340643798959158</v>
       </c>
       <c r="W282" t="n">
-        <v>0.10142523313121617</v>
+        <v>0.11875007195825223</v>
       </c>
     </row>
     <row r="283">
@@ -21336,7 +21336,7 @@
         <v>-0.02582355985754744</v>
       </c>
       <c r="W283" t="n">
-        <v>0.0987551834188254</v>
+        <v>0.11814395656622491</v>
       </c>
     </row>
     <row r="284">
@@ -21407,7 +21407,7 @@
         <v>-0.02782770413817673</v>
       </c>
       <c r="W284" t="n">
-        <v>0.10290948761013459</v>
+        <v>0.10897661416950165</v>
       </c>
     </row>
     <row r="285">
@@ -21478,7 +21478,7 @@
         <v>-0.0507349516865428</v>
       </c>
       <c r="W285" t="n">
-        <v>0.11047850864164548</v>
+        <v>0.13079623339501223</v>
       </c>
     </row>
     <row r="286">
@@ -21549,7 +21549,7 @@
         <v>-0.058122902263185644</v>
       </c>
       <c r="W286" t="n">
-        <v>0.11151067728323731</v>
+        <v>0.13246755773868038</v>
       </c>
     </row>
     <row r="287">
@@ -21620,7 +21620,7 @@
         <v>-0.04566877418644184</v>
       </c>
       <c r="W287" t="n">
-        <v>0.10110695157013382</v>
+        <v>0.12648250521342536</v>
       </c>
     </row>
     <row r="288">
@@ -21691,7 +21691,7 @@
         <v>-0.02922380240133382</v>
       </c>
       <c r="W288" t="n">
-        <v>0.11489572718805964</v>
+        <v>0.13141663405202514</v>
       </c>
     </row>
     <row r="289">
@@ -21762,7 +21762,7 @@
         <v>-0.020679661328838687</v>
       </c>
       <c r="W289" t="n">
-        <v>0.10446456596144571</v>
+        <v>0.13325985524101497</v>
       </c>
     </row>
     <row r="290">
@@ -21833,7 +21833,7 @@
         <v>-0.012441478357175004</v>
       </c>
       <c r="W290" t="n">
-        <v>0.10873551874929964</v>
+        <v>0.10959290942571084</v>
       </c>
     </row>
     <row r="291">
@@ -21904,7 +21904,7 @@
         <v>-0.014559992911313949</v>
       </c>
       <c r="W291" t="n">
-        <v>0.10663987157223692</v>
+        <v>0.12407198239090386</v>
       </c>
     </row>
     <row r="292">
@@ -21975,7 +21975,7 @@
         <v>-0.013805047043893386</v>
       </c>
       <c r="W292" t="n">
-        <v>0.10663791392621924</v>
+        <v>0.12918332293004975</v>
       </c>
     </row>
     <row r="293">
@@ -22046,7 +22046,7 @@
         <v>-0.005966132354163977</v>
       </c>
       <c r="W293" t="n">
-        <v>0.11277110452569732</v>
+        <v>0.12804054875034246</v>
       </c>
     </row>
     <row r="294">
@@ -22117,7 +22117,7 @@
         <v>0.0015708845409795015</v>
       </c>
       <c r="W294" t="n">
-        <v>0.09418588516397788</v>
+        <v>0.11311698696050417</v>
       </c>
     </row>
     <row r="295">
@@ -22188,7 +22188,7 @@
         <v>-0.011761422733877865</v>
       </c>
       <c r="W295" t="n">
-        <v>0.12201000431166585</v>
+        <v>0.12776733380857358</v>
       </c>
     </row>
     <row r="296">
@@ -22259,7 +22259,7 @@
         <v>-0.022543235387718803</v>
       </c>
       <c r="W296" t="n">
-        <v>0.1079444459626055</v>
+        <v>0.12046351240837855</v>
       </c>
     </row>
     <row r="297">
@@ -22330,7 +22330,7 @@
         <v>-0.017566819129064284</v>
       </c>
       <c r="W297" t="n">
-        <v>0.10456062747923843</v>
+        <v>0.11336397168926685</v>
       </c>
     </row>
     <row r="298">
@@ -22401,7 +22401,7 @@
         <v>-0.01782804062628395</v>
       </c>
       <c r="W298" t="n">
-        <v>0.11229551315947484</v>
+        <v>0.11374782579314593</v>
       </c>
     </row>
     <row r="299">
@@ -22472,7 +22472,7 @@
         <v>-0.026417500598282035</v>
       </c>
       <c r="W299" t="n">
-        <v>0.10405917522533248</v>
+        <v>0.13114054254219354</v>
       </c>
     </row>
     <row r="300">
@@ -22543,7 +22543,7 @@
         <v>-0.03176374848148772</v>
       </c>
       <c r="W300" t="n">
-        <v>0.1045610901289231</v>
+        <v>0.11685734400696575</v>
       </c>
     </row>
     <row r="301">
@@ -22614,7 +22614,7 @@
         <v>-0.006905063940267603</v>
       </c>
       <c r="W301" t="n">
-        <v>0.10609351287054346</v>
+        <v>0.11916095924848756</v>
       </c>
     </row>
     <row r="302">
@@ -22685,7 +22685,7 @@
         <v>7.242648870132967E-4</v>
       </c>
       <c r="W302" t="n">
-        <v>0.0924726116735463</v>
+        <v>0.11376889509893055</v>
       </c>
     </row>
     <row r="303">
@@ -22756,7 +22756,7 @@
         <v>0.013682215793619439</v>
       </c>
       <c r="W303" t="n">
-        <v>0.10970657471358582</v>
+        <v>0.13157505844622325</v>
       </c>
     </row>
     <row r="304">
@@ -22827,7 +22827,7 @@
         <v>-0.008702699158122822</v>
       </c>
       <c r="W304" t="n">
-        <v>0.10926347296042152</v>
+        <v>0.11249351200555571</v>
       </c>
     </row>
     <row r="305">
@@ -22898,7 +22898,7 @@
         <v>-0.009082815309121093</v>
       </c>
       <c r="W305" t="n">
-        <v>0.10593551033227909</v>
+        <v>0.11631134672311547</v>
       </c>
     </row>
     <row r="306">
@@ -22969,7 +22969,7 @@
         <v>-0.002014914359272107</v>
       </c>
       <c r="W306" t="n">
-        <v>0.10475755640849561</v>
+        <v>0.11794202648569715</v>
       </c>
     </row>
     <row r="307">
@@ -23040,7 +23040,7 @@
         <v>0.02375150584276226</v>
       </c>
       <c r="W307" t="n">
-        <v>0.10415317584789337</v>
+        <v>0.11115197640216272</v>
       </c>
     </row>
     <row r="308">
@@ -23111,7 +23111,7 @@
         <v>0.027878334015946592</v>
       </c>
       <c r="W308" t="n">
-        <v>0.09615239752711266</v>
+        <v>0.11544196064745674</v>
       </c>
     </row>
     <row r="309">
@@ -23182,7 +23182,7 @@
         <v>0.03659102674971487</v>
       </c>
       <c r="W309" t="n">
-        <v>0.09581686110481719</v>
+        <v>0.10757983243585759</v>
       </c>
     </row>
     <row r="310">
@@ -23253,7 +23253,7 @@
         <v>0.035328171403366554</v>
       </c>
       <c r="W310" t="n">
-        <v>0.08811508527920106</v>
+        <v>0.10473061699239943</v>
       </c>
     </row>
     <row r="311">
@@ -23324,7 +23324,7 @@
         <v>0.03647395904468487</v>
       </c>
       <c r="W311" t="n">
-        <v>0.09881031327673713</v>
+        <v>0.11311897401204263</v>
       </c>
     </row>
     <row r="312">
@@ -23395,7 +23395,7 @@
         <v>0.02064871797969103</v>
       </c>
       <c r="W312" t="n">
-        <v>0.08929984322621867</v>
+        <v>0.10898930852086929</v>
       </c>
     </row>
     <row r="313">
@@ -23466,7 +23466,7 @@
         <v>0.0034154081344999476</v>
       </c>
       <c r="W313" t="n">
-        <v>0.09157266237930713</v>
+        <v>0.0990239128500664</v>
       </c>
     </row>
     <row r="314">
@@ -23537,7 +23537,7 @@
         <v>0.01242578254182235</v>
       </c>
       <c r="W314" t="n">
-        <v>0.09363552655265772</v>
+        <v>0.10893849952792087</v>
       </c>
     </row>
     <row r="315">
@@ -23608,7 +23608,7 @@
         <v>0.013593826996280554</v>
       </c>
       <c r="W315" t="n">
-        <v>0.09225087088176416</v>
+        <v>0.10907523078097817</v>
       </c>
     </row>
     <row r="316">
@@ -23679,7 +23679,7 @@
         <v>0.02338638176801031</v>
       </c>
       <c r="W316" t="n">
-        <v>0.09417210486680844</v>
+        <v>0.11208175787437659</v>
       </c>
     </row>
     <row r="317">
@@ -23750,7 +23750,7 @@
         <v>-0.010629437676036814</v>
       </c>
       <c r="W317" t="n">
-        <v>0.09020620840617022</v>
+        <v>0.1009021054430801</v>
       </c>
     </row>
     <row r="318">
@@ -23821,7 +23821,7 @@
         <v>-0.018450507806503227</v>
       </c>
       <c r="W318" t="n">
-        <v>0.09729360742356209</v>
+        <v>0.10251041263448932</v>
       </c>
     </row>
     <row r="319">
@@ -23892,7 +23892,7 @@
         <v>-0.02292033519526768</v>
       </c>
       <c r="W319" t="n">
-        <v>0.0928265068949247</v>
+        <v>0.10682083017254307</v>
       </c>
     </row>
     <row r="320">
@@ -23963,7 +23963,7 @@
         <v>-0.011488863985133234</v>
       </c>
       <c r="W320" t="n">
-        <v>0.08657115055413711</v>
+        <v>0.10057467664256009</v>
       </c>
     </row>
     <row r="321">
@@ -24034,7 +24034,7 @@
         <v>-0.008553621112876244</v>
       </c>
       <c r="W321" t="n">
-        <v>0.09464204745285204</v>
+        <v>0.10455170517577692</v>
       </c>
     </row>
     <row r="322">
@@ -24105,7 +24105,7 @@
         <v>-0.009191198070880473</v>
       </c>
       <c r="W322" t="n">
-        <v>0.08856141023334793</v>
+        <v>0.10850316242202372</v>
       </c>
     </row>
     <row r="323">
@@ -24176,7 +24176,7 @@
         <v>-0.001588309710494288</v>
       </c>
       <c r="W323" t="n">
-        <v>0.09081021308436459</v>
+        <v>0.09929808642532924</v>
       </c>
     </row>
     <row r="324">
@@ -24247,7 +24247,7 @@
         <v>0.012262209914194931</v>
       </c>
       <c r="W324" t="n">
-        <v>0.0928919038890727</v>
+        <v>0.1036118653765738</v>
       </c>
     </row>
     <row r="325">
@@ -24318,7 +24318,7 @@
         <v>0.013953490518750725</v>
       </c>
       <c r="W325" t="n">
-        <v>0.09311480826494345</v>
+        <v>0.10818691531654578</v>
       </c>
     </row>
     <row r="326">
@@ -24389,7 +24389,7 @@
         <v>0.011886352725863008</v>
       </c>
       <c r="W326" t="n">
-        <v>0.08819898484946365</v>
+        <v>0.10641156405583084</v>
       </c>
     </row>
     <row r="327">
@@ -24460,7 +24460,7 @@
         <v>-0.006410922734543946</v>
       </c>
       <c r="W327" t="n">
-        <v>0.09461033980940227</v>
+        <v>0.1005566637911495</v>
       </c>
     </row>
     <row r="328">
@@ -24531,7 +24531,7 @@
         <v>0.014944692908416029</v>
       </c>
       <c r="W328" t="n">
-        <v>0.08455527154273118</v>
+        <v>0.1006151483430957</v>
       </c>
     </row>
     <row r="329">
@@ -24602,7 +24602,7 @@
         <v>0.02315139100968768</v>
       </c>
       <c r="W329" t="n">
-        <v>0.08824613694289139</v>
+        <v>0.0996249975941696</v>
       </c>
     </row>
     <row r="330">
@@ -24673,7 +24673,7 @@
         <v>0.0177675381936099</v>
       </c>
       <c r="W330" t="n">
-        <v>0.08737721182082166</v>
+        <v>0.0990108582313924</v>
       </c>
     </row>
     <row r="331">
@@ -24744,7 +24744,7 @@
         <v>0.010722494790136858</v>
       </c>
       <c r="W331" t="n">
-        <v>0.08719211948954547</v>
+        <v>0.09916752924033015</v>
       </c>
     </row>
     <row r="332">
@@ -24815,7 +24815,7 @@
         <v>0.013058647590054685</v>
       </c>
       <c r="W332" t="n">
-        <v>0.08996217633413006</v>
+        <v>0.09996661077734313</v>
       </c>
     </row>
     <row r="333">
@@ -24886,7 +24886,7 @@
         <v>0.005082340755598902</v>
       </c>
       <c r="W333" t="n">
-        <v>0.08777210905767621</v>
+        <v>0.10211075371719193</v>
       </c>
     </row>
     <row r="334">
@@ -24957,7 +24957,7 @@
         <v>-0.0020094886305174328</v>
       </c>
       <c r="W334" t="n">
-        <v>0.08326406659607385</v>
+        <v>0.09968501548208017</v>
       </c>
     </row>
     <row r="335">
@@ -25028,7 +25028,7 @@
         <v>-0.006086844235170322</v>
       </c>
       <c r="W335" t="n">
-        <v>0.08456515758538762</v>
+        <v>0.08652766477213336</v>
       </c>
     </row>
     <row r="336">
@@ -25099,7 +25099,7 @@
         <v>0.015913184120462744</v>
       </c>
       <c r="W336" t="n">
-        <v>0.07809705568232156</v>
+        <v>0.08696258537340988</v>
       </c>
     </row>
     <row r="337">
@@ -25170,7 +25170,7 @@
         <v>0.014714616890657806</v>
       </c>
       <c r="W337" t="n">
-        <v>0.08495380933940291</v>
+        <v>0.10087888162746712</v>
       </c>
     </row>
     <row r="338">
@@ -25241,7 +25241,7 @@
         <v>-0.00933796965667681</v>
       </c>
       <c r="W338" t="n">
-        <v>0.0830896831785543</v>
+        <v>0.08530284864194246</v>
       </c>
     </row>
     <row r="339">
@@ -25312,7 +25312,7 @@
         <v>-0.040220466694386205</v>
       </c>
       <c r="W339" t="n">
-        <v>0.07501280972414993</v>
+        <v>0.08526491884958988</v>
       </c>
     </row>
     <row r="340">
@@ -25383,7 +25383,7 @@
         <v>-0.012132015580452984</v>
       </c>
       <c r="W340" t="n">
-        <v>0.07875624555012074</v>
+        <v>0.08346019784648089</v>
       </c>
     </row>
     <row r="341">
@@ -25454,7 +25454,7 @@
         <v>-0.00807245375515311</v>
       </c>
       <c r="W341" t="n">
-        <v>0.0753821137960316</v>
+        <v>0.09239340386097733</v>
       </c>
     </row>
     <row r="342">
@@ -25525,7 +25525,7 @@
         <v>0.016868542899367032</v>
       </c>
       <c r="W342" t="n">
-        <v>0.07522791027529954</v>
+        <v>0.0846125062802216</v>
       </c>
     </row>
     <row r="343">
@@ -25596,7 +25596,7 @@
         <v>0.011212981529965044</v>
       </c>
       <c r="W343" t="n">
-        <v>0.07802494233460897</v>
+        <v>0.0862134133527706</v>
       </c>
     </row>
     <row r="344">
@@ -25667,7 +25667,7 @@
         <v>0.0165681948216718</v>
       </c>
       <c r="W344" t="n">
-        <v>0.09452153741631573</v>
+        <v>0.10273311523783299</v>
       </c>
     </row>
     <row r="345">
@@ -25738,7 +25738,7 @@
         <v>0.007477700898200255</v>
       </c>
       <c r="W345" t="n">
-        <v>0.08316598732020287</v>
+        <v>0.0913524919808539</v>
       </c>
     </row>
     <row r="346">
@@ -25809,7 +25809,7 @@
         <v>0.016519977705657392</v>
       </c>
       <c r="W346" t="n">
-        <v>0.08846007113874031</v>
+        <v>0.09883166974757596</v>
       </c>
     </row>
     <row r="347">
@@ -25880,7 +25880,7 @@
         <v>0.009133879017324821</v>
       </c>
       <c r="W347" t="n">
-        <v>0.08460789557116982</v>
+        <v>0.10354253276921241</v>
       </c>
     </row>
     <row r="348">
@@ -25951,7 +25951,7 @@
         <v>0.010722645325985988</v>
       </c>
       <c r="W348" t="n">
-        <v>0.0918878177962419</v>
+        <v>0.09714954017956166</v>
       </c>
     </row>
     <row r="349">
@@ -26022,7 +26022,7 @@
         <v>0.01675579214597667</v>
       </c>
       <c r="W349" t="n">
-        <v>0.08203441700741039</v>
+        <v>0.09341440578128817</v>
       </c>
     </row>
     <row r="350">
@@ -26093,7 +26093,7 @@
         <v>0.011776482151347883</v>
       </c>
       <c r="W350" t="n">
-        <v>0.07968891316232202</v>
+        <v>0.09728969973570241</v>
       </c>
     </row>
     <row r="351">
@@ -26164,7 +26164,7 @@
         <v>0.004760966154020788</v>
       </c>
       <c r="W351" t="n">
-        <v>0.07809102857479018</v>
+        <v>0.09013815185750618</v>
       </c>
     </row>
     <row r="352">
@@ -26235,7 +26235,7 @@
         <v>0.00705794147017114</v>
       </c>
       <c r="W352" t="n">
-        <v>0.07517811759644827</v>
+        <v>0.0885906051604713</v>
       </c>
     </row>
     <row r="353">
@@ -26306,7 +26306,7 @@
         <v>0.004451233901389396</v>
       </c>
       <c r="W353" t="n">
-        <v>0.08324839446070824</v>
+        <v>0.08619292263997123</v>
       </c>
     </row>
     <row r="354">
@@ -26377,7 +26377,7 @@
         <v>0.003858780161267476</v>
       </c>
       <c r="W354" t="n">
-        <v>0.08121204907648757</v>
+        <v>0.09545776789592292</v>
       </c>
     </row>
     <row r="355">
@@ -26448,7 +26448,7 @@
         <v>-0.0024187823479751925</v>
       </c>
       <c r="W355" t="n">
-        <v>0.07886462761407897</v>
+        <v>0.09768590294783529</v>
       </c>
     </row>
     <row r="356">
@@ -26519,7 +26519,7 @@
         <v>-0.0037401319723451695</v>
       </c>
       <c r="W356" t="n">
-        <v>0.07726334199091789</v>
+        <v>0.09026453597918548</v>
       </c>
     </row>
     <row r="357">
@@ -26590,7 +26590,7 @@
         <v>7.44238861789856E-4</v>
       </c>
       <c r="W357" t="n">
-        <v>0.07527195540358529</v>
+        <v>0.0842122996901405</v>
       </c>
     </row>
     <row r="358">
@@ -26661,7 +26661,7 @@
         <v>-9.706308328942368E-4</v>
       </c>
       <c r="W358" t="n">
-        <v>0.07109322911236261</v>
+        <v>0.07688097867031873</v>
       </c>
     </row>
     <row r="359">
@@ -26732,7 +26732,7 @@
         <v>0.008763300474499093</v>
       </c>
       <c r="W359" t="n">
-        <v>0.06849431970324985</v>
+        <v>0.08046883648900748</v>
       </c>
     </row>
     <row r="360">
@@ -26803,7 +26803,7 @@
         <v>0.011257288734631127</v>
       </c>
       <c r="W360" t="n">
-        <v>0.06948237140565884</v>
+        <v>0.07545937577145984</v>
       </c>
     </row>
     <row r="361">
@@ -26874,7 +26874,7 @@
         <v>-0.001501566075634314</v>
       </c>
       <c r="W361" t="n">
-        <v>0.06891877054427772</v>
+        <v>0.07898264302340648</v>
       </c>
     </row>
     <row r="362">
@@ -26945,7 +26945,7 @@
         <v>-5.44133945535992E-4</v>
       </c>
       <c r="W362" t="n">
-        <v>0.0712867576243611</v>
+        <v>0.08183543341633578</v>
       </c>
     </row>
     <row r="363">
@@ -27016,7 +27016,7 @@
         <v>0.002078735553961833</v>
       </c>
       <c r="W363" t="n">
-        <v>0.08362168329670594</v>
+        <v>0.08816225592780821</v>
       </c>
     </row>
     <row r="364">
@@ -27087,7 +27087,7 @@
         <v>-0.0021251403282957562</v>
       </c>
       <c r="W364" t="n">
-        <v>0.07878947005507139</v>
+        <v>0.08640010284273462</v>
       </c>
     </row>
     <row r="365">
@@ -27158,7 +27158,7 @@
         <v>-0.009412069208373022</v>
       </c>
       <c r="W365" t="n">
-        <v>0.08819838929029317</v>
+        <v>0.08652431416718664</v>
       </c>
     </row>
     <row r="366">
@@ -27229,7 +27229,7 @@
         <v>-0.01789768964292147</v>
       </c>
       <c r="W366" t="n">
-        <v>0.07219351391739187</v>
+        <v>0.08535764619649806</v>
       </c>
     </row>
     <row r="367">
@@ -27300,7 +27300,7 @@
         <v>-0.004085206018113797</v>
       </c>
       <c r="W367" t="n">
-        <v>0.0758606722472063</v>
+        <v>0.08143241030661882</v>
       </c>
     </row>
     <row r="368">
@@ -27371,7 +27371,7 @@
         <v>-0.012240151378764327</v>
       </c>
       <c r="W368" t="n">
-        <v>0.06657323310912916</v>
+        <v>0.07830396141684141</v>
       </c>
     </row>
     <row r="369">
@@ -27442,7 +27442,7 @@
         <v>-0.0037316371440324486</v>
       </c>
       <c r="W369" t="n">
-        <v>0.06938146427376496</v>
+        <v>0.08692085323816681</v>
       </c>
     </row>
     <row r="370">
@@ -27513,7 +27513,7 @@
         <v>-0.009572642758578541</v>
       </c>
       <c r="W370" t="n">
-        <v>0.0771074498261097</v>
+        <v>0.08245837528545966</v>
       </c>
     </row>
     <row r="371">
@@ -27584,7 +27584,7 @@
         <v>-0.0029993312421195684</v>
       </c>
       <c r="W371" t="n">
-        <v>0.08050124588479653</v>
+        <v>0.08849155167820563</v>
       </c>
     </row>
     <row r="372">
@@ -27655,7 +27655,7 @@
         <v>-0.007817684212697296</v>
       </c>
       <c r="W372" t="n">
-        <v>0.07924826460564245</v>
+        <v>0.09654150408843908</v>
       </c>
     </row>
     <row r="373">
@@ -27726,7 +27726,7 @@
         <v>0.0032761341643971417</v>
       </c>
       <c r="W373" t="n">
-        <v>0.08061671527855456</v>
+        <v>0.10275829765599624</v>
       </c>
     </row>
   </sheetData>
